--- a/output2023.xlsx
+++ b/output2023.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkspm.yp\Downloads\skyfield-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFCE67C-AD9A-4622-95B7-5072E82B3A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="25812" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="378">
   <si>
     <t>1. Chin. Title</t>
   </si>
@@ -208,25 +202,25 @@
     <t>雙子座流星雨 (ZHR=120 )</t>
   </si>
   <si>
-    <t>水星合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>金星合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>火星合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>木星合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>土星合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>天王星合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>海王星合月 (0.00°)</t>
+    <t>水星合月（赤經）</t>
+  </si>
+  <si>
+    <t>金星合月（赤經）</t>
+  </si>
+  <si>
+    <t>火星合月（赤經）</t>
+  </si>
+  <si>
+    <t>木星合月（赤經）</t>
+  </si>
+  <si>
+    <t>土星合月（赤經）</t>
+  </si>
+  <si>
+    <t>天王星合月（赤經）</t>
+  </si>
+  <si>
+    <t>海王星合月（赤經）</t>
   </si>
   <si>
     <t>半影月食</t>
@@ -235,49 +229,49 @@
     <t>月偏食</t>
   </si>
   <si>
-    <t>水星合金星(0.00°)</t>
-  </si>
-  <si>
-    <t>水星合火星(0.00°)</t>
-  </si>
-  <si>
-    <t>水星合木星(0.00°)</t>
-  </si>
-  <si>
-    <t>水星合土星(0.00°)</t>
-  </si>
-  <si>
-    <t>水星合天王星(0.00°)</t>
-  </si>
-  <si>
-    <t>水星合海王星(0.00°)</t>
-  </si>
-  <si>
-    <t>金星合木星(0.00°)</t>
-  </si>
-  <si>
-    <t>金星合土星(0.00°)</t>
-  </si>
-  <si>
-    <t>金星合天王星(0.00°)</t>
-  </si>
-  <si>
-    <t>金星合海王星(0.00°)</t>
-  </si>
-  <si>
-    <t>角宿一合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>軒轅十四合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>心宿二合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>畢宿五合月 (0.00°)</t>
-  </si>
-  <si>
-    <t>北河三合月 (0.00°)</t>
+    <t>水星合金星（赤經）</t>
+  </si>
+  <si>
+    <t>水星合火星（赤經）</t>
+  </si>
+  <si>
+    <t>水星合木星（赤經）</t>
+  </si>
+  <si>
+    <t>水星合土星（赤經）</t>
+  </si>
+  <si>
+    <t>水星合天王星（赤經）</t>
+  </si>
+  <si>
+    <t>水星合海王星（赤經）</t>
+  </si>
+  <si>
+    <t>金星合木星（赤經）</t>
+  </si>
+  <si>
+    <t>金星合土星（赤經）</t>
+  </si>
+  <si>
+    <t>金星合天王星（赤經）</t>
+  </si>
+  <si>
+    <t>金星合海王星（赤經）</t>
+  </si>
+  <si>
+    <t>角宿一合月（赤經）</t>
+  </si>
+  <si>
+    <t>軒轅十四合月（赤經）</t>
+  </si>
+  <si>
+    <t>心宿二合月（赤經）</t>
+  </si>
+  <si>
+    <t>畢宿五合月（赤經）</t>
+  </si>
+  <si>
+    <t>北河三合月（赤經）</t>
   </si>
   <si>
     <t>2. Eng. Title</t>
@@ -466,25 +460,25 @@
     <t>Geminids (ZHR=120 )</t>
   </si>
   <si>
-    <t>Mercury Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Venus Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Mars Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Jupiter Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Saturn Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Uranus Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Neptune Moon Conjunction (0.00°)</t>
+    <t>Mercury Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Venus Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Mars Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Jupiter Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Saturn Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Uranus Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Neptune Moon Conjunction (right ascension)</t>
   </si>
   <si>
     <t>Penumbral Lunar Eclipse</t>
@@ -493,49 +487,49 @@
     <t>Partial Lunar Eclipse</t>
   </si>
   <si>
-    <t>mercury venus conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>mercury mars conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>mercury jupiter conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>mercury saturn conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>mercury uranus conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>mercury neptune conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>venus jupiter conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>venus saturn conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>venus uranus conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>venus neptune conjunction  (0.00°)</t>
-  </si>
-  <si>
-    <t>Spica Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Regulus Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Antares Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Aldebaran Moon Conjunction (0.00°)</t>
-  </si>
-  <si>
-    <t>Pollux Moon Conjunction (0.00°)</t>
+    <t>mercury venus conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>mercury mars conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>mercury jupiter conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>mercury saturn conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>mercury uranus conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>mercury neptune conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>venus jupiter conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>venus saturn conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>venus uranus conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>venus neptune conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Spica Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Regulus Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Antares Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Aldebaran Moon Conjunction (right ascension)</t>
+  </si>
+  <si>
+    <t>Pollux Moon Conjunction (right ascension)</t>
   </si>
   <si>
     <t>Date</t>
@@ -1159,24 +1153,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1200,29 +1186,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1264,7 +1241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,27 +1273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,24 +1307,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1541,21 +1482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F457"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="D269" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1499,7 @@
       <c r="C1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>173</v>
       </c>
       <c r="E1" t="s">
@@ -1575,7 +1509,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1585,14 +1519,14 @@
       <c r="C2" s="1">
         <v>45006</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.22530092592592599</v>
+      <c r="D2">
+        <v>0.225300925925926</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1602,14 +1536,14 @@
       <c r="C3" s="1">
         <v>45098</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.95681712962962961</v>
+      <c r="D3">
+        <v>0.9568171296296296</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1619,14 +1553,14 @@
       <c r="C4" s="1">
         <v>45192</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.61804398148148143</v>
+      <c r="D4">
+        <v>0.6180439814814814</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1636,14 +1570,14 @@
       <c r="C5" s="1">
         <v>45282</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.47732638888888879</v>
+      <c r="D5">
+        <v>0.4773263888888888</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1653,14 +1587,14 @@
       <c r="C6" s="1">
         <v>44933</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.29715277777777782</v>
+      <c r="D6">
+        <v>0.2971527777777778</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1670,14 +1604,14 @@
       <c r="C7" s="1">
         <v>44941</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.42383101851851851</v>
+      <c r="D7">
+        <v>0.4238310185185185</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1687,14 +1621,14 @@
       <c r="C8" s="1">
         <v>44948</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>0.2036458333333333</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1704,14 +1638,14 @@
       <c r="C9" s="1">
         <v>44954</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.97136574074074078</v>
+      <c r="D9">
+        <v>0.9713657407407408</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1721,14 +1655,14 @@
       <c r="C10" s="1">
         <v>44963</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.10315972222222219</v>
+      <c r="D10">
+        <v>0.1031597222222222</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1738,14 +1672,14 @@
       <c r="C11" s="1">
         <v>44971</v>
       </c>
-      <c r="D11" s="2">
-        <v>4.9768518518518521E-4</v>
+      <c r="D11">
+        <v>0.0004976851851851852</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1755,14 +1689,14 @@
       <c r="C12" s="1">
         <v>44977</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.62905092592592593</v>
+      <c r="D12">
+        <v>0.6290509259259259</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1772,14 +1706,14 @@
       <c r="C13" s="1">
         <v>44984</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>0.6705671296296295</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1789,14 +1723,14 @@
       <c r="C14" s="1">
         <v>44992</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.86135416666666664</v>
+      <c r="D14">
+        <v>0.8613541666666666</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1806,14 +1740,14 @@
       <c r="C15" s="1">
         <v>45000</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>0.4224074074074074</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1823,14 +1757,14 @@
       <c r="C16" s="1">
         <v>45007</v>
       </c>
-      <c r="D16" s="2">
-        <v>5.7731481481481467E-2</v>
+      <c r="D16">
+        <v>0.05773148148148147</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1840,14 +1774,14 @@
       <c r="C17" s="1">
         <v>45014</v>
       </c>
-      <c r="D17" s="2">
-        <v>0.43914351851851852</v>
+      <c r="D17">
+        <v>0.4391435185185185</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1857,14 +1791,14 @@
       <c r="C18" s="1">
         <v>45022</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.52396990740740745</v>
+      <c r="D18">
+        <v>0.5239699074074075</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1874,14 +1808,14 @@
       <c r="C19" s="1">
         <v>45029</v>
       </c>
-      <c r="D19" s="2">
-        <v>0.71625000000000005</v>
+      <c r="D19">
+        <v>0.7162500000000001</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1891,14 +1825,14 @@
       <c r="C20" s="1">
         <v>45036</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.50870370370370366</v>
+      <c r="D20">
+        <v>0.5087037037037037</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1908,14 +1842,14 @@
       <c r="C21" s="1">
         <v>45044</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.22217592592592589</v>
+      <c r="D21">
+        <v>0.2221759259259259</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1925,14 +1859,14 @@
       <c r="C22" s="1">
         <v>45052</v>
       </c>
-      <c r="D22" s="2">
-        <v>6.5312499999999996E-2</v>
+      <c r="D22">
+        <v>0.0653125</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1942,14 +1876,14 @@
       <c r="C23" s="1">
         <v>45058</v>
       </c>
-      <c r="D23" s="2">
-        <v>0.93630787037037033</v>
+      <c r="D23">
+        <v>0.9363078703703703</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1959,14 +1893,14 @@
       <c r="C24" s="1">
         <v>45065</v>
       </c>
-      <c r="D24" s="2">
-        <v>0.99532407407407408</v>
+      <c r="D24">
+        <v>0.9953240740740741</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1976,14 +1910,14 @@
       <c r="C25" s="1">
         <v>45073</v>
       </c>
-      <c r="D25" s="2">
-        <v>0.97380787037037042</v>
+      <c r="D25">
+        <v>0.9738078703703704</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1993,14 +1927,14 @@
       <c r="C26" s="1">
         <v>45081</v>
       </c>
-      <c r="D26" s="2">
-        <v>0.48731481481481481</v>
+      <c r="D26">
+        <v>0.4873148148148148</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2010,14 +1944,14 @@
       <c r="C27" s="1">
         <v>45088</v>
       </c>
-      <c r="D27" s="2">
-        <v>0.14679398148148151</v>
+      <c r="D27">
+        <v>0.1467939814814815</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2027,14 +1961,14 @@
       <c r="C28" s="1">
         <v>45095</v>
       </c>
-      <c r="D28" s="2">
-        <v>0.52579861111111115</v>
+      <c r="D28">
+        <v>0.5257986111111111</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2044,14 +1978,14 @@
       <c r="C29" s="1">
         <v>45103</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.65952546296296288</v>
+      <c r="D29">
+        <v>0.6595254629629629</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2061,14 +1995,14 @@
       <c r="C30" s="1">
         <v>45110</v>
       </c>
-      <c r="D30" s="2">
-        <v>0.81853009259259257</v>
+      <c r="D30">
+        <v>0.8185300925925926</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2078,14 +2012,14 @@
       <c r="C31" s="1">
         <v>45117</v>
       </c>
-      <c r="D31" s="2">
-        <v>0.40825231481481478</v>
+      <c r="D31">
+        <v>0.4082523148148148</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2095,14 +2029,14 @@
       <c r="C32" s="1">
         <v>45125</v>
       </c>
-      <c r="D32" s="2">
-        <v>0.10543981481481481</v>
+      <c r="D32">
+        <v>0.1054398148148148</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2112,14 +2046,14 @@
       <c r="C33" s="1">
         <v>45133</v>
       </c>
-      <c r="D33" s="2">
-        <v>0.25471064814814809</v>
+      <c r="D33">
+        <v>0.2547106481481481</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2129,14 +2063,14 @@
       <c r="C34" s="1">
         <v>45140</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>0.1053240740740741</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2146,14 +2080,14 @@
       <c r="C35" s="1">
         <v>45146</v>
       </c>
-      <c r="D35" s="2">
-        <v>0.76974537037037027</v>
+      <c r="D35">
+        <v>0.7697453703703703</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2163,14 +2097,14 @@
       <c r="C36" s="1">
         <v>45154</v>
       </c>
-      <c r="D36" s="2">
-        <v>0.73484953703703704</v>
+      <c r="D36">
+        <v>0.734849537037037</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2180,14 +2114,14 @@
       <c r="C37" s="1">
         <v>45162</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>0.7480902777777777</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2197,14 +2131,14 @@
       <c r="C38" s="1">
         <v>45169</v>
       </c>
-      <c r="D38" s="2">
-        <v>0.39973379629629641</v>
+      <c r="D38">
+        <v>0.3997337962962964</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2214,14 +2148,14 @@
       <c r="C39" s="1">
         <v>45176</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>0.2646412037037037</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2231,14 +2165,14 @@
       <c r="C40" s="1">
         <v>45184</v>
       </c>
-      <c r="D40" s="2">
-        <v>0.40263888888888888</v>
+      <c r="D40">
+        <v>0.4026388888888889</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2248,14 +2182,14 @@
       <c r="C41" s="1">
         <v>45192</v>
       </c>
-      <c r="D41" s="2">
-        <v>0.14707175925925919</v>
+      <c r="D41">
+        <v>0.1470717592592592</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2265,14 +2199,14 @@
       <c r="C42" s="1">
         <v>45198</v>
       </c>
-      <c r="D42" s="2">
-        <v>0.74828703703703703</v>
+      <c r="D42">
+        <v>0.748287037037037</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2282,14 +2216,14 @@
       <c r="C43" s="1">
         <v>45205</v>
       </c>
-      <c r="D43" s="2">
-        <v>0.90813657407407422</v>
+      <c r="D43">
+        <v>0.9081365740740742</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2299,14 +2233,14 @@
       <c r="C44" s="1">
         <v>45214</v>
       </c>
-      <c r="D44" s="2">
-        <v>7.9965277777777774E-2</v>
+      <c r="D44">
+        <v>0.07996527777777777</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2316,14 +2250,14 @@
       <c r="C45" s="1">
         <v>45221</v>
       </c>
-      <c r="D45" s="2">
-        <v>0.47877314814814809</v>
+      <c r="D45">
+        <v>0.4787731481481481</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2333,14 +2267,14 @@
       <c r="C46" s="1">
         <v>45228</v>
       </c>
-      <c r="D46" s="2">
-        <v>0.18335648148148151</v>
+      <c r="D46">
+        <v>0.1833564814814815</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2350,14 +2284,14 @@
       <c r="C47" s="1">
         <v>45235</v>
       </c>
-      <c r="D47" s="2">
-        <v>0.69222222222222218</v>
+      <c r="D47">
+        <v>0.6922222222222222</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2367,14 +2301,14 @@
       <c r="C48" s="1">
         <v>45243</v>
       </c>
-      <c r="D48" s="2">
-        <v>0.72736111111111112</v>
+      <c r="D48">
+        <v>0.7273611111111111</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2384,14 +2318,14 @@
       <c r="C49" s="1">
         <v>45250</v>
       </c>
-      <c r="D49" s="2">
-        <v>0.78464120370370372</v>
+      <c r="D49">
+        <v>0.7846412037037037</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2401,14 +2335,14 @@
       <c r="C50" s="1">
         <v>45257</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>0.7196527777777777</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2418,14 +2352,14 @@
       <c r="C51" s="1">
         <v>45265</v>
       </c>
-      <c r="D51" s="2">
-        <v>0.57587962962962969</v>
+      <c r="D51">
+        <v>0.5758796296296297</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2435,14 +2369,14 @@
       <c r="C52" s="1">
         <v>45273</v>
       </c>
-      <c r="D52" s="2">
-        <v>0.31391203703703702</v>
+      <c r="D52">
+        <v>0.313912037037037</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2452,14 +2386,14 @@
       <c r="C53" s="1">
         <v>45280</v>
       </c>
-      <c r="D53" s="2">
-        <v>0.11057870370370371</v>
+      <c r="D53">
+        <v>0.1105787037037037</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2469,14 +2403,14 @@
       <c r="C54" s="1">
         <v>45287</v>
       </c>
-      <c r="D54" s="2">
-        <v>0.35638888888888892</v>
+      <c r="D54">
+        <v>0.3563888888888889</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2486,8 +2420,8 @@
       <c r="C55" s="1">
         <v>44963</v>
       </c>
-      <c r="D55" s="2">
-        <v>0.10315972222222219</v>
+      <c r="D55">
+        <v>0.1031597222222222</v>
       </c>
       <c r="E55" t="s">
         <v>175</v>
@@ -2496,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2506,8 +2440,8 @@
       <c r="C56" s="1">
         <v>45169</v>
       </c>
-      <c r="D56" s="2">
-        <v>0.39973379629629641</v>
+      <c r="D56">
+        <v>0.3997337962962964</v>
       </c>
       <c r="E56" t="s">
         <v>176</v>
@@ -2516,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2526,14 +2460,14 @@
       <c r="C57" s="1">
         <v>44933</v>
       </c>
-      <c r="D57" s="2">
-        <v>0.87291666666666667</v>
+      <c r="D57">
+        <v>0.8729166666666667</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2543,14 +2477,14 @@
       <c r="C58" s="1">
         <v>45002</v>
       </c>
-      <c r="D58" s="2">
-        <v>0.78105324074074078</v>
+      <c r="D58">
+        <v>0.7810532407407408</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2560,14 +2494,14 @@
       <c r="C59" s="1">
         <v>45048</v>
       </c>
-      <c r="D59" s="2">
-        <v>0.31083333333333341</v>
+      <c r="D59">
+        <v>0.3108333333333334</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2577,14 +2511,14 @@
       <c r="C60" s="1">
         <v>45108</v>
       </c>
-      <c r="D60" s="2">
-        <v>0.54564814814814822</v>
+      <c r="D60">
+        <v>0.5456481481481482</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2594,14 +2528,14 @@
       <c r="C61" s="1">
         <v>45175</v>
       </c>
-      <c r="D61" s="2">
-        <v>0.79809027777777775</v>
+      <c r="D61">
+        <v>0.7980902777777777</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2611,14 +2545,14 @@
       <c r="C62" s="1">
         <v>45219</v>
       </c>
-      <c r="D62" s="2">
-        <v>0.56811342592592584</v>
+      <c r="D62">
+        <v>0.5681134259259258</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2628,14 +2562,14 @@
       <c r="C63" s="1">
         <v>45283</v>
       </c>
-      <c r="D63" s="2">
-        <v>0.12083333333333331</v>
+      <c r="D63">
+        <v>0.1208333333333333</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2645,14 +2579,14 @@
       <c r="C64" s="1">
         <v>45151</v>
       </c>
-      <c r="D64" s="2">
-        <v>0.80271990740740751</v>
+      <c r="D64">
+        <v>0.8027199074074075</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2662,14 +2596,14 @@
       <c r="C65" s="1">
         <v>45248</v>
       </c>
-      <c r="D65" s="2">
-        <v>0.57056712962962963</v>
+      <c r="D65">
+        <v>0.5705671296296296</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2679,14 +2613,14 @@
       <c r="C66" s="1">
         <v>45028</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>0.254849537037037</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2696,14 +2630,14 @@
       <c r="C67" s="1">
         <v>45233</v>
       </c>
-      <c r="D67" s="2">
-        <v>0.54331018518518515</v>
+      <c r="D67">
+        <v>0.5433101851851851</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -2713,14 +2647,14 @@
       <c r="C68" s="1">
         <v>44974</v>
       </c>
-      <c r="D68" s="2">
-        <v>3.3530092592592591E-2</v>
+      <c r="D68">
+        <v>0.03353009259259259</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2730,14 +2664,14 @@
       <c r="C69" s="1">
         <v>45165</v>
       </c>
-      <c r="D69" s="2">
-        <v>0.68606481481481474</v>
+      <c r="D69">
+        <v>0.6860648148148147</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2747,14 +2681,14 @@
       <c r="C70" s="1">
         <v>45056</v>
       </c>
-      <c r="D70" s="2">
-        <v>0.16377314814814811</v>
+      <c r="D70">
+        <v>0.1637731481481481</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2764,14 +2698,14 @@
       <c r="C71" s="1">
         <v>45244</v>
       </c>
-      <c r="D71" s="2">
-        <v>5.5937500000000001E-2</v>
+      <c r="D71">
+        <v>0.0559375</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2781,14 +2715,14 @@
       <c r="C72" s="1">
         <v>45001</v>
       </c>
-      <c r="D72" s="2">
-        <v>0.31872685185185179</v>
+      <c r="D72">
+        <v>0.3187268518518518</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -2798,14 +2732,14 @@
       <c r="C73" s="1">
         <v>45188</v>
       </c>
-      <c r="D73" s="2">
-        <v>0.80376157407407411</v>
+      <c r="D73">
+        <v>0.8037615740740741</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2815,14 +2749,14 @@
       <c r="C74" s="1">
         <v>44944</v>
       </c>
-      <c r="D74" s="2">
-        <v>0.94733796296296291</v>
+      <c r="D74">
+        <v>0.9473379629629629</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2832,14 +2766,14 @@
       <c r="C75" s="1">
         <v>45129</v>
       </c>
-      <c r="D75" s="2">
-        <v>0.49465277777777777</v>
+      <c r="D75">
+        <v>0.4946527777777778</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -2849,8 +2783,8 @@
       <c r="C76" s="1">
         <v>45081</v>
       </c>
-      <c r="D76" s="2">
-        <v>0.79222222222222216</v>
+      <c r="D76">
+        <v>0.7922222222222222</v>
       </c>
       <c r="E76" t="s">
         <v>177</v>
@@ -2859,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2869,8 +2803,8 @@
       <c r="C77" s="1">
         <v>45223</v>
       </c>
-      <c r="D77" s="2">
-        <v>0.30170138888888892</v>
+      <c r="D77">
+        <v>0.3017013888888889</v>
       </c>
       <c r="E77" t="s">
         <v>178</v>
@@ -2879,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -2889,8 +2823,8 @@
       <c r="C78" s="1">
         <v>44956</v>
       </c>
-      <c r="D78" s="2">
-        <v>0.57896990740740739</v>
+      <c r="D78">
+        <v>0.5789699074074074</v>
       </c>
       <c r="E78" t="s">
         <v>179</v>
@@ -2899,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -2909,8 +2843,8 @@
       <c r="C79" s="1">
         <v>45028</v>
       </c>
-      <c r="D79" s="2">
-        <v>0.25723379629629628</v>
+      <c r="D79">
+        <v>0.2572337962962963</v>
       </c>
       <c r="E79" t="s">
         <v>180</v>
@@ -2919,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -2929,8 +2863,8 @@
       <c r="C80" s="1">
         <v>45075</v>
       </c>
-      <c r="D80" s="2">
-        <v>0.56520833333333342</v>
+      <c r="D80">
+        <v>0.5652083333333334</v>
       </c>
       <c r="E80" t="s">
         <v>179</v>
@@ -2939,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -2949,7 +2883,7 @@
       <c r="C81" s="1">
         <v>45148</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>0.4073958333333334</v>
       </c>
       <c r="E81" t="s">
@@ -2959,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -2969,8 +2903,8 @@
       <c r="C82" s="1">
         <v>45191</v>
       </c>
-      <c r="D82" s="2">
-        <v>0.88612268518518522</v>
+      <c r="D82">
+        <v>0.8861226851851852</v>
       </c>
       <c r="E82" t="s">
         <v>182</v>
@@ -2979,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -2989,8 +2923,8 @@
       <c r="C83" s="1">
         <v>45264</v>
       </c>
-      <c r="D83" s="2">
-        <v>0.93645833333333328</v>
+      <c r="D83">
+        <v>0.9364583333333333</v>
       </c>
       <c r="E83" t="s">
         <v>183</v>
@@ -2999,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -3009,8 +2943,8 @@
       <c r="C84" s="1">
         <v>44934</v>
       </c>
-      <c r="D84" s="2">
-        <v>0.71087962962962969</v>
+      <c r="D84">
+        <v>0.7108796296296297</v>
       </c>
       <c r="E84" t="s">
         <v>184</v>
@@ -3019,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -3029,8 +2963,8 @@
       <c r="C85" s="1">
         <v>44961</v>
       </c>
-      <c r="D85" s="2">
-        <v>0.69380787037037039</v>
+      <c r="D85">
+        <v>0.6938078703703704</v>
       </c>
       <c r="E85" t="s">
         <v>185</v>
@@ -3039,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -3049,8 +2983,8 @@
       <c r="C86" s="1">
         <v>44989</v>
       </c>
-      <c r="D86" s="2">
-        <v>7.7488425925925933E-2</v>
+      <c r="D86">
+        <v>0.07748842592592593</v>
       </c>
       <c r="E86" t="s">
         <v>186</v>
@@ -3059,7 +2993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -3069,7 +3003,7 @@
       <c r="C87" s="1">
         <v>45016</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
         <v>0.8007291666666666</v>
       </c>
       <c r="E87" t="s">
@@ -3079,7 +3013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -3089,8 +3023,8 @@
       <c r="C88" s="1">
         <v>45044</v>
       </c>
-      <c r="D88" s="2">
-        <v>0.61273148148148149</v>
+      <c r="D88">
+        <v>0.6127314814814815</v>
       </c>
       <c r="E88" t="s">
         <v>188</v>
@@ -3099,7 +3033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -3109,8 +3043,8 @@
       <c r="C89" s="1">
         <v>45072</v>
       </c>
-      <c r="D89" s="2">
-        <v>0.40376157407407409</v>
+      <c r="D89">
+        <v>0.4037615740740741</v>
       </c>
       <c r="E89" t="s">
         <v>189</v>
@@ -3119,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -3129,7 +3063,7 @@
       <c r="C90" s="1">
         <v>45100</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>0.1089236111111111</v>
       </c>
       <c r="E90" t="s">
@@ -3139,7 +3073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -3149,8 +3083,8 @@
       <c r="C91" s="1">
         <v>45127</v>
       </c>
-      <c r="D91" s="2">
-        <v>0.63089120370370366</v>
+      <c r="D91">
+        <v>0.6308912037037037</v>
       </c>
       <c r="E91" t="s">
         <v>191</v>
@@ -3159,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -3169,8 +3103,8 @@
       <c r="C92" s="1">
         <v>45154</v>
       </c>
-      <c r="D92" s="2">
-        <v>0.84052083333333327</v>
+      <c r="D92">
+        <v>0.8405208333333333</v>
       </c>
       <c r="E92" t="s">
         <v>192</v>
@@ -3179,7 +3113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -3189,8 +3123,8 @@
       <c r="C93" s="1">
         <v>45181</v>
       </c>
-      <c r="D93" s="2">
-        <v>0.99637731481481484</v>
+      <c r="D93">
+        <v>0.9963773148148148</v>
       </c>
       <c r="E93" t="s">
         <v>193</v>
@@ -3199,7 +3133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -3209,8 +3143,8 @@
       <c r="C94" s="1">
         <v>45209</v>
       </c>
-      <c r="D94" s="2">
-        <v>0.49160879629629628</v>
+      <c r="D94">
+        <v>0.4916087962962963</v>
       </c>
       <c r="E94" t="s">
         <v>194</v>
@@ -3219,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -3229,8 +3163,8 @@
       <c r="C95" s="1">
         <v>45237</v>
       </c>
-      <c r="D95" s="2">
-        <v>0.24394675925925921</v>
+      <c r="D95">
+        <v>0.2439467592592592</v>
       </c>
       <c r="E95" t="s">
         <v>195</v>
@@ -3239,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3249,8 +3183,8 @@
       <c r="C96" s="1">
         <v>45265</v>
       </c>
-      <c r="D96" s="2">
-        <v>0.11202546296296299</v>
+      <c r="D96">
+        <v>0.112025462962963</v>
       </c>
       <c r="E96" t="s">
         <v>196</v>
@@ -3259,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -3269,8 +3203,8 @@
       <c r="C97" s="1">
         <v>44948</v>
       </c>
-      <c r="D97" s="2">
-        <v>0.20192129629629629</v>
+      <c r="D97">
+        <v>0.2019212962962963</v>
       </c>
       <c r="E97" t="s">
         <v>197</v>
@@ -3279,7 +3213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -3289,8 +3223,8 @@
       <c r="C98" s="1">
         <v>44976</v>
       </c>
-      <c r="D98" s="2">
-        <v>0.70769675925925934</v>
+      <c r="D98">
+        <v>0.7076967592592593</v>
       </c>
       <c r="E98" t="s">
         <v>198</v>
@@ -3299,7 +3233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -3309,8 +3243,8 @@
       <c r="C99" s="1">
         <v>45004</v>
       </c>
-      <c r="D99" s="2">
-        <v>0.96177083333333335</v>
+      <c r="D99">
+        <v>0.9617708333333334</v>
       </c>
       <c r="E99" t="s">
         <v>199</v>
@@ -3319,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -3329,8 +3263,8 @@
       <c r="C100" s="1">
         <v>45032</v>
       </c>
-      <c r="D100" s="2">
-        <v>0.42722222222222223</v>
+      <c r="D100">
+        <v>0.4272222222222222</v>
       </c>
       <c r="E100" t="s">
         <v>200</v>
@@ -3339,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -3349,8 +3283,8 @@
       <c r="C101" s="1">
         <v>45057</v>
       </c>
-      <c r="D101" s="2">
-        <v>0.54947916666666663</v>
+      <c r="D101">
+        <v>0.5494791666666666</v>
       </c>
       <c r="E101" t="s">
         <v>201</v>
@@ -3359,7 +3293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -3369,8 +3303,8 @@
       <c r="C102" s="1">
         <v>45084</v>
       </c>
-      <c r="D102" s="2">
-        <v>0.30133101851851851</v>
+      <c r="D102">
+        <v>0.3013310185185185</v>
       </c>
       <c r="E102" t="s">
         <v>202</v>
@@ -3379,7 +3313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -3389,8 +3323,8 @@
       <c r="C103" s="1">
         <v>45112</v>
       </c>
-      <c r="D103" s="2">
-        <v>0.27225694444444443</v>
+      <c r="D103">
+        <v>0.2722569444444444</v>
       </c>
       <c r="E103" t="s">
         <v>203</v>
@@ -3399,7 +3333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -3409,7 +3343,7 @@
       <c r="C104" s="1">
         <v>45140</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>0.5823032407407408</v>
       </c>
       <c r="E104" t="s">
@@ -3419,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3429,8 +3363,8 @@
       <c r="C105" s="1">
         <v>45169</v>
       </c>
-      <c r="D105" s="2">
-        <v>4.7453703703703698E-4</v>
+      <c r="D105">
+        <v>0.000474537037037037</v>
       </c>
       <c r="E105" t="s">
         <v>205</v>
@@ -3439,7 +3373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -3449,8 +3383,8 @@
       <c r="C106" s="1">
         <v>45197</v>
       </c>
-      <c r="D106" s="2">
-        <v>0.37896990740740738</v>
+      <c r="D106">
+        <v>0.3789699074074074</v>
       </c>
       <c r="E106" t="s">
         <v>206</v>
@@ -3459,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -3469,8 +3403,8 @@
       <c r="C107" s="1">
         <v>45225</v>
       </c>
-      <c r="D107" s="2">
-        <v>0.46521990740740737</v>
+      <c r="D107">
+        <v>0.4652199074074074</v>
       </c>
       <c r="E107" t="s">
         <v>207</v>
@@ -3479,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -3489,8 +3423,8 @@
       <c r="C108" s="1">
         <v>45252</v>
       </c>
-      <c r="D108" s="2">
-        <v>0.21392361111111111</v>
+      <c r="D108">
+        <v>0.2139236111111111</v>
       </c>
       <c r="E108" t="s">
         <v>208</v>
@@ -3499,7 +3433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -3509,8 +3443,8 @@
       <c r="C109" s="1">
         <v>45277</v>
       </c>
-      <c r="D109" s="2">
-        <v>0.11354166666666669</v>
+      <c r="D109">
+        <v>0.1135416666666667</v>
       </c>
       <c r="E109" t="s">
         <v>209</v>
@@ -3519,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -3529,8 +3463,8 @@
       <c r="C110" s="1">
         <v>45114</v>
       </c>
-      <c r="D110" s="2">
-        <v>0.17129629629629631</v>
+      <c r="D110">
+        <v>0.1712962962962963</v>
       </c>
       <c r="E110" t="s">
         <v>210</v>
@@ -3539,7 +3473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -3549,8 +3483,8 @@
       <c r="C111" s="1">
         <v>44931</v>
       </c>
-      <c r="D111" s="2">
-        <v>1.209490740740741E-2</v>
+      <c r="D111">
+        <v>0.01209490740740741</v>
       </c>
       <c r="E111" t="s">
         <v>211</v>
@@ -3559,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -3569,8 +3503,8 @@
       <c r="C112" s="1">
         <v>44946</v>
       </c>
-      <c r="D112" s="2">
-        <v>0.67099537037037038</v>
+      <c r="D112">
+        <v>0.6709953703703704</v>
       </c>
       <c r="E112" t="s">
         <v>212</v>
@@ -3579,7 +3513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -3589,8 +3523,8 @@
       <c r="C113" s="1">
         <v>44976</v>
       </c>
-      <c r="D113" s="2">
-        <v>0.27805555555555561</v>
+      <c r="D113">
+        <v>0.2780555555555556</v>
       </c>
       <c r="E113" t="s">
         <v>213</v>
@@ -3599,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -3609,8 +3543,8 @@
       <c r="C114" s="1">
         <v>45007</v>
       </c>
-      <c r="D114" s="2">
-        <v>0.40896990740740741</v>
+      <c r="D114">
+        <v>0.4089699074074074</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -3619,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -3629,8 +3563,8 @@
       <c r="C115" s="1">
         <v>45037</v>
       </c>
-      <c r="D115" s="2">
-        <v>0.68306712962962957</v>
+      <c r="D115">
+        <v>0.6830671296296296</v>
       </c>
       <c r="E115" t="s">
         <v>215</v>
@@ -3639,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -3649,8 +3583,8 @@
       <c r="C116" s="1">
         <v>45064</v>
       </c>
-      <c r="D116" s="2">
-        <v>0.28508101851851853</v>
+      <c r="D116">
+        <v>0.2850810185185185</v>
       </c>
       <c r="E116" t="s">
         <v>216</v>
@@ -3659,7 +3593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -3669,8 +3603,8 @@
       <c r="C117" s="1">
         <v>45094</v>
       </c>
-      <c r="D117" s="2">
-        <v>0.10747685185185191</v>
+      <c r="D117">
+        <v>0.1074768518518519</v>
       </c>
       <c r="E117" t="s">
         <v>217</v>
@@ -3679,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -3689,8 +3623,8 @@
       <c r="C118" s="1">
         <v>45126</v>
       </c>
-      <c r="D118" s="2">
-        <v>0.81395833333333334</v>
+      <c r="D118">
+        <v>0.8139583333333333</v>
       </c>
       <c r="E118" t="s">
         <v>218</v>
@@ -3699,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -3709,8 +3643,8 @@
       <c r="C119" s="1">
         <v>45157</v>
       </c>
-      <c r="D119" s="2">
-        <v>8.0300925925925928E-2</v>
+      <c r="D119">
+        <v>0.08030092592592593</v>
       </c>
       <c r="E119" t="s">
         <v>219</v>
@@ -3719,7 +3653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -3729,8 +3663,8 @@
       <c r="C120" s="1">
         <v>45183</v>
       </c>
-      <c r="D120" s="2">
-        <v>0.29149305555555549</v>
+      <c r="D120">
+        <v>0.2914930555555555</v>
       </c>
       <c r="E120" t="s">
         <v>220</v>
@@ -3739,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -3749,8 +3683,8 @@
       <c r="C121" s="1">
         <v>45213</v>
       </c>
-      <c r="D121" s="2">
-        <v>0.70124999999999993</v>
+      <c r="D121">
+        <v>0.7012499999999999</v>
       </c>
       <c r="E121" t="s">
         <v>221</v>
@@ -3759,7 +3693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -3769,8 +3703,8 @@
       <c r="C122" s="1">
         <v>45244</v>
       </c>
-      <c r="D122" s="2">
-        <v>0.90984953703703697</v>
+      <c r="D122">
+        <v>0.909849537037037</v>
       </c>
       <c r="E122" t="s">
         <v>214</v>
@@ -3779,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -3789,8 +3723,8 @@
       <c r="C123" s="1">
         <v>45274</v>
       </c>
-      <c r="D123" s="2">
-        <v>0.56146990740740743</v>
+      <c r="D123">
+        <v>0.5614699074074074</v>
       </c>
       <c r="E123" t="s">
         <v>222</v>
@@ -3799,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -3809,8 +3743,8 @@
       <c r="C124" s="1">
         <v>44949</v>
       </c>
-      <c r="D124" s="2">
-        <v>0.76937500000000003</v>
+      <c r="D124">
+        <v>0.769375</v>
       </c>
       <c r="E124" t="s">
         <v>223</v>
@@ -3819,7 +3753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3829,8 +3763,8 @@
       <c r="C125" s="1">
         <v>44979</v>
       </c>
-      <c r="D125" s="2">
-        <v>0.73690972222222229</v>
+      <c r="D125">
+        <v>0.7369097222222223</v>
       </c>
       <c r="E125" t="s">
         <v>224</v>
@@ -3839,7 +3773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -3849,8 +3783,8 @@
       <c r="C126" s="1">
         <v>45009</v>
       </c>
-      <c r="D126" s="2">
-        <v>0.77216435185185184</v>
+      <c r="D126">
+        <v>0.7721643518518518</v>
       </c>
       <c r="E126" t="s">
         <v>225</v>
@@ -3859,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>34</v>
       </c>
@@ -3869,8 +3803,8 @@
       <c r="C127" s="1">
         <v>45039</v>
       </c>
-      <c r="D127" s="2">
-        <v>0.85513888888888889</v>
+      <c r="D127">
+        <v>0.8551388888888889</v>
       </c>
       <c r="E127" t="s">
         <v>226</v>
@@ -3879,7 +3813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>34</v>
       </c>
@@ -3889,8 +3823,8 @@
       <c r="C128" s="1">
         <v>45069</v>
       </c>
-      <c r="D128" s="2">
-        <v>0.85891203703703711</v>
+      <c r="D128">
+        <v>0.8589120370370371</v>
       </c>
       <c r="E128" t="s">
         <v>227</v>
@@ -3899,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -3909,8 +3843,8 @@
       <c r="C129" s="1">
         <v>45099</v>
       </c>
-      <c r="D129" s="2">
-        <v>0.46766203703703701</v>
+      <c r="D129">
+        <v>0.467662037037037</v>
       </c>
       <c r="E129" t="s">
         <v>228</v>
@@ -3919,7 +3853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -3929,8 +3863,8 @@
       <c r="C130" s="1">
         <v>45127</v>
       </c>
-      <c r="D130" s="2">
-        <v>0.93788194444444439</v>
+      <c r="D130">
+        <v>0.9378819444444444</v>
       </c>
       <c r="E130" t="s">
         <v>229</v>
@@ -3939,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -3949,8 +3883,8 @@
       <c r="C131" s="1">
         <v>45154</v>
       </c>
-      <c r="D131" s="2">
-        <v>0.38994212962962971</v>
+      <c r="D131">
+        <v>0.3899421296296297</v>
       </c>
       <c r="E131" t="s">
         <v>230</v>
@@ -3959,7 +3893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -3969,7 +3903,7 @@
       <c r="C132" s="1">
         <v>45181</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132">
         <v>0.1864467592592593</v>
       </c>
       <c r="E132" t="s">
@@ -3979,7 +3913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -3989,8 +3923,8 @@
       <c r="C133" s="1">
         <v>45209</v>
       </c>
-      <c r="D133" s="2">
-        <v>0.98666666666666669</v>
+      <c r="D133">
+        <v>0.9866666666666667</v>
       </c>
       <c r="E133" t="s">
         <v>232</v>
@@ -3999,7 +3933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -4009,8 +3943,8 @@
       <c r="C134" s="1">
         <v>45239</v>
       </c>
-      <c r="D134" s="2">
-        <v>0.77383101851851854</v>
+      <c r="D134">
+        <v>0.7738310185185185</v>
       </c>
       <c r="E134" t="s">
         <v>233</v>
@@ -4019,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -4029,7 +3963,7 @@
       <c r="C135" s="1">
         <v>45269</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
         <v>0.9052430555555554</v>
       </c>
       <c r="E135" t="s">
@@ -4039,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>35</v>
       </c>
@@ -4049,8 +3983,8 @@
       <c r="C136" s="1">
         <v>44930</v>
       </c>
-      <c r="D136" s="2">
-        <v>0.16114583333333329</v>
+      <c r="D136">
+        <v>0.1611458333333333</v>
       </c>
       <c r="E136" t="s">
         <v>235</v>
@@ -4059,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -4069,8 +4003,8 @@
       <c r="C137" s="1">
         <v>44957</v>
       </c>
-      <c r="D137" s="2">
-        <v>0.51927083333333324</v>
+      <c r="D137">
+        <v>0.5192708333333332</v>
       </c>
       <c r="E137" t="s">
         <v>225</v>
@@ -4079,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -4089,7 +4023,7 @@
       <c r="C138" s="1">
         <v>44985</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138">
         <v>0.5081134259259259</v>
       </c>
       <c r="E138" t="s">
@@ -4099,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>35</v>
       </c>
@@ -4109,8 +4043,8 @@
       <c r="C139" s="1">
         <v>45013</v>
       </c>
-      <c r="D139" s="2">
-        <v>0.87800925925925932</v>
+      <c r="D139">
+        <v>0.8780092592592593</v>
       </c>
       <c r="E139" t="s">
         <v>237</v>
@@ -4119,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -4129,8 +4063,8 @@
       <c r="C140" s="1">
         <v>45042</v>
       </c>
-      <c r="D140" s="2">
-        <v>0.45549768518518507</v>
+      <c r="D140">
+        <v>0.4554976851851851</v>
       </c>
       <c r="E140" t="s">
         <v>223</v>
@@ -4139,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -4149,8 +4083,8 @@
       <c r="C141" s="1">
         <v>45071</v>
       </c>
-      <c r="D141" s="2">
-        <v>0.13863425925925921</v>
+      <c r="D141">
+        <v>0.1386342592592592</v>
       </c>
       <c r="E141" t="s">
         <v>238</v>
@@ -4159,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -4169,8 +4103,8 @@
       <c r="C142" s="1">
         <v>45099</v>
       </c>
-      <c r="D142" s="2">
-        <v>0.87056712962962957</v>
+      <c r="D142">
+        <v>0.8705671296296296</v>
       </c>
       <c r="E142" t="s">
         <v>239</v>
@@ -4179,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -4189,8 +4123,8 @@
       <c r="C143" s="1">
         <v>45128</v>
       </c>
-      <c r="D143" s="2">
-        <v>0.62293981481481475</v>
+      <c r="D143">
+        <v>0.6229398148148148</v>
       </c>
       <c r="E143" t="s">
         <v>240</v>
@@ -4199,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -4209,8 +4143,8 @@
       <c r="C144" s="1">
         <v>45157</v>
       </c>
-      <c r="D144" s="2">
-        <v>0.38659722222222231</v>
+      <c r="D144">
+        <v>0.3865972222222223</v>
       </c>
       <c r="E144" t="s">
         <v>241</v>
@@ -4219,7 +4153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -4229,8 +4163,8 @@
       <c r="C145" s="1">
         <v>45186</v>
       </c>
-      <c r="D145" s="2">
-        <v>0.16627314814814809</v>
+      <c r="D145">
+        <v>0.1662731481481481</v>
       </c>
       <c r="E145" t="s">
         <v>242</v>
@@ -4239,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -4249,8 +4183,8 @@
       <c r="C146" s="1">
         <v>45214</v>
       </c>
-      <c r="D146" s="2">
-        <v>0.97562499999999996</v>
+      <c r="D146">
+        <v>0.975625</v>
       </c>
       <c r="E146" t="s">
         <v>243</v>
@@ -4259,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -4269,8 +4203,8 @@
       <c r="C147" s="1">
         <v>45243</v>
       </c>
-      <c r="D147" s="2">
-        <v>0.83011574074074079</v>
+      <c r="D147">
+        <v>0.8301157407407408</v>
       </c>
       <c r="E147" t="s">
         <v>244</v>
@@ -4279,7 +4213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -4289,8 +4223,8 @@
       <c r="C148" s="1">
         <v>45272</v>
       </c>
-      <c r="D148" s="2">
-        <v>0.73759259259259258</v>
+      <c r="D148">
+        <v>0.7375925925925926</v>
       </c>
       <c r="E148" t="s">
         <v>245</v>
@@ -4299,7 +4233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -4309,8 +4243,8 @@
       <c r="C149" s="1">
         <v>44952</v>
       </c>
-      <c r="D149" s="2">
-        <v>0.47945601851851849</v>
+      <c r="D149">
+        <v>0.4794560185185185</v>
       </c>
       <c r="E149" t="s">
         <v>214</v>
@@ -4319,7 +4253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -4329,7 +4263,7 @@
       <c r="C150" s="1">
         <v>44980</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150">
         <v>0.2895949074074074</v>
       </c>
       <c r="E150" t="s">
@@ -4339,7 +4273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -4349,8 +4283,8 @@
       <c r="C151" s="1">
         <v>45008</v>
       </c>
-      <c r="D151" s="2">
-        <v>0.18141203703703701</v>
+      <c r="D151">
+        <v>0.181412037037037</v>
       </c>
       <c r="E151" t="s">
         <v>247</v>
@@ -4359,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -4369,8 +4303,8 @@
       <c r="C152" s="1">
         <v>45036</v>
       </c>
-      <c r="D152" s="2">
-        <v>5.94675925925926E-2</v>
+      <c r="D152">
+        <v>0.0594675925925926</v>
       </c>
       <c r="E152" t="s">
         <v>248</v>
@@ -4379,7 +4313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -4389,8 +4323,8 @@
       <c r="C153" s="1">
         <v>45063</v>
       </c>
-      <c r="D153" s="2">
-        <v>0.86115740740740743</v>
+      <c r="D153">
+        <v>0.8611574074074074</v>
       </c>
       <c r="E153" t="s">
         <v>249</v>
@@ -4399,7 +4333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -4409,8 +4343,8 @@
       <c r="C154" s="1">
         <v>45091</v>
       </c>
-      <c r="D154" s="2">
-        <v>0.56003472222222228</v>
+      <c r="D154">
+        <v>0.5600347222222223</v>
       </c>
       <c r="E154" t="s">
         <v>250</v>
@@ -4419,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -4429,7 +4363,7 @@
       <c r="C155" s="1">
         <v>45119</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>0.1554861111111111</v>
       </c>
       <c r="E155" t="s">
@@ -4439,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -4449,8 +4383,8 @@
       <c r="C156" s="1">
         <v>45146</v>
       </c>
-      <c r="D156" s="2">
-        <v>0.65684027777777776</v>
+      <c r="D156">
+        <v>0.6568402777777778</v>
       </c>
       <c r="E156" t="s">
         <v>252</v>
@@ -4459,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -4469,8 +4403,8 @@
       <c r="C157" s="1">
         <v>45174</v>
       </c>
-      <c r="D157" s="2">
-        <v>6.7962962962962961E-2</v>
+      <c r="D157">
+        <v>0.06796296296296296</v>
       </c>
       <c r="E157" t="s">
         <v>253</v>
@@ -4479,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -4489,7 +4423,7 @@
       <c r="C158" s="1">
         <v>45201</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158">
         <v>0.3812962962962963</v>
       </c>
       <c r="E158" t="s">
@@ -4499,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -4509,8 +4443,8 @@
       <c r="C159" s="1">
         <v>45228</v>
       </c>
-      <c r="D159" s="2">
-        <v>0.59097222222222223</v>
+      <c r="D159">
+        <v>0.5909722222222222</v>
       </c>
       <c r="E159" t="s">
         <v>255</v>
@@ -4519,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -4529,8 +4463,8 @@
       <c r="C160" s="1">
         <v>45255</v>
       </c>
-      <c r="D160" s="2">
-        <v>0.72221064814814817</v>
+      <c r="D160">
+        <v>0.7222106481481482</v>
       </c>
       <c r="E160" t="s">
         <v>256</v>
@@ -4539,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -4549,8 +4483,8 @@
       <c r="C161" s="1">
         <v>45282</v>
       </c>
-      <c r="D161" s="2">
-        <v>0.85552083333333329</v>
+      <c r="D161">
+        <v>0.8555208333333333</v>
       </c>
       <c r="E161" t="s">
         <v>257</v>
@@ -4559,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -4569,8 +4503,8 @@
       <c r="C162" s="1">
         <v>44949</v>
       </c>
-      <c r="D162" s="2">
-        <v>0.73098379629629628</v>
+      <c r="D162">
+        <v>0.7309837962962963</v>
       </c>
       <c r="E162" t="s">
         <v>239</v>
@@ -4579,7 +4513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -4589,8 +4523,8 @@
       <c r="C163" s="1">
         <v>44977</v>
       </c>
-      <c r="D163" s="2">
-        <v>0.42439814814814819</v>
+      <c r="D163">
+        <v>0.4243981481481482</v>
       </c>
       <c r="E163" t="s">
         <v>258</v>
@@ -4599,7 +4533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -4609,8 +4543,8 @@
       <c r="C164" s="1">
         <v>45005</v>
       </c>
-      <c r="D164" s="2">
-        <v>7.0231481481481478E-2</v>
+      <c r="D164">
+        <v>0.07023148148148148</v>
       </c>
       <c r="E164" t="s">
         <v>234</v>
@@ -4619,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -4629,7 +4563,7 @@
       <c r="C165" s="1">
         <v>45032</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165">
         <v>0.5921412037037036</v>
       </c>
       <c r="E165" t="s">
@@ -4639,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -4649,8 +4583,8 @@
       <c r="C166" s="1">
         <v>45059</v>
       </c>
-      <c r="D166" s="2">
-        <v>0.97699074074074066</v>
+      <c r="D166">
+        <v>0.9769907407407407</v>
       </c>
       <c r="E166" t="s">
         <v>260</v>
@@ -4659,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -4669,8 +4603,8 @@
       <c r="C167" s="1">
         <v>45087</v>
       </c>
-      <c r="D167" s="2">
-        <v>0.27047453703703711</v>
+      <c r="D167">
+        <v>0.2704745370370371</v>
       </c>
       <c r="E167" t="s">
         <v>261</v>
@@ -4679,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -4689,8 +4623,8 @@
       <c r="C168" s="1">
         <v>45114</v>
       </c>
-      <c r="D168" s="2">
-        <v>0.54126157407407405</v>
+      <c r="D168">
+        <v>0.541261574074074</v>
       </c>
       <c r="E168" t="s">
         <v>262</v>
@@ -4699,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -4709,8 +4643,8 @@
       <c r="C169" s="1">
         <v>45141</v>
       </c>
-      <c r="D169" s="2">
-        <v>0.83601851851851849</v>
+      <c r="D169">
+        <v>0.8360185185185185</v>
       </c>
       <c r="E169" t="s">
         <v>263</v>
@@ -4719,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -4729,8 +4663,8 @@
       <c r="C170" s="1">
         <v>45169</v>
       </c>
-      <c r="D170" s="2">
-        <v>0.15592592592592591</v>
+      <c r="D170">
+        <v>0.1559259259259259</v>
       </c>
       <c r="E170" t="s">
         <v>264</v>
@@ -4739,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -4749,8 +4683,8 @@
       <c r="C171" s="1">
         <v>45196</v>
       </c>
-      <c r="D171" s="2">
-        <v>0.46759259259259262</v>
+      <c r="D171">
+        <v>0.4675925925925926</v>
       </c>
       <c r="E171" t="s">
         <v>262</v>
@@ -4759,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -4769,8 +4703,8 @@
       <c r="C172" s="1">
         <v>45223</v>
       </c>
-      <c r="D172" s="2">
-        <v>0.74146990740740748</v>
+      <c r="D172">
+        <v>0.7414699074074075</v>
       </c>
       <c r="E172" t="s">
         <v>265</v>
@@ -4779,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -4789,8 +4723,8 @@
       <c r="C173" s="1">
         <v>45250</v>
       </c>
-      <c r="D173" s="2">
-        <v>0.99903935185185178</v>
+      <c r="D173">
+        <v>0.9990393518518518</v>
       </c>
       <c r="E173" t="s">
         <v>266</v>
@@ -4799,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -4809,8 +4743,8 @@
       <c r="C174" s="1">
         <v>45278</v>
       </c>
-      <c r="D174" s="2">
-        <v>0.32276620370370368</v>
+      <c r="D174">
+        <v>0.3227662037037037</v>
       </c>
       <c r="E174" t="s">
         <v>267</v>
@@ -4819,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>38</v>
       </c>
@@ -4829,7 +4763,7 @@
       <c r="C175" s="1">
         <v>44928</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175">
         <v>0.2401041666666667</v>
       </c>
       <c r="E175" t="s">
@@ -4839,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -4849,8 +4783,8 @@
       <c r="C176" s="1">
         <v>44955</v>
       </c>
-      <c r="D176" s="2">
-        <v>0.47787037037037039</v>
+      <c r="D176">
+        <v>0.4778703703703704</v>
       </c>
       <c r="E176" t="s">
         <v>269</v>
@@ -4859,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>38</v>
       </c>
@@ -4869,8 +4803,8 @@
       <c r="C177" s="1">
         <v>44982</v>
       </c>
-      <c r="D177" s="2">
-        <v>0.84236111111111101</v>
+      <c r="D177">
+        <v>0.842361111111111</v>
       </c>
       <c r="E177" t="s">
         <v>270</v>
@@ -4879,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -4889,8 +4823,8 @@
       <c r="C178" s="1">
         <v>45010</v>
       </c>
-      <c r="D178" s="2">
-        <v>0.31795138888888891</v>
+      <c r="D178">
+        <v>0.3179513888888889</v>
       </c>
       <c r="E178" t="s">
         <v>271</v>
@@ -4899,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -4909,8 +4843,8 @@
       <c r="C179" s="1">
         <v>45037</v>
       </c>
-      <c r="D179" s="2">
-        <v>0.82908564814814811</v>
+      <c r="D179">
+        <v>0.8290856481481481</v>
       </c>
       <c r="E179" t="s">
         <v>272</v>
@@ -4919,7 +4853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -4929,8 +4863,8 @@
       <c r="C180" s="1">
         <v>45065</v>
       </c>
-      <c r="D180" s="2">
-        <v>0.29984953703703698</v>
+      <c r="D180">
+        <v>0.299849537037037</v>
       </c>
       <c r="E180" t="s">
         <v>273</v>
@@ -4939,7 +4873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -4949,8 +4883,8 @@
       <c r="C181" s="1">
         <v>45092</v>
       </c>
-      <c r="D181" s="2">
-        <v>0.69229166666666675</v>
+      <c r="D181">
+        <v>0.6922916666666667</v>
       </c>
       <c r="E181" t="s">
         <v>274</v>
@@ -4959,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>38</v>
       </c>
@@ -4969,8 +4903,8 @@
       <c r="C182" s="1">
         <v>45120</v>
       </c>
-      <c r="D182" s="2">
-        <v>1.5277777777777781E-2</v>
+      <c r="D182">
+        <v>0.01527777777777778</v>
       </c>
       <c r="E182" t="s">
         <v>275</v>
@@ -4979,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>38</v>
       </c>
@@ -4989,8 +4923,8 @@
       <c r="C183" s="1">
         <v>45147</v>
       </c>
-      <c r="D183" s="2">
-        <v>0.31152777777777779</v>
+      <c r="D183">
+        <v>0.3115277777777778</v>
       </c>
       <c r="E183" t="s">
         <v>276</v>
@@ -4999,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -5009,8 +4943,8 @@
       <c r="C184" s="1">
         <v>45174</v>
       </c>
-      <c r="D184" s="2">
-        <v>0.62806712962962963</v>
+      <c r="D184">
+        <v>0.6280671296296296</v>
       </c>
       <c r="E184" t="s">
         <v>277</v>
@@ -5019,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -5029,8 +4963,8 @@
       <c r="C185" s="1">
         <v>45201</v>
       </c>
-      <c r="D185" s="2">
-        <v>0.98158564814814808</v>
+      <c r="D185">
+        <v>0.9815856481481481</v>
       </c>
       <c r="E185" t="s">
         <v>278</v>
@@ -5039,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -5049,8 +4983,8 @@
       <c r="C186" s="1">
         <v>45229</v>
       </c>
-      <c r="D186" s="2">
-        <v>0.34231481481481479</v>
+      <c r="D186">
+        <v>0.3423148148148148</v>
       </c>
       <c r="E186" t="s">
         <v>279</v>
@@ -5059,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -5069,7 +5003,7 @@
       <c r="C187" s="1">
         <v>45256</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187">
         <v>0.6534375</v>
       </c>
       <c r="E187" t="s">
@@ -5079,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -5089,8 +5023,8 @@
       <c r="C188" s="1">
         <v>45283</v>
       </c>
-      <c r="D188" s="2">
-        <v>0.88307870370370367</v>
+      <c r="D188">
+        <v>0.8830787037037037</v>
       </c>
       <c r="E188" t="s">
         <v>281</v>
@@ -5099,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -5109,7 +5043,7 @@
       <c r="C189" s="1">
         <v>44951</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189">
         <v>0.6646643518518518</v>
       </c>
       <c r="E189" t="s">
@@ -5119,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -5129,7 +5063,7 @@
       <c r="C190" s="1">
         <v>44979</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190">
         <v>0.1709606481481481</v>
       </c>
       <c r="E190" t="s">
@@ -5139,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -5149,8 +5083,8 @@
       <c r="C191" s="1">
         <v>45006</v>
       </c>
-      <c r="D191" s="2">
-        <v>0.69042824074074083</v>
+      <c r="D191">
+        <v>0.6904282407407408</v>
       </c>
       <c r="E191" t="s">
         <v>284</v>
@@ -5159,7 +5093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -5169,7 +5103,7 @@
       <c r="C192" s="1">
         <v>45034</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192">
         <v>0.1333333333333333</v>
       </c>
       <c r="E192" t="s">
@@ -5179,7 +5113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>39</v>
       </c>
@@ -5189,7 +5123,7 @@
       <c r="C193" s="1">
         <v>45061</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193">
         <v>0.4661689814814815</v>
       </c>
       <c r="E193" t="s">
@@ -5199,7 +5133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -5209,8 +5143,8 @@
       <c r="C194" s="1">
         <v>45088</v>
       </c>
-      <c r="D194" s="2">
-        <v>0.72398148148148156</v>
+      <c r="D194">
+        <v>0.7239814814814816</v>
       </c>
       <c r="E194" t="s">
         <v>286</v>
@@ -5219,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>39</v>
       </c>
@@ -5229,8 +5163,8 @@
       <c r="C195" s="1">
         <v>45115</v>
       </c>
-      <c r="D195" s="2">
-        <v>0.98121527777777784</v>
+      <c r="D195">
+        <v>0.9812152777777778</v>
       </c>
       <c r="E195" t="s">
         <v>287</v>
@@ -5239,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -5249,8 +5183,8 @@
       <c r="C196" s="1">
         <v>45143</v>
       </c>
-      <c r="D196" s="2">
-        <v>0.29829861111111111</v>
+      <c r="D196">
+        <v>0.2982986111111111</v>
       </c>
       <c r="E196" t="s">
         <v>288</v>
@@ -5259,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -5269,8 +5203,8 @@
       <c r="C197" s="1">
         <v>45170</v>
       </c>
-      <c r="D197" s="2">
-        <v>0.68228009259259259</v>
+      <c r="D197">
+        <v>0.6822800925925926</v>
       </c>
       <c r="E197" t="s">
         <v>289</v>
@@ -5279,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -5289,8 +5223,8 @@
       <c r="C198" s="1">
         <v>45198</v>
       </c>
-      <c r="D198" s="2">
-        <v>8.5821759259259264E-2</v>
+      <c r="D198">
+        <v>0.08582175925925926</v>
       </c>
       <c r="E198" t="s">
         <v>290</v>
@@ -5299,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -5309,8 +5243,8 @@
       <c r="C199" s="1">
         <v>45225</v>
       </c>
-      <c r="D199" s="2">
-        <v>0.43934027777777779</v>
+      <c r="D199">
+        <v>0.4393402777777778</v>
       </c>
       <c r="E199" t="s">
         <v>291</v>
@@ -5319,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>39</v>
       </c>
@@ -5329,8 +5263,8 @@
       <c r="C200" s="1">
         <v>45252</v>
       </c>
-      <c r="D200" s="2">
-        <v>0.70523148148148163</v>
+      <c r="D200">
+        <v>0.7052314814814816</v>
       </c>
       <c r="E200" t="s">
         <v>292</v>
@@ -5339,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>39</v>
       </c>
@@ -5349,8 +5283,8 @@
       <c r="C201" s="1">
         <v>45279</v>
       </c>
-      <c r="D201" s="2">
-        <v>0.92802083333333318</v>
+      <c r="D201">
+        <v>0.9280208333333332</v>
       </c>
       <c r="E201" t="s">
         <v>293</v>
@@ -5359,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -5369,8 +5303,8 @@
       <c r="C202" s="1">
         <v>45151</v>
       </c>
-      <c r="D202" s="2">
-        <v>0.62795138888888891</v>
+      <c r="D202">
+        <v>0.6279513888888889</v>
       </c>
       <c r="E202" t="s">
         <v>294</v>
@@ -5379,7 +5313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -5389,8 +5323,8 @@
       <c r="C203" s="1">
         <v>45228</v>
       </c>
-      <c r="D203" s="2">
-        <v>0.89094907407407409</v>
+      <c r="D203">
+        <v>0.8909490740740741</v>
       </c>
       <c r="E203" t="s">
         <v>295</v>
@@ -5399,7 +5333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -5409,8 +5343,8 @@
       <c r="C204" s="1">
         <v>45288</v>
       </c>
-      <c r="D204" s="2">
-        <v>0.24206018518518521</v>
+      <c r="D204">
+        <v>0.2420601851851852</v>
       </c>
       <c r="E204" t="s">
         <v>296</v>
@@ -5419,7 +5353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -5429,8 +5363,8 @@
       <c r="C205" s="1">
         <v>45013</v>
       </c>
-      <c r="D205" s="2">
-        <v>0.53694444444444445</v>
+      <c r="D205">
+        <v>0.5369444444444444</v>
       </c>
       <c r="E205" t="s">
         <v>297</v>
@@ -5439,7 +5373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -5449,8 +5383,8 @@
       <c r="C206" s="1">
         <v>44987</v>
       </c>
-      <c r="D206" s="2">
-        <v>0.93668981481481473</v>
+      <c r="D206">
+        <v>0.9366898148148147</v>
       </c>
       <c r="E206" t="s">
         <v>298</v>
@@ -5459,7 +5393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -5469,8 +5403,8 @@
       <c r="C207" s="1">
         <v>45038</v>
       </c>
-      <c r="D207" s="2">
-        <v>0.61229166666666668</v>
+      <c r="D207">
+        <v>0.6122916666666667</v>
       </c>
       <c r="E207" t="s">
         <v>299</v>
@@ -5479,7 +5413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>43</v>
       </c>
@@ -5489,8 +5423,8 @@
       <c r="C208" s="1">
         <v>45082</v>
       </c>
-      <c r="D208" s="2">
-        <v>0.35215277777777781</v>
+      <c r="D208">
+        <v>0.3521527777777778</v>
       </c>
       <c r="E208" t="s">
         <v>300</v>
@@ -5499,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -5509,8 +5443,8 @@
       <c r="C209" s="1">
         <v>45002</v>
       </c>
-      <c r="D209" s="2">
-        <v>6.1168981481481477E-2</v>
+      <c r="D209">
+        <v>0.06116898148148148</v>
       </c>
       <c r="E209" t="s">
         <v>301</v>
@@ -5519,7 +5453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>45</v>
       </c>
@@ -5529,8 +5463,8 @@
       <c r="C210" s="1">
         <v>45108</v>
       </c>
-      <c r="D210" s="2">
-        <v>0.63181712962962966</v>
+      <c r="D210">
+        <v>0.6318171296296297</v>
       </c>
       <c r="E210" t="s">
         <v>302</v>
@@ -5539,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>46</v>
       </c>
@@ -5549,8 +5483,8 @@
       <c r="C211" s="1">
         <v>44987</v>
       </c>
-      <c r="D211" s="2">
-        <v>0.54534722222222232</v>
+      <c r="D211">
+        <v>0.5453472222222223</v>
       </c>
       <c r="E211" t="s">
         <v>303</v>
@@ -5559,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -5569,8 +5503,8 @@
       <c r="C212" s="1">
         <v>44949</v>
       </c>
-      <c r="D212" s="2">
-        <v>0.25974537037037038</v>
+      <c r="D212">
+        <v>0.2597453703703704</v>
       </c>
       <c r="E212" t="s">
         <v>304</v>
@@ -5579,7 +5513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>48</v>
       </c>
@@ -5589,7 +5523,7 @@
       <c r="C213" s="1">
         <v>45016</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213">
         <v>0.2149537037037037</v>
       </c>
       <c r="E213" t="s">
@@ -5599,7 +5533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>49</v>
       </c>
@@ -5609,8 +5543,8 @@
       <c r="C214" s="1">
         <v>44972</v>
       </c>
-      <c r="D214" s="2">
-        <v>0.85120370370370368</v>
+      <c r="D214">
+        <v>0.8512037037037037</v>
       </c>
       <c r="E214" t="s">
         <v>306</v>
@@ -5619,7 +5553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>50</v>
       </c>
@@ -5629,8 +5563,8 @@
       <c r="C215" s="1">
         <v>44941</v>
       </c>
-      <c r="D215" s="2">
-        <v>0.42776620370370372</v>
+      <c r="D215">
+        <v>0.4277662037037037</v>
       </c>
       <c r="E215" t="s">
         <v>307</v>
@@ -5639,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>50</v>
       </c>
@@ -5649,8 +5583,8 @@
       <c r="C216" s="1">
         <v>44968</v>
       </c>
-      <c r="D216" s="2">
-        <v>0.68711805555555561</v>
+      <c r="D216">
+        <v>0.6871180555555556</v>
       </c>
       <c r="E216" t="s">
         <v>308</v>
@@ -5659,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>50</v>
       </c>
@@ -5669,8 +5603,8 @@
       <c r="C217" s="1">
         <v>44995</v>
       </c>
-      <c r="D217" s="2">
-        <v>0.91844907407407417</v>
+      <c r="D217">
+        <v>0.9184490740740742</v>
       </c>
       <c r="E217" t="s">
         <v>309</v>
@@ -5679,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>50</v>
       </c>
@@ -5689,7 +5623,7 @@
       <c r="C218" s="1">
         <v>45023</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218">
         <v>0.1915625</v>
       </c>
       <c r="E218" t="s">
@@ -5699,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>50</v>
       </c>
@@ -5709,8 +5643,8 @@
       <c r="C219" s="1">
         <v>45050</v>
       </c>
-      <c r="D219" s="2">
-        <v>0.53130787037037031</v>
+      <c r="D219">
+        <v>0.5313078703703703</v>
       </c>
       <c r="E219" t="s">
         <v>311</v>
@@ -5719,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>50</v>
       </c>
@@ -5729,8 +5663,8 @@
       <c r="C220" s="1">
         <v>45077</v>
       </c>
-      <c r="D220" s="2">
-        <v>0.91240740740740733</v>
+      <c r="D220">
+        <v>0.9124074074074073</v>
       </c>
       <c r="E220" t="s">
         <v>312</v>
@@ -5739,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>50</v>
       </c>
@@ -5749,7 +5683,7 @@
       <c r="C221" s="1">
         <v>45105</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221">
         <v>0.2851157407407407</v>
       </c>
       <c r="E221" t="s">
@@ -5759,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>50</v>
       </c>
@@ -5769,8 +5703,8 @@
       <c r="C222" s="1">
         <v>45132</v>
       </c>
-      <c r="D222" s="2">
-        <v>0.60666666666666669</v>
+      <c r="D222">
+        <v>0.6066666666666667</v>
       </c>
       <c r="E222" t="s">
         <v>314</v>
@@ -5779,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>50</v>
       </c>
@@ -5789,8 +5723,8 @@
       <c r="C223" s="1">
         <v>45159</v>
       </c>
-      <c r="D223" s="2">
-        <v>0.86780092592592595</v>
+      <c r="D223">
+        <v>0.8678009259259259</v>
       </c>
       <c r="E223" t="s">
         <v>315</v>
@@ -5799,7 +5733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>50</v>
       </c>
@@ -5809,7 +5743,7 @@
       <c r="C224" s="1">
         <v>45187</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224">
         <v>0.1012615740740741</v>
       </c>
       <c r="E224" t="s">
@@ -5819,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>50</v>
       </c>
@@ -5829,8 +5763,8 @@
       <c r="C225" s="1">
         <v>45214</v>
       </c>
-      <c r="D225" s="2">
-        <v>0.36041666666666672</v>
+      <c r="D225">
+        <v>0.3604166666666667</v>
       </c>
       <c r="E225" t="s">
         <v>317</v>
@@ -5839,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>50</v>
       </c>
@@ -5849,8 +5783,8 @@
       <c r="C226" s="1">
         <v>45241</v>
       </c>
-      <c r="D226" s="2">
-        <v>0.67982638888888891</v>
+      <c r="D226">
+        <v>0.6798263888888889</v>
       </c>
       <c r="E226" t="s">
         <v>318</v>
@@ -5859,7 +5793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>50</v>
       </c>
@@ -5869,8 +5803,8 @@
       <c r="C227" s="1">
         <v>45269</v>
       </c>
-      <c r="D227" s="2">
-        <v>4.8356481481481479E-2</v>
+      <c r="D227">
+        <v>0.04835648148148148</v>
       </c>
       <c r="E227" t="s">
         <v>319</v>
@@ -5879,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -5889,8 +5823,8 @@
       <c r="C228" s="1">
         <v>44936</v>
       </c>
-      <c r="D228" s="2">
-        <v>0.99236111111111114</v>
+      <c r="D228">
+        <v>0.9923611111111111</v>
       </c>
       <c r="E228" t="s">
         <v>320</v>
@@ -5899,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>51</v>
       </c>
@@ -5909,8 +5843,8 @@
       <c r="C229" s="1">
         <v>44964</v>
       </c>
-      <c r="D229" s="2">
-        <v>0.24277777777777779</v>
+      <c r="D229">
+        <v>0.2427777777777778</v>
       </c>
       <c r="E229" t="s">
         <v>321</v>
@@ -5919,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>51</v>
       </c>
@@ -5929,8 +5863,8 @@
       <c r="C230" s="1">
         <v>44991</v>
       </c>
-      <c r="D230" s="2">
-        <v>0.51109953703703703</v>
+      <c r="D230">
+        <v>0.511099537037037</v>
       </c>
       <c r="E230" t="s">
         <v>322</v>
@@ -5939,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -5949,8 +5883,8 @@
       <c r="C231" s="1">
         <v>45018</v>
       </c>
-      <c r="D231" s="2">
-        <v>0.81692129629629628</v>
+      <c r="D231">
+        <v>0.8169212962962963</v>
       </c>
       <c r="E231" t="s">
         <v>323</v>
@@ -5959,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -5969,8 +5903,8 @@
       <c r="C232" s="1">
         <v>45046</v>
       </c>
-      <c r="D232" s="2">
-        <v>0.15187500000000001</v>
+      <c r="D232">
+        <v>0.151875</v>
       </c>
       <c r="E232" t="s">
         <v>324</v>
@@ -5979,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -5989,8 +5923,8 @@
       <c r="C233" s="1">
         <v>45073</v>
       </c>
-      <c r="D233" s="2">
-        <v>0.48915509259259249</v>
+      <c r="D233">
+        <v>0.4891550925925925</v>
       </c>
       <c r="E233" t="s">
         <v>325</v>
@@ -5999,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>51</v>
       </c>
@@ -6009,8 +5943,8 @@
       <c r="C234" s="1">
         <v>45100</v>
       </c>
-      <c r="D234" s="2">
-        <v>0.80142361111111116</v>
+      <c r="D234">
+        <v>0.8014236111111112</v>
       </c>
       <c r="E234" t="s">
         <v>326</v>
@@ -6019,7 +5953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>51</v>
       </c>
@@ -6029,8 +5963,8 @@
       <c r="C235" s="1">
         <v>45128</v>
       </c>
-      <c r="D235" s="2">
-        <v>7.7812499999999993E-2</v>
+      <c r="D235">
+        <v>0.07781249999999999</v>
       </c>
       <c r="E235" t="s">
         <v>327</v>
@@ -6039,7 +5973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>51</v>
       </c>
@@ -6049,8 +5983,8 @@
       <c r="C236" s="1">
         <v>45155</v>
       </c>
-      <c r="D236" s="2">
-        <v>0.32976851851851852</v>
+      <c r="D236">
+        <v>0.3297685185185185</v>
       </c>
       <c r="E236" t="s">
         <v>328</v>
@@ -6059,7 +5993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>51</v>
       </c>
@@ -6069,7 +6003,7 @@
       <c r="C237" s="1">
         <v>45182</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237">
         <v>0.5836689814814815</v>
       </c>
       <c r="E237" t="s">
@@ -6079,7 +6013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>51</v>
       </c>
@@ -6089,8 +6023,8 @@
       <c r="C238" s="1">
         <v>45209</v>
       </c>
-      <c r="D238" s="2">
-        <v>0.86498842592592595</v>
+      <c r="D238">
+        <v>0.864988425925926</v>
       </c>
       <c r="E238" t="s">
         <v>330</v>
@@ -6099,7 +6033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>51</v>
       </c>
@@ -6109,8 +6043,8 @@
       <c r="C239" s="1">
         <v>45237</v>
       </c>
-      <c r="D239" s="2">
-        <v>0.18280092592592589</v>
+      <c r="D239">
+        <v>0.1828009259259259</v>
       </c>
       <c r="E239" t="s">
         <v>331</v>
@@ -6119,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>51</v>
       </c>
@@ -6129,8 +6063,8 @@
       <c r="C240" s="1">
         <v>45264</v>
       </c>
-      <c r="D240" s="2">
-        <v>0.52351851851851861</v>
+      <c r="D240">
+        <v>0.5235185185185186</v>
       </c>
       <c r="E240" t="s">
         <v>332</v>
@@ -6139,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>52</v>
       </c>
@@ -6149,8 +6083,8 @@
       <c r="C241" s="1">
         <v>44944</v>
       </c>
-      <c r="D241" s="2">
-        <v>0.78576388888888893</v>
+      <c r="D241">
+        <v>0.7857638888888889</v>
       </c>
       <c r="E241" t="s">
         <v>333</v>
@@ -6159,7 +6093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>52</v>
       </c>
@@ -6169,8 +6103,8 @@
       <c r="C242" s="1">
         <v>44972</v>
       </c>
-      <c r="D242" s="2">
-        <v>0.14300925925925931</v>
+      <c r="D242">
+        <v>0.1430092592592593</v>
       </c>
       <c r="E242" t="s">
         <v>334</v>
@@ -6179,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>52</v>
       </c>
@@ -6189,8 +6123,8 @@
       <c r="C243" s="1">
         <v>44999</v>
       </c>
-      <c r="D243" s="2">
-        <v>0.39888888888888879</v>
+      <c r="D243">
+        <v>0.3988888888888888</v>
       </c>
       <c r="E243" t="s">
         <v>335</v>
@@ -6199,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>52</v>
       </c>
@@ -6209,8 +6143,8 @@
       <c r="C244" s="1">
         <v>45026</v>
       </c>
-      <c r="D244" s="2">
-        <v>0.62555555555555553</v>
+      <c r="D244">
+        <v>0.6255555555555555</v>
       </c>
       <c r="E244" t="s">
         <v>336</v>
@@ -6219,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>52</v>
       </c>
@@ -6229,8 +6163,8 @@
       <c r="C245" s="1">
         <v>45053</v>
       </c>
-      <c r="D245" s="2">
-        <v>0.90593749999999995</v>
+      <c r="D245">
+        <v>0.9059375</v>
       </c>
       <c r="E245" t="s">
         <v>337</v>
@@ -6239,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>52</v>
       </c>
@@ -6249,8 +6183,8 @@
       <c r="C246" s="1">
         <v>45081</v>
       </c>
-      <c r="D246" s="2">
-        <v>0.26928240740740739</v>
+      <c r="D246">
+        <v>0.2692824074074074</v>
       </c>
       <c r="E246" t="s">
         <v>338</v>
@@ -6259,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -6269,8 +6203,8 @@
       <c r="C247" s="1">
         <v>45108</v>
       </c>
-      <c r="D247" s="2">
-        <v>0.68562499999999993</v>
+      <c r="D247">
+        <v>0.6856249999999999</v>
       </c>
       <c r="E247" t="s">
         <v>339</v>
@@ -6279,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>52</v>
       </c>
@@ -6289,8 +6223,8 @@
       <c r="C248" s="1">
         <v>45136</v>
       </c>
-      <c r="D248" s="2">
-        <v>9.3969907407407405E-2</v>
+      <c r="D248">
+        <v>0.0939699074074074</v>
       </c>
       <c r="E248" t="s">
         <v>340</v>
@@ -6299,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>52</v>
       </c>
@@ -6309,8 +6243,8 @@
       <c r="C249" s="1">
         <v>45163</v>
       </c>
-      <c r="D249" s="2">
-        <v>0.43745370370370368</v>
+      <c r="D249">
+        <v>0.4374537037037037</v>
       </c>
       <c r="E249" t="s">
         <v>341</v>
@@ -6319,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>52</v>
       </c>
@@ -6329,8 +6263,8 @@
       <c r="C250" s="1">
         <v>45190</v>
       </c>
-      <c r="D250" s="2">
-        <v>0.69973379629629628</v>
+      <c r="D250">
+        <v>0.6997337962962963</v>
       </c>
       <c r="E250" t="s">
         <v>342</v>
@@ -6339,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>52</v>
       </c>
@@ -6349,8 +6283,8 @@
       <c r="C251" s="1">
         <v>45217</v>
       </c>
-      <c r="D251" s="2">
-        <v>0.92547453703703697</v>
+      <c r="D251">
+        <v>0.925474537037037</v>
       </c>
       <c r="E251" t="s">
         <v>343</v>
@@ -6359,7 +6293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>52</v>
       </c>
@@ -6369,8 +6303,8 @@
       <c r="C252" s="1">
         <v>45245</v>
       </c>
-      <c r="D252" s="2">
-        <v>0.19312499999999999</v>
+      <c r="D252">
+        <v>0.193125</v>
       </c>
       <c r="E252" t="s">
         <v>344</v>
@@ -6379,7 +6313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>52</v>
       </c>
@@ -6389,8 +6323,8 @@
       <c r="C253" s="1">
         <v>45272</v>
       </c>
-      <c r="D253" s="2">
-        <v>0.54961805555555554</v>
+      <c r="D253">
+        <v>0.5496180555555555</v>
       </c>
       <c r="E253" t="s">
         <v>345</v>
@@ -6399,7 +6333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>53</v>
       </c>
@@ -6409,7 +6343,7 @@
       <c r="C254" s="1">
         <v>44930</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254">
         <v>0.2260069444444445</v>
       </c>
       <c r="E254" t="s">
@@ -6419,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -6429,8 +6363,8 @@
       <c r="C255" s="1">
         <v>44957</v>
       </c>
-      <c r="D255" s="2">
-        <v>0.46888888888888891</v>
+      <c r="D255">
+        <v>0.4688888888888889</v>
       </c>
       <c r="E255" t="s">
         <v>347</v>
@@ -6439,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>53</v>
       </c>
@@ -6449,8 +6383,8 @@
       <c r="C256" s="1">
         <v>44984</v>
       </c>
-      <c r="D256" s="2">
-        <v>0.75456018518518519</v>
+      <c r="D256">
+        <v>0.7545601851851852</v>
       </c>
       <c r="E256" t="s">
         <v>348</v>
@@ -6459,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>53</v>
       </c>
@@ -6469,7 +6403,7 @@
       <c r="C257" s="1">
         <v>45012</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257">
         <v>0.105625</v>
       </c>
       <c r="E257" t="s">
@@ -6479,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>53</v>
       </c>
@@ -6489,8 +6423,8 @@
       <c r="C258" s="1">
         <v>45039</v>
       </c>
-      <c r="D258" s="2">
-        <v>0.48978009259259259</v>
+      <c r="D258">
+        <v>0.4897800925925926</v>
       </c>
       <c r="E258" t="s">
         <v>350</v>
@@ -6499,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>53</v>
       </c>
@@ -6509,8 +6443,8 @@
       <c r="C259" s="1">
         <v>45066</v>
       </c>
-      <c r="D259" s="2">
-        <v>0.85107638888888892</v>
+      <c r="D259">
+        <v>0.8510763888888889</v>
       </c>
       <c r="E259" t="s">
         <v>351</v>
@@ -6519,7 +6453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>53</v>
       </c>
@@ -6529,8 +6463,8 @@
       <c r="C260" s="1">
         <v>45094</v>
       </c>
-      <c r="D260" s="2">
-        <v>0.15255787037037041</v>
+      <c r="D260">
+        <v>0.1525578703703704</v>
       </c>
       <c r="E260" t="s">
         <v>352</v>
@@ -6539,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -6549,8 +6483,8 @@
       <c r="C261" s="1">
         <v>45121</v>
       </c>
-      <c r="D261" s="2">
-        <v>0.39846064814814808</v>
+      <c r="D261">
+        <v>0.3984606481481481</v>
       </c>
       <c r="E261" t="s">
         <v>353</v>
@@ -6559,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>53</v>
       </c>
@@ -6569,8 +6503,8 @@
       <c r="C262" s="1">
         <v>45148</v>
       </c>
-      <c r="D262" s="2">
-        <v>0.63157407407407407</v>
+      <c r="D262">
+        <v>0.6315740740740741</v>
       </c>
       <c r="E262" t="s">
         <v>354</v>
@@ -6579,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>53</v>
       </c>
@@ -6589,8 +6523,8 @@
       <c r="C263" s="1">
         <v>45175</v>
       </c>
-      <c r="D263" s="2">
-        <v>0.90818287037037049</v>
+      <c r="D263">
+        <v>0.9081828703703705</v>
       </c>
       <c r="E263" t="s">
         <v>355</v>
@@ -6599,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>53</v>
       </c>
@@ -6609,8 +6543,8 @@
       <c r="C264" s="1">
         <v>45203</v>
       </c>
-      <c r="D264" s="2">
-        <v>0.25993055555555561</v>
+      <c r="D264">
+        <v>0.2599305555555556</v>
       </c>
       <c r="E264" t="s">
         <v>356</v>
@@ -6619,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>53</v>
       </c>
@@ -6629,8 +6563,8 @@
       <c r="C265" s="1">
         <v>45230</v>
       </c>
-      <c r="D265" s="2">
-        <v>0.66754629629629625</v>
+      <c r="D265">
+        <v>0.6675462962962962</v>
       </c>
       <c r="E265" t="s">
         <v>357</v>
@@ -6639,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>53</v>
       </c>
@@ -6649,8 +6583,8 @@
       <c r="C266" s="1">
         <v>45258</v>
       </c>
-      <c r="D266" s="2">
-        <v>6.8888888888888888E-2</v>
+      <c r="D266">
+        <v>0.06888888888888889</v>
       </c>
       <c r="E266" t="s">
         <v>358</v>
@@ -6659,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>53</v>
       </c>
@@ -6669,7 +6603,7 @@
       <c r="C267" s="1">
         <v>45285</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267">
         <v>0.4007175925925926</v>
       </c>
       <c r="E267" t="s">
@@ -6679,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>54</v>
       </c>
@@ -6689,8 +6623,8 @@
       <c r="C268" s="1">
         <v>44933</v>
       </c>
-      <c r="D268" s="2">
-        <v>0.90505787037037033</v>
+      <c r="D268">
+        <v>0.9050578703703703</v>
       </c>
       <c r="E268" t="s">
         <v>360</v>
@@ -6699,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>54</v>
       </c>
@@ -6709,7 +6643,7 @@
       <c r="C269" s="1">
         <v>44961</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269">
         <v>0.1595486111111111</v>
       </c>
       <c r="E269" t="s">
@@ -6719,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>54</v>
       </c>
@@ -6729,8 +6663,8 @@
       <c r="C270" s="1">
         <v>44988</v>
       </c>
-      <c r="D270" s="2">
-        <v>0.42692129629629633</v>
+      <c r="D270">
+        <v>0.4269212962962963</v>
       </c>
       <c r="E270" t="s">
         <v>362</v>
@@ -6739,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>54</v>
       </c>
@@ -6749,8 +6683,8 @@
       <c r="C271" s="1">
         <v>45015</v>
       </c>
-      <c r="D271" s="2">
-        <v>0.72997685185185179</v>
+      <c r="D271">
+        <v>0.7299768518518518</v>
       </c>
       <c r="E271" t="s">
         <v>363</v>
@@ -6759,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>54</v>
       </c>
@@ -6769,8 +6703,8 @@
       <c r="C272" s="1">
         <v>45043</v>
       </c>
-      <c r="D272" s="2">
-        <v>6.5312499999999996E-2</v>
+      <c r="D272">
+        <v>0.0653125</v>
       </c>
       <c r="E272" t="s">
         <v>364</v>
@@ -6779,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>54</v>
       </c>
@@ -6789,8 +6723,8 @@
       <c r="C273" s="1">
         <v>45070</v>
       </c>
-      <c r="D273" s="2">
-        <v>0.40510416666666671</v>
+      <c r="D273">
+        <v>0.4051041666666667</v>
       </c>
       <c r="E273" t="s">
         <v>365</v>
@@ -6799,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>54</v>
       </c>
@@ -6809,8 +6743,8 @@
       <c r="C274" s="1">
         <v>45097</v>
       </c>
-      <c r="D274" s="2">
-        <v>0.71802083333333322</v>
+      <c r="D274">
+        <v>0.7180208333333332</v>
       </c>
       <c r="E274" t="s">
         <v>366</v>
@@ -6819,7 +6753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>54</v>
       </c>
@@ -6829,8 +6763,8 @@
       <c r="C275" s="1">
         <v>45124</v>
       </c>
-      <c r="D275" s="2">
-        <v>0.99067129629629624</v>
+      <c r="D275">
+        <v>0.9906712962962962</v>
       </c>
       <c r="E275" t="s">
         <v>367</v>
@@ -6839,7 +6773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>54</v>
       </c>
@@ -6849,7 +6783,7 @@
       <c r="C276" s="1">
         <v>45152</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276">
         <v>0.2355902777777778</v>
       </c>
       <c r="E276" t="s">
@@ -6859,7 +6793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>54</v>
       </c>
@@ -6869,8 +6803,8 @@
       <c r="C277" s="1">
         <v>45179</v>
       </c>
-      <c r="D277" s="2">
-        <v>0.48476851851851849</v>
+      <c r="D277">
+        <v>0.4847685185185185</v>
       </c>
       <c r="E277" t="s">
         <v>369</v>
@@ -6879,7 +6813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>54</v>
       </c>
@@ -6889,8 +6823,8 @@
       <c r="C278" s="1">
         <v>45206</v>
       </c>
-      <c r="D278" s="2">
-        <v>0.77204861111111101</v>
+      <c r="D278">
+        <v>0.772048611111111</v>
       </c>
       <c r="E278" t="s">
         <v>370</v>
@@ -6899,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>54</v>
       </c>
@@ -6909,7 +6843,7 @@
       <c r="C279" s="1">
         <v>45234</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279">
         <v>0.1104513888888889</v>
       </c>
       <c r="E279" t="s">
@@ -6919,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>54</v>
       </c>
@@ -6929,8 +6863,8 @@
       <c r="C280" s="1">
         <v>45261</v>
       </c>
-      <c r="D280" s="2">
-        <v>0.47824074074074069</v>
+      <c r="D280">
+        <v>0.4782407407407407</v>
       </c>
       <c r="E280" t="s">
         <v>372</v>
@@ -6939,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>54</v>
       </c>
@@ -6949,8 +6883,8 @@
       <c r="C281" s="1">
         <v>45288</v>
       </c>
-      <c r="D281" s="2">
-        <v>0.82918981481481469</v>
+      <c r="D281">
+        <v>0.8291898148148147</v>
       </c>
       <c r="E281" t="s">
         <v>373</v>
@@ -6959,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>55</v>
       </c>
@@ -6969,14 +6903,14 @@
       <c r="C282" s="1">
         <v>44943</v>
       </c>
-      <c r="D282" s="2">
-        <v>0.29488425925925932</v>
+      <c r="D282">
+        <v>0.2948842592592593</v>
       </c>
       <c r="F282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>56</v>
       </c>
@@ -6986,14 +6920,14 @@
       <c r="C283" s="1">
         <v>45111</v>
       </c>
-      <c r="D283" s="2">
-        <v>0.79929398148148156</v>
+      <c r="D283">
+        <v>0.7992939814814816</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>57</v>
       </c>
@@ -7003,14 +6937,14 @@
       <c r="C284" s="1">
         <v>45085</v>
       </c>
-      <c r="D284" s="2">
-        <v>0.23523148148148151</v>
+      <c r="D284">
+        <v>0.2352314814814815</v>
       </c>
       <c r="F284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>58</v>
       </c>
@@ -7020,14 +6954,14 @@
       <c r="C285" s="1">
         <v>45290</v>
       </c>
-      <c r="D285" s="2">
-        <v>0.74258101851851854</v>
+      <c r="D285">
+        <v>0.7425810185185185</v>
       </c>
       <c r="F285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>59</v>
       </c>
@@ -7044,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>60</v>
       </c>
@@ -7061,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>61</v>
       </c>
@@ -7078,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>62</v>
       </c>
@@ -7088,14 +7022,14 @@
       <c r="C289" s="1">
         <v>44946</v>
       </c>
-      <c r="D289" s="2">
-        <v>0.65914351851851849</v>
+      <c r="D289">
+        <v>0.6591435185185185</v>
       </c>
       <c r="F289">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>62</v>
       </c>
@@ -7105,14 +7039,14 @@
       <c r="C290" s="1">
         <v>44976</v>
       </c>
-      <c r="D290" s="2">
-        <v>0.20248842592592589</v>
+      <c r="D290">
+        <v>0.2024884259259259</v>
       </c>
       <c r="F290">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>62</v>
       </c>
@@ -7122,14 +7056,14 @@
       <c r="C291" s="1">
         <v>45007</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291">
         <v>0.3403356481481481</v>
       </c>
       <c r="F291">
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>62</v>
       </c>
@@ -7139,14 +7073,14 @@
       <c r="C292" s="1">
         <v>45037</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292">
         <v>0.6287962962962963</v>
       </c>
       <c r="F292">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>62</v>
       </c>
@@ -7156,14 +7090,14 @@
       <c r="C293" s="1">
         <v>45064</v>
       </c>
-      <c r="D293" s="2">
-        <v>0.39942129629629641</v>
+      <c r="D293">
+        <v>0.3994212962962964</v>
       </c>
       <c r="F293">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>62</v>
       </c>
@@ -7173,14 +7107,14 @@
       <c r="C294" s="1">
         <v>45094</v>
       </c>
-      <c r="D294" s="2">
-        <v>0.19319444444444439</v>
+      <c r="D294">
+        <v>0.1931944444444444</v>
       </c>
       <c r="F294">
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>62</v>
       </c>
@@ -7190,14 +7124,14 @@
       <c r="C295" s="1">
         <v>45126</v>
       </c>
-      <c r="D295" s="2">
-        <v>0.70527777777777789</v>
+      <c r="D295">
+        <v>0.7052777777777779</v>
       </c>
       <c r="F295">
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -7207,14 +7141,14 @@
       <c r="C296" s="1">
         <v>45156</v>
       </c>
-      <c r="D296" s="2">
-        <v>0.80967592592592597</v>
+      <c r="D296">
+        <v>0.809675925925926</v>
       </c>
       <c r="F296">
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>62</v>
       </c>
@@ -7224,14 +7158,14 @@
       <c r="C297" s="1">
         <v>45183</v>
       </c>
-      <c r="D297" s="2">
-        <v>6.9490740740740728E-2</v>
+      <c r="D297">
+        <v>0.06949074074074073</v>
       </c>
       <c r="F297">
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>62</v>
       </c>
@@ -7241,14 +7175,14 @@
       <c r="C298" s="1">
         <v>45213</v>
       </c>
-      <c r="D298" s="2">
-        <v>0.73115740740740742</v>
+      <c r="D298">
+        <v>0.7311574074074074</v>
       </c>
       <c r="F298">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>62</v>
       </c>
@@ -7258,14 +7192,14 @@
       <c r="C299" s="1">
         <v>45244</v>
       </c>
-      <c r="D299" s="2">
-        <v>0.94354166666666661</v>
+      <c r="D299">
+        <v>0.9435416666666666</v>
       </c>
       <c r="F299">
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>62</v>
       </c>
@@ -7275,14 +7209,14 @@
       <c r="C300" s="1">
         <v>45274</v>
       </c>
-      <c r="D300" s="2">
-        <v>0.55476851851851861</v>
+      <c r="D300">
+        <v>0.5547685185185186</v>
       </c>
       <c r="F300">
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>63</v>
       </c>
@@ -7292,14 +7226,14 @@
       <c r="C301" s="1">
         <v>44949</v>
       </c>
-      <c r="D301" s="2">
-        <v>0.67922453703703711</v>
+      <c r="D301">
+        <v>0.6792245370370371</v>
       </c>
       <c r="F301">
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>63</v>
       </c>
@@ -7309,14 +7243,14 @@
       <c r="C302" s="1">
         <v>44979</v>
       </c>
-      <c r="D302" s="2">
-        <v>0.66350694444444447</v>
+      <c r="D302">
+        <v>0.6635069444444445</v>
       </c>
       <c r="F302">
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>63</v>
       </c>
@@ -7326,14 +7260,14 @@
       <c r="C303" s="1">
         <v>45009</v>
       </c>
-      <c r="D303" s="2">
-        <v>0.76856481481481476</v>
+      <c r="D303">
+        <v>0.7685648148148148</v>
       </c>
       <c r="F303">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>63</v>
       </c>
@@ -7343,14 +7277,14 @@
       <c r="C304" s="1">
         <v>45039</v>
       </c>
-      <c r="D304" s="2">
-        <v>0.87685185185185199</v>
+      <c r="D304">
+        <v>0.876851851851852</v>
       </c>
       <c r="F304">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>63</v>
       </c>
@@ -7360,14 +7294,14 @@
       <c r="C305" s="1">
         <v>45069</v>
       </c>
-      <c r="D305" s="2">
-        <v>0.83907407407407408</v>
+      <c r="D305">
+        <v>0.8390740740740741</v>
       </c>
       <c r="F305">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>63</v>
       </c>
@@ -7377,14 +7311,14 @@
       <c r="C306" s="1">
         <v>45099</v>
       </c>
-      <c r="D306" s="2">
-        <v>0.36646990740740742</v>
+      <c r="D306">
+        <v>0.3664699074074074</v>
       </c>
       <c r="F306">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>63</v>
       </c>
@@ -7394,14 +7328,14 @@
       <c r="C307" s="1">
         <v>45127</v>
       </c>
-      <c r="D307" s="2">
-        <v>0.69246527777777789</v>
+      <c r="D307">
+        <v>0.6924652777777779</v>
       </c>
       <c r="F307">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>63</v>
       </c>
@@ -7411,14 +7345,14 @@
       <c r="C308" s="1">
         <v>45154</v>
       </c>
-      <c r="D308" s="2">
-        <v>4.1805555555555561E-2</v>
+      <c r="D308">
+        <v>0.04180555555555556</v>
       </c>
       <c r="F308">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>63</v>
       </c>
@@ -7428,14 +7362,14 @@
       <c r="C309" s="1">
         <v>45180</v>
       </c>
-      <c r="D309" s="2">
-        <v>0.87450231481481489</v>
+      <c r="D309">
+        <v>0.8745023148148149</v>
       </c>
       <c r="F309">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>63</v>
       </c>
@@ -7445,14 +7379,14 @@
       <c r="C310" s="1">
         <v>45209</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310">
         <v>0.7391550925925926</v>
       </c>
       <c r="F310">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>63</v>
       </c>
@@ -7462,14 +7396,14 @@
       <c r="C311" s="1">
         <v>45239</v>
       </c>
-      <c r="D311" s="2">
-        <v>0.72910879629629644</v>
+      <c r="D311">
+        <v>0.7291087962962964</v>
       </c>
       <c r="F311">
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>63</v>
       </c>
@@ -7479,14 +7413,14 @@
       <c r="C312" s="1">
         <v>45270</v>
       </c>
-      <c r="D312" s="2">
-        <v>3.7037037037037028E-2</v>
+      <c r="D312">
+        <v>0.03703703703703703</v>
       </c>
       <c r="F312">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>64</v>
       </c>
@@ -7496,14 +7430,14 @@
       <c r="C313" s="1">
         <v>44930</v>
       </c>
-      <c r="D313" s="2">
-        <v>0.15085648148148151</v>
+      <c r="D313">
+        <v>0.1508564814814815</v>
       </c>
       <c r="F313">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>64</v>
       </c>
@@ -7513,14 +7447,14 @@
       <c r="C314" s="1">
         <v>44957</v>
       </c>
-      <c r="D314" s="2">
-        <v>0.51730324074074074</v>
+      <c r="D314">
+        <v>0.5173032407407407</v>
       </c>
       <c r="F314">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>64</v>
       </c>
@@ -7530,14 +7464,14 @@
       <c r="C315" s="1">
         <v>44985</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315">
         <v>0.5220717592592593</v>
       </c>
       <c r="F315">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>64</v>
       </c>
@@ -7547,14 +7481,14 @@
       <c r="C316" s="1">
         <v>45013</v>
       </c>
-      <c r="D316" s="2">
-        <v>0.88608796296296299</v>
+      <c r="D316">
+        <v>0.886087962962963</v>
       </c>
       <c r="F316">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>64</v>
       </c>
@@ -7564,14 +7498,14 @@
       <c r="C317" s="1">
         <v>45042</v>
       </c>
-      <c r="D317" s="2">
-        <v>0.42945601851851861</v>
+      <c r="D317">
+        <v>0.4294560185185186</v>
       </c>
       <c r="F317">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>64</v>
       </c>
@@ -7581,14 +7515,14 @@
       <c r="C318" s="1">
         <v>45071</v>
       </c>
-      <c r="D318" s="2">
-        <v>6.3969907407407406E-2</v>
+      <c r="D318">
+        <v>0.06396990740740741</v>
       </c>
       <c r="F318">
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>64</v>
       </c>
@@ -7598,14 +7532,14 @@
       <c r="C319" s="1">
         <v>45099</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319">
         <v>0.7562268518518519</v>
       </c>
       <c r="F319">
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>64</v>
       </c>
@@ -7615,14 +7549,14 @@
       <c r="C320" s="1">
         <v>45128</v>
       </c>
-      <c r="D320" s="2">
-        <v>0.50010416666666668</v>
+      <c r="D320">
+        <v>0.5001041666666667</v>
       </c>
       <c r="F320">
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>64</v>
       </c>
@@ -7632,14 +7566,14 @@
       <c r="C321" s="1">
         <v>45157</v>
       </c>
-      <c r="D321" s="2">
-        <v>0.29637731481481477</v>
+      <c r="D321">
+        <v>0.2963773148148148</v>
       </c>
       <c r="F321">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -7649,14 +7583,14 @@
       <c r="C322" s="1">
         <v>45186</v>
       </c>
-      <c r="D322" s="2">
-        <v>0.13905092592592591</v>
+      <c r="D322">
+        <v>0.1390509259259259</v>
       </c>
       <c r="F322">
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>64</v>
       </c>
@@ -7666,14 +7600,14 @@
       <c r="C323" s="1">
         <v>45215</v>
       </c>
-      <c r="D323" s="2">
-        <v>1.1909722222222221E-2</v>
+      <c r="D323">
+        <v>0.01190972222222222</v>
       </c>
       <c r="F323">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>64</v>
       </c>
@@ -7683,14 +7617,14 @@
       <c r="C324" s="1">
         <v>45243</v>
       </c>
-      <c r="D324" s="2">
-        <v>0.89755787037037038</v>
+      <c r="D324">
+        <v>0.8975578703703704</v>
       </c>
       <c r="F324">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>64</v>
       </c>
@@ -7700,14 +7634,14 @@
       <c r="C325" s="1">
         <v>45272</v>
       </c>
-      <c r="D325" s="2">
-        <v>0.78853009259259255</v>
+      <c r="D325">
+        <v>0.7885300925925925</v>
       </c>
       <c r="F325">
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>65</v>
       </c>
@@ -7717,14 +7651,14 @@
       <c r="C326" s="1">
         <v>44952</v>
       </c>
-      <c r="D326" s="2">
-        <v>0.41879629629629628</v>
+      <c r="D326">
+        <v>0.4187962962962963</v>
       </c>
       <c r="F326">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>65</v>
       </c>
@@ -7734,14 +7668,14 @@
       <c r="C327" s="1">
         <v>44980</v>
       </c>
-      <c r="D327" s="2">
-        <v>0.25024305555555548</v>
+      <c r="D327">
+        <v>0.2502430555555555</v>
       </c>
       <c r="F327">
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>65</v>
       </c>
@@ -7751,14 +7685,14 @@
       <c r="C328" s="1">
         <v>45008</v>
       </c>
-      <c r="D328" s="2">
-        <v>0.16377314814814811</v>
+      <c r="D328">
+        <v>0.1637731481481481</v>
       </c>
       <c r="F328">
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>65</v>
       </c>
@@ -7768,14 +7702,14 @@
       <c r="C329" s="1">
         <v>45036</v>
       </c>
-      <c r="D329" s="2">
-        <v>6.3472222222222222E-2</v>
+      <c r="D329">
+        <v>0.06347222222222222</v>
       </c>
       <c r="F329">
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>65</v>
       </c>
@@ -7785,14 +7719,14 @@
       <c r="C330" s="1">
         <v>45063</v>
       </c>
-      <c r="D330" s="2">
-        <v>0.88719907407407417</v>
+      <c r="D330">
+        <v>0.8871990740740742</v>
       </c>
       <c r="F330">
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>65</v>
       </c>
@@ -7802,14 +7736,14 @@
       <c r="C331" s="1">
         <v>45091</v>
       </c>
-      <c r="D331" s="2">
-        <v>0.60795138888888889</v>
+      <c r="D331">
+        <v>0.6079513888888889</v>
       </c>
       <c r="F331">
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>65</v>
       </c>
@@ -7819,14 +7753,14 @@
       <c r="C332" s="1">
         <v>45119</v>
       </c>
-      <c r="D332" s="2">
-        <v>0.22298611111111111</v>
+      <c r="D332">
+        <v>0.2229861111111111</v>
       </c>
       <c r="F332">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -7836,14 +7770,14 @@
       <c r="C333" s="1">
         <v>45146</v>
       </c>
-      <c r="D333" s="2">
-        <v>0.73891203703703701</v>
+      <c r="D333">
+        <v>0.738912037037037</v>
       </c>
       <c r="F333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>65</v>
       </c>
@@ -7853,14 +7787,14 @@
       <c r="C334" s="1">
         <v>45174</v>
       </c>
-      <c r="D334" s="2">
-        <v>0.15782407407407409</v>
+      <c r="D334">
+        <v>0.1578240740740741</v>
       </c>
       <c r="F334">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>65</v>
       </c>
@@ -7870,14 +7804,14 @@
       <c r="C335" s="1">
         <v>45201</v>
       </c>
-      <c r="D335" s="2">
-        <v>0.47189814814814812</v>
+      <c r="D335">
+        <v>0.4718981481481481</v>
       </c>
       <c r="F335">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>65</v>
       </c>
@@ -7887,14 +7821,14 @@
       <c r="C336" s="1">
         <v>45228</v>
       </c>
-      <c r="D336" s="2">
-        <v>0.67667824074074068</v>
+      <c r="D336">
+        <v>0.6766782407407407</v>
       </c>
       <c r="F336">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>65</v>
       </c>
@@ -7904,14 +7838,14 @@
       <c r="C337" s="1">
         <v>45255</v>
       </c>
-      <c r="D337" s="2">
-        <v>0.80171296296296302</v>
+      <c r="D337">
+        <v>0.801712962962963</v>
       </c>
       <c r="F337">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>65</v>
       </c>
@@ -7921,14 +7855,14 @@
       <c r="C338" s="1">
         <v>45282</v>
       </c>
-      <c r="D338" s="2">
-        <v>0.93364583333333329</v>
+      <c r="D338">
+        <v>0.9336458333333333</v>
       </c>
       <c r="F338">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>66</v>
       </c>
@@ -7938,14 +7872,14 @@
       <c r="C339" s="1">
         <v>44949</v>
       </c>
-      <c r="D339" s="2">
-        <v>0.63978009259259261</v>
+      <c r="D339">
+        <v>0.6397800925925926</v>
       </c>
       <c r="F339">
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>66</v>
       </c>
@@ -7955,14 +7889,14 @@
       <c r="C340" s="1">
         <v>44977</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340">
         <v>0.3316898148148148</v>
       </c>
       <c r="F340">
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>66</v>
       </c>
@@ -7972,14 +7906,14 @@
       <c r="C341" s="1">
         <v>45004</v>
       </c>
-      <c r="D341" s="2">
-        <v>0.97335648148148157</v>
+      <c r="D341">
+        <v>0.9733564814814816</v>
       </c>
       <c r="F341">
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>66</v>
       </c>
@@ -7989,14 +7923,14 @@
       <c r="C342" s="1">
         <v>45032</v>
       </c>
-      <c r="D342" s="2">
-        <v>0.49226851851851849</v>
+      <c r="D342">
+        <v>0.4922685185185185</v>
       </c>
       <c r="F342">
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>66</v>
       </c>
@@ -8006,14 +7940,14 @@
       <c r="C343" s="1">
         <v>45059</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343">
         <v>0.8798032407407409</v>
       </c>
       <c r="F343">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>66</v>
       </c>
@@ -8023,14 +7957,14 @@
       <c r="C344" s="1">
         <v>45087</v>
       </c>
-      <c r="D344" s="2">
-        <v>0.18254629629629629</v>
+      <c r="D344">
+        <v>0.1825462962962963</v>
       </c>
       <c r="F344">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>66</v>
       </c>
@@ -8040,14 +7974,14 @@
       <c r="C345" s="1">
         <v>45114</v>
       </c>
-      <c r="D345" s="2">
-        <v>0.46504629629629629</v>
+      <c r="D345">
+        <v>0.4650462962962963</v>
       </c>
       <c r="F345">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>66</v>
       </c>
@@ -8057,14 +7991,14 @@
       <c r="C346" s="1">
         <v>45141</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346">
         <v>0.7678356481481482</v>
       </c>
       <c r="F346">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>66</v>
       </c>
@@ -8074,14 +8008,14 @@
       <c r="C347" s="1">
         <v>45169</v>
       </c>
-      <c r="D347" s="2">
-        <v>8.8680555555555554E-2</v>
+      <c r="D347">
+        <v>0.08868055555555555</v>
       </c>
       <c r="F347">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>66</v>
       </c>
@@ -8091,14 +8025,14 @@
       <c r="C348" s="1">
         <v>45196</v>
       </c>
-      <c r="D348" s="2">
-        <v>0.39546296296296291</v>
+      <c r="D348">
+        <v>0.3954629629629629</v>
       </c>
       <c r="F348">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>66</v>
       </c>
@@ -8108,14 +8042,14 @@
       <c r="C349" s="1">
         <v>45223</v>
       </c>
-      <c r="D349" s="2">
-        <v>0.66371527777777772</v>
+      <c r="D349">
+        <v>0.6637152777777777</v>
       </c>
       <c r="F349">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>66</v>
       </c>
@@ -8125,14 +8059,14 @@
       <c r="C350" s="1">
         <v>45250</v>
       </c>
-      <c r="D350" s="2">
-        <v>0.92072916666666671</v>
+      <c r="D350">
+        <v>0.9207291666666667</v>
       </c>
       <c r="F350">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>66</v>
       </c>
@@ -8142,14 +8076,14 @@
       <c r="C351" s="1">
         <v>45278</v>
       </c>
-      <c r="D351" s="2">
-        <v>0.25089120370370371</v>
+      <c r="D351">
+        <v>0.2508912037037037</v>
       </c>
       <c r="F351">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>67</v>
       </c>
@@ -8159,14 +8093,14 @@
       <c r="C352" s="1">
         <v>44928</v>
       </c>
-      <c r="D352" s="2">
-        <v>0.26122685185185179</v>
+      <c r="D352">
+        <v>0.2612268518518518</v>
       </c>
       <c r="F352">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>67</v>
       </c>
@@ -8176,14 +8110,14 @@
       <c r="C353" s="1">
         <v>44955</v>
       </c>
-      <c r="D353" s="2">
-        <v>0.50593750000000004</v>
+      <c r="D353">
+        <v>0.5059375</v>
       </c>
       <c r="F353">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>67</v>
       </c>
@@ -8193,14 +8127,14 @@
       <c r="C354" s="1">
         <v>44982</v>
       </c>
-      <c r="D354" s="2">
-        <v>0.87878472222222215</v>
+      <c r="D354">
+        <v>0.8787847222222221</v>
       </c>
       <c r="F354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>67</v>
       </c>
@@ -8210,14 +8144,14 @@
       <c r="C355" s="1">
         <v>45010</v>
       </c>
-      <c r="D355" s="2">
-        <v>0.36056712962962961</v>
+      <c r="D355">
+        <v>0.3605671296296296</v>
       </c>
       <c r="F355">
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>67</v>
       </c>
@@ -8227,14 +8161,14 @@
       <c r="C356" s="1">
         <v>45037</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356">
         <v>0.8753009259259259</v>
       </c>
       <c r="F356">
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>67</v>
       </c>
@@ -8244,14 +8178,14 @@
       <c r="C357" s="1">
         <v>45065</v>
       </c>
-      <c r="D357" s="2">
-        <v>0.34894675925925928</v>
+      <c r="D357">
+        <v>0.3489467592592593</v>
       </c>
       <c r="F357">
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>67</v>
       </c>
@@ -8261,14 +8195,14 @@
       <c r="C358" s="1">
         <v>45092</v>
       </c>
-      <c r="D358" s="2">
-        <v>0.74565972222222221</v>
+      <c r="D358">
+        <v>0.7456597222222222</v>
       </c>
       <c r="F358">
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>67</v>
       </c>
@@ -8278,14 +8212,14 @@
       <c r="C359" s="1">
         <v>45120</v>
       </c>
-      <c r="D359" s="2">
-        <v>7.4745370370370365E-2</v>
+      <c r="D359">
+        <v>0.07474537037037036</v>
       </c>
       <c r="F359">
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>67</v>
       </c>
@@ -8295,14 +8229,14 @@
       <c r="C360" s="1">
         <v>45147</v>
       </c>
-      <c r="D360" s="2">
-        <v>0.37736111111111109</v>
+      <c r="D360">
+        <v>0.3773611111111111</v>
       </c>
       <c r="F360">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>67</v>
       </c>
@@ -8312,14 +8246,14 @@
       <c r="C361" s="1">
         <v>45174</v>
       </c>
-      <c r="D361" s="2">
-        <v>0.69811342592592596</v>
+      <c r="D361">
+        <v>0.698113425925926</v>
       </c>
       <c r="F361">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>67</v>
       </c>
@@ -8329,14 +8263,14 @@
       <c r="C362" s="1">
         <v>45202</v>
       </c>
-      <c r="D362" s="2">
-        <v>5.2407407407407409E-2</v>
+      <c r="D362">
+        <v>0.05240740740740741</v>
       </c>
       <c r="F362">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>67</v>
       </c>
@@ -8346,14 +8280,14 @@
       <c r="C363" s="1">
         <v>45229</v>
       </c>
-      <c r="D363" s="2">
-        <v>0.41151620370370368</v>
+      <c r="D363">
+        <v>0.4115162037037037</v>
       </c>
       <c r="F363">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>67</v>
       </c>
@@ -8363,14 +8297,14 @@
       <c r="C364" s="1">
         <v>45256</v>
       </c>
-      <c r="D364" s="2">
-        <v>0.72166666666666668</v>
+      <c r="D364">
+        <v>0.7216666666666667</v>
       </c>
       <c r="F364">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>67</v>
       </c>
@@ -8380,14 +8314,14 @@
       <c r="C365" s="1">
         <v>45283</v>
       </c>
-      <c r="D365" s="2">
-        <v>0.95390046296296294</v>
+      <c r="D365">
+        <v>0.9539004629629629</v>
       </c>
       <c r="F365">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>68</v>
       </c>
@@ -8397,14 +8331,14 @@
       <c r="C366" s="1">
         <v>44951</v>
       </c>
-      <c r="D366" s="2">
-        <v>0.57998842592592592</v>
+      <c r="D366">
+        <v>0.5799884259259259</v>
       </c>
       <c r="F366">
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>68</v>
       </c>
@@ -8414,14 +8348,14 @@
       <c r="C367" s="1">
         <v>44979</v>
       </c>
-      <c r="D367" s="2">
-        <v>9.4340277777777773E-2</v>
+      <c r="D367">
+        <v>0.09434027777777777</v>
       </c>
       <c r="F367">
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>68</v>
       </c>
@@ -8431,14 +8365,14 @@
       <c r="C368" s="1">
         <v>45006</v>
       </c>
-      <c r="D368" s="2">
-        <v>0.61607638888888883</v>
+      <c r="D368">
+        <v>0.6160763888888888</v>
       </c>
       <c r="F368">
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>68</v>
       </c>
@@ -8448,14 +8382,14 @@
       <c r="C369" s="1">
         <v>45034</v>
       </c>
-      <c r="D369" s="2">
-        <v>5.8310185185185187E-2</v>
+      <c r="D369">
+        <v>0.05831018518518519</v>
       </c>
       <c r="F369">
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>68</v>
       </c>
@@ -8465,14 +8399,14 @@
       <c r="C370" s="1">
         <v>45061</v>
       </c>
-      <c r="D370" s="2">
-        <v>0.39260416666666659</v>
+      <c r="D370">
+        <v>0.3926041666666666</v>
       </c>
       <c r="F370">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>68</v>
       </c>
@@ -8482,14 +8416,14 @@
       <c r="C371" s="1">
         <v>45088</v>
       </c>
-      <c r="D371" s="2">
-        <v>0.65721064814814822</v>
+      <c r="D371">
+        <v>0.6572106481481482</v>
       </c>
       <c r="F371">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:6">
       <c r="A372" t="s">
         <v>68</v>
       </c>
@@ -8499,14 +8433,14 @@
       <c r="C372" s="1">
         <v>45115</v>
       </c>
-      <c r="D372" s="2">
-        <v>0.92501157407407408</v>
+      <c r="D372">
+        <v>0.9250115740740741</v>
       </c>
       <c r="F372">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:6">
       <c r="A373" t="s">
         <v>68</v>
       </c>
@@ -8516,14 +8450,14 @@
       <c r="C373" s="1">
         <v>45143</v>
       </c>
-      <c r="D373" s="2">
-        <v>0.25141203703703702</v>
+      <c r="D373">
+        <v>0.251412037037037</v>
       </c>
       <c r="F373">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:6">
       <c r="A374" t="s">
         <v>68</v>
       </c>
@@ -8533,14 +8467,14 @@
       <c r="C374" s="1">
         <v>45170</v>
       </c>
-      <c r="D374" s="2">
-        <v>0.63937500000000003</v>
+      <c r="D374">
+        <v>0.639375</v>
       </c>
       <c r="F374">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:6">
       <c r="A375" t="s">
         <v>68</v>
       </c>
@@ -8550,14 +8484,14 @@
       <c r="C375" s="1">
         <v>45198</v>
       </c>
-      <c r="D375" s="2">
-        <v>4.1192129629629627E-2</v>
+      <c r="D375">
+        <v>0.04119212962962963</v>
       </c>
       <c r="F375">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:6">
       <c r="A376" t="s">
         <v>68</v>
       </c>
@@ -8567,14 +8501,14 @@
       <c r="C376" s="1">
         <v>45225</v>
       </c>
-      <c r="D376" s="2">
-        <v>0.39090277777777782</v>
+      <c r="D376">
+        <v>0.3909027777777778</v>
       </c>
       <c r="F376">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:6">
       <c r="A377" t="s">
         <v>68</v>
       </c>
@@ -8584,14 +8518,14 @@
       <c r="C377" s="1">
         <v>45252</v>
       </c>
-      <c r="D377" s="2">
-        <v>0.65660879629629632</v>
+      <c r="D377">
+        <v>0.6566087962962963</v>
       </c>
       <c r="F377">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:6">
       <c r="A378" t="s">
         <v>68</v>
       </c>
@@ -8601,14 +8535,14 @@
       <c r="C378" s="1">
         <v>45279</v>
       </c>
-      <c r="D378" s="2">
-        <v>0.88621527777777775</v>
+      <c r="D378">
+        <v>0.8862152777777778</v>
       </c>
       <c r="F378">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:6">
       <c r="A379" t="s">
         <v>69</v>
       </c>
@@ -8618,14 +8552,14 @@
       <c r="C379" s="1">
         <v>45052</v>
       </c>
-      <c r="D379" s="2">
-        <v>5.7569444444444437E-2</v>
+      <c r="D379">
+        <v>0.05756944444444444</v>
       </c>
       <c r="F379" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:6">
       <c r="A380" t="s">
         <v>70</v>
       </c>
@@ -8635,14 +8569,14 @@
       <c r="C380" s="1">
         <v>45228</v>
       </c>
-      <c r="D380" s="2">
-        <v>0.17645833333333341</v>
+      <c r="D380">
+        <v>0.1764583333333334</v>
       </c>
       <c r="F380" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:6">
       <c r="A381" t="s">
         <v>71</v>
       </c>
@@ -8652,14 +8586,14 @@
       <c r="C381" s="1">
         <v>45133</v>
       </c>
-      <c r="D381" s="2">
-        <v>0.86097222222222214</v>
+      <c r="D381">
+        <v>0.8609722222222221</v>
       </c>
       <c r="F381" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:6">
       <c r="A382" t="s">
         <v>72</v>
       </c>
@@ -8669,14 +8603,14 @@
       <c r="C382" s="1">
         <v>45229</v>
       </c>
-      <c r="D382" s="2">
-        <v>5.4282407407407411E-2</v>
+      <c r="D382">
+        <v>0.05428240740740741</v>
       </c>
       <c r="F382" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:6">
       <c r="A383" t="s">
         <v>72</v>
       </c>
@@ -8686,14 +8620,14 @@
       <c r="C383" s="1">
         <v>45288</v>
       </c>
-      <c r="D383" s="2">
-        <v>0.44931712962962961</v>
+      <c r="D383">
+        <v>0.4493171296296296</v>
       </c>
       <c r="F383" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:6">
       <c r="A384" t="s">
         <v>73</v>
       </c>
@@ -8703,14 +8637,14 @@
       <c r="C384" s="1">
         <v>45013</v>
       </c>
-      <c r="D384" s="2">
-        <v>0.94056712962962952</v>
+      <c r="D384">
+        <v>0.9405671296296295</v>
       </c>
       <c r="F384" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:6">
       <c r="A385" t="s">
         <v>74</v>
       </c>
@@ -8720,14 +8654,14 @@
       <c r="C385" s="1">
         <v>44987</v>
       </c>
-      <c r="D385" s="2">
-        <v>0.73241898148148143</v>
+      <c r="D385">
+        <v>0.7324189814814814</v>
       </c>
       <c r="F385" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:6">
       <c r="A386" t="s">
         <v>75</v>
       </c>
@@ -8737,14 +8671,14 @@
       <c r="C386" s="1">
         <v>45081</v>
       </c>
-      <c r="D386" s="2">
-        <v>0.52869212962962964</v>
+      <c r="D386">
+        <v>0.5286921296296296</v>
       </c>
       <c r="F386">
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:6">
       <c r="A387" t="s">
         <v>76</v>
       </c>
@@ -8754,14 +8688,14 @@
       <c r="C387" s="1">
         <v>45001</v>
       </c>
-      <c r="D387" s="2">
-        <v>0.96318287037037054</v>
+      <c r="D387">
+        <v>0.9631828703703705</v>
       </c>
       <c r="F387">
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:6">
       <c r="A388" t="s">
         <v>77</v>
       </c>
@@ -8771,14 +8705,14 @@
       <c r="C388" s="1">
         <v>44987</v>
       </c>
-      <c r="D388" s="2">
-        <v>0.77831018518518524</v>
+      <c r="D388">
+        <v>0.7783101851851852</v>
       </c>
       <c r="F388" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:6">
       <c r="A389" t="s">
         <v>78</v>
       </c>
@@ -8788,14 +8722,14 @@
       <c r="C389" s="1">
         <v>44949</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389">
         <v>0.1502546296296296</v>
       </c>
       <c r="F389" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:6">
       <c r="A390" t="s">
         <v>79</v>
       </c>
@@ -8805,14 +8739,14 @@
       <c r="C390" s="1">
         <v>45016</v>
       </c>
-      <c r="D390" s="2">
-        <v>0.59081018518518513</v>
+      <c r="D390">
+        <v>0.5908101851851851</v>
       </c>
       <c r="F390">
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:6">
       <c r="A391" t="s">
         <v>80</v>
       </c>
@@ -8822,14 +8756,14 @@
       <c r="C391" s="1">
         <v>44972</v>
       </c>
-      <c r="D391" s="2">
-        <v>0.84663194444444445</v>
+      <c r="D391">
+        <v>0.8466319444444445</v>
       </c>
       <c r="F391">
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:6">
       <c r="A392" t="s">
         <v>81</v>
       </c>
@@ -8839,14 +8773,14 @@
       <c r="C392" s="1">
         <v>44941</v>
       </c>
-      <c r="D392" s="2">
-        <v>0.29914351851851861</v>
+      <c r="D392">
+        <v>0.2755787037037037</v>
       </c>
       <c r="F392">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:6">
       <c r="A393" t="s">
         <v>81</v>
       </c>
@@ -8856,14 +8790,14 @@
       <c r="C393" s="1">
         <v>44968</v>
       </c>
-      <c r="D393" s="2">
-        <v>0.56679398148148141</v>
+      <c r="D393">
+        <v>0.5428819444444445</v>
       </c>
       <c r="F393">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:6">
       <c r="A394" t="s">
         <v>81</v>
       </c>
@@ -8873,14 +8807,14 @@
       <c r="C394" s="1">
         <v>44995</v>
       </c>
-      <c r="D394" s="2">
-        <v>0.80500000000000005</v>
+      <c r="D394">
+        <v>0.7812152777777778</v>
       </c>
       <c r="F394">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:6">
       <c r="A395" t="s">
         <v>81</v>
       </c>
@@ -8890,14 +8824,14 @@
       <c r="C395" s="1">
         <v>45023</v>
       </c>
-      <c r="D395" s="2">
-        <v>8.099537037037037E-2</v>
+      <c r="D395">
+        <v>0.0575462962962963</v>
       </c>
       <c r="F395">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:6">
       <c r="A396" t="s">
         <v>81</v>
       </c>
@@ -8907,14 +8841,14 @@
       <c r="C396" s="1">
         <v>45050</v>
       </c>
-      <c r="D396" s="2">
-        <v>0.42125000000000001</v>
+      <c r="D396">
+        <v>0.3979861111111112</v>
       </c>
       <c r="F396">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:6">
       <c r="A397" t="s">
         <v>81</v>
       </c>
@@ -8924,14 +8858,14 @@
       <c r="C397" s="1">
         <v>45077</v>
       </c>
-      <c r="D397" s="2">
-        <v>0.80403935185185194</v>
+      <c r="D397">
+        <v>0.780625</v>
       </c>
       <c r="F397">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:6">
       <c r="A398" t="s">
         <v>81</v>
       </c>
@@ -8941,14 +8875,14 @@
       <c r="C398" s="1">
         <v>45105</v>
       </c>
-      <c r="D398" s="2">
-        <v>0.18180555555555561</v>
+      <c r="D398">
+        <v>0.157974537037037</v>
       </c>
       <c r="F398">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:6">
       <c r="A399" t="s">
         <v>81</v>
       </c>
@@ -8958,14 +8892,14 @@
       <c r="C399" s="1">
         <v>45132</v>
       </c>
-      <c r="D399" s="2">
-        <v>0.51129629629629636</v>
+      <c r="D399">
+        <v>0.4869560185185185</v>
       </c>
       <c r="F399">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:6">
       <c r="A400" t="s">
         <v>81</v>
       </c>
@@ -8975,14 +8909,14 @@
       <c r="C400" s="1">
         <v>45159</v>
       </c>
-      <c r="D400" s="2">
-        <v>0.78035879629629623</v>
+      <c r="D400">
+        <v>0.7557523148148149</v>
       </c>
       <c r="F400">
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>81</v>
       </c>
@@ -8990,16 +8924,16 @@
         <v>167</v>
       </c>
       <c r="C401" s="1">
-        <v>45187</v>
-      </c>
-      <c r="D401" s="2">
-        <v>1.864583333333333E-2</v>
+        <v>45186</v>
+      </c>
+      <c r="D401">
+        <v>0.9940972222222223</v>
       </c>
       <c r="F401">
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>81</v>
       </c>
@@ -9009,14 +8943,14 @@
       <c r="C402" s="1">
         <v>45214</v>
       </c>
-      <c r="D402" s="2">
-        <v>0.27913194444444439</v>
+      <c r="D402">
+        <v>0.2547916666666666</v>
       </c>
       <c r="F402">
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:6">
       <c r="A403" t="s">
         <v>81</v>
       </c>
@@ -9026,14 +8960,14 @@
       <c r="C403" s="1">
         <v>45241</v>
       </c>
-      <c r="D403" s="2">
-        <v>0.59923611111111119</v>
+      <c r="D403">
+        <v>0.5750925925925926</v>
       </c>
       <c r="F403">
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:6">
       <c r="A404" t="s">
         <v>81</v>
       </c>
@@ -9043,14 +8977,14 @@
       <c r="C404" s="1">
         <v>45268</v>
       </c>
-      <c r="D404" s="2">
-        <v>0.97190972222222216</v>
+      <c r="D404">
+        <v>0.9476273148148149</v>
       </c>
       <c r="F404">
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:6">
       <c r="A405" t="s">
         <v>82</v>
       </c>
@@ -9060,14 +8994,14 @@
       <c r="C405" s="1">
         <v>44936</v>
       </c>
-      <c r="D405" s="2">
-        <v>0.84512731481481485</v>
+      <c r="D405">
+        <v>0.8450810185185186</v>
       </c>
       <c r="F405">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:6">
       <c r="A406" t="s">
         <v>82</v>
       </c>
@@ -9077,14 +9011,14 @@
       <c r="C406" s="1">
         <v>44964</v>
       </c>
-      <c r="D406" s="2">
-        <v>9.886574074074074E-2</v>
+      <c r="D406">
+        <v>0.09880787037037037</v>
       </c>
       <c r="F406">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:6">
       <c r="A407" t="s">
         <v>82</v>
       </c>
@@ -9094,14 +9028,14 @@
       <c r="C407" s="1">
         <v>44991</v>
       </c>
-      <c r="D407" s="2">
-        <v>0.36579861111111112</v>
+      <c r="D407">
+        <v>0.3657407407407408</v>
       </c>
       <c r="F407">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>82</v>
       </c>
@@ -9111,14 +9045,14 @@
       <c r="C408" s="1">
         <v>45018</v>
       </c>
-      <c r="D408" s="2">
-        <v>0.6675578703703704</v>
+      <c r="D408">
+        <v>0.6675</v>
       </c>
       <c r="F408">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>82</v>
       </c>
@@ -9128,14 +9062,14 @@
       <c r="C409" s="1">
         <v>45046</v>
       </c>
-      <c r="D409" s="2">
-        <v>2.430555555555556E-4</v>
+      <c r="D409">
+        <v>0.0002083333333333333</v>
       </c>
       <c r="F409">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>82</v>
       </c>
@@ -9145,14 +9079,14 @@
       <c r="C410" s="1">
         <v>45073</v>
       </c>
-      <c r="D410" s="2">
-        <v>0.33962962962962973</v>
+      <c r="D410">
+        <v>0.3395833333333333</v>
       </c>
       <c r="F410">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:6">
       <c r="A411" t="s">
         <v>82</v>
       </c>
@@ -9162,14 +9096,14 @@
       <c r="C411" s="1">
         <v>45100</v>
       </c>
-      <c r="D411" s="2">
-        <v>0.6573148148148148</v>
+      <c r="D411">
+        <v>0.6572569444444445</v>
       </c>
       <c r="F411">
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:6">
       <c r="A412" t="s">
         <v>82</v>
       </c>
@@ -9179,14 +9113,14 @@
       <c r="C412" s="1">
         <v>45127</v>
       </c>
-      <c r="D412" s="2">
-        <v>0.93885416666666666</v>
+      <c r="D412">
+        <v>0.9387962962962962</v>
       </c>
       <c r="F412">
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:6">
       <c r="A413" t="s">
         <v>82</v>
       </c>
@@ -9196,14 +9130,14 @@
       <c r="C413" s="1">
         <v>45155</v>
       </c>
-      <c r="D413" s="2">
-        <v>0.1925</v>
+      <c r="D413">
+        <v>0.1924537037037037</v>
       </c>
       <c r="F413">
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:6">
       <c r="A414" t="s">
         <v>82</v>
       </c>
@@ -9213,14 +9147,14 @@
       <c r="C414" s="1">
         <v>45182</v>
       </c>
-      <c r="D414" s="2">
-        <v>0.44422453703703701</v>
+      <c r="D414">
+        <v>0.4441666666666667</v>
       </c>
       <c r="F414">
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:6">
       <c r="A415" t="s">
         <v>82</v>
       </c>
@@ -9230,14 +9164,14 @@
       <c r="C415" s="1">
         <v>45209</v>
       </c>
-      <c r="D415" s="2">
-        <v>0.72256944444444438</v>
+      <c r="D415">
+        <v>0.722511574074074</v>
       </c>
       <c r="F415">
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:6">
       <c r="A416" t="s">
         <v>82</v>
       </c>
@@ -9247,14 +9181,14 @@
       <c r="C416" s="1">
         <v>45237</v>
       </c>
-      <c r="D416" s="2">
-        <v>4.103009259259259E-2</v>
+      <c r="D416">
+        <v>0.04097222222222222</v>
       </c>
       <c r="F416">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:6">
       <c r="A417" t="s">
         <v>82</v>
       </c>
@@ -9264,14 +9198,14 @@
       <c r="C417" s="1">
         <v>45264</v>
       </c>
-      <c r="D417" s="2">
-        <v>0.38777777777777778</v>
+      <c r="D417">
+        <v>0.3877199074074074</v>
       </c>
       <c r="F417">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:6">
       <c r="A418" t="s">
         <v>83</v>
       </c>
@@ -9281,14 +9215,14 @@
       <c r="C418" s="1">
         <v>44944</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D418">
         <v>0.7528125</v>
       </c>
       <c r="F418">
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:6">
       <c r="A419" t="s">
         <v>83</v>
       </c>
@@ -9298,14 +9232,14 @@
       <c r="C419" s="1">
         <v>44972</v>
       </c>
-      <c r="D419" s="2">
-        <v>0.11321759259259261</v>
+      <c r="D419">
+        <v>0.1132175925925926</v>
       </c>
       <c r="F419">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:6">
       <c r="A420" t="s">
         <v>83</v>
       </c>
@@ -9315,14 +9249,14 @@
       <c r="C420" s="1">
         <v>44999</v>
       </c>
-      <c r="D420" s="2">
-        <v>0.37229166666666669</v>
+      <c r="D420">
+        <v>0.3722916666666667</v>
       </c>
       <c r="F420">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:6">
       <c r="A421" t="s">
         <v>83</v>
       </c>
@@ -9332,14 +9266,14 @@
       <c r="C421" s="1">
         <v>45026</v>
       </c>
-      <c r="D421" s="2">
-        <v>0.60086805555555556</v>
+      <c r="D421">
+        <v>0.6008680555555556</v>
       </c>
       <c r="F421">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:6">
       <c r="A422" t="s">
         <v>83</v>
       </c>
@@ -9349,14 +9283,14 @@
       <c r="C422" s="1">
         <v>45053</v>
       </c>
-      <c r="D422" s="2">
+      <c r="D422">
         <v>0.8817476851851852</v>
       </c>
       <c r="F422">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:6">
       <c r="A423" t="s">
         <v>83</v>
       </c>
@@ -9366,14 +9300,14 @@
       <c r="C423" s="1">
         <v>45081</v>
       </c>
-      <c r="D423" s="2">
-        <v>0.24535879629629631</v>
+      <c r="D423">
+        <v>0.2453472222222222</v>
       </c>
       <c r="F423">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:6">
       <c r="A424" t="s">
         <v>83</v>
       </c>
@@ -9383,14 +9317,14 @@
       <c r="C424" s="1">
         <v>45108</v>
       </c>
-      <c r="D424" s="2">
-        <v>0.66295138888888894</v>
+      <c r="D424">
+        <v>0.6629513888888889</v>
       </c>
       <c r="F424">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:6">
       <c r="A425" t="s">
         <v>83</v>
       </c>
@@ -9400,14 +9334,14 @@
       <c r="C425" s="1">
         <v>45136</v>
       </c>
-      <c r="D425" s="2">
-        <v>7.3854166666666665E-2</v>
+      <c r="D425">
+        <v>0.07385416666666667</v>
       </c>
       <c r="F425">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:6">
       <c r="A426" t="s">
         <v>83</v>
       </c>
@@ -9417,14 +9351,14 @@
       <c r="C426" s="1">
         <v>45163</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D426">
         <v>0.4205208333333334</v>
       </c>
       <c r="F426">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:6">
       <c r="A427" t="s">
         <v>83</v>
       </c>
@@ -9434,14 +9368,14 @@
       <c r="C427" s="1">
         <v>45190</v>
       </c>
-      <c r="D427" s="2">
-        <v>0.68527777777777776</v>
+      <c r="D427">
+        <v>0.6852893518518518</v>
       </c>
       <c r="F427">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:6">
       <c r="A428" t="s">
         <v>83</v>
       </c>
@@ -9451,14 +9385,14 @@
       <c r="C428" s="1">
         <v>45217</v>
       </c>
-      <c r="D428" s="2">
-        <v>0.91184027777777776</v>
+      <c r="D428">
+        <v>0.9118402777777778</v>
       </c>
       <c r="F428">
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:6">
       <c r="A429" t="s">
         <v>83</v>
       </c>
@@ -9468,14 +9402,14 @@
       <c r="C429" s="1">
         <v>45245</v>
       </c>
-      <c r="D429" s="2">
-        <v>0.17913194444444441</v>
+      <c r="D429">
+        <v>0.1791435185185185</v>
       </c>
       <c r="F429">
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:6">
       <c r="A430" t="s">
         <v>83</v>
       </c>
@@ -9485,14 +9419,14 @@
       <c r="C430" s="1">
         <v>45272</v>
       </c>
-      <c r="D430" s="2">
-        <v>0.53581018518518519</v>
+      <c r="D430">
+        <v>0.5357986111111112</v>
       </c>
       <c r="F430">
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:6">
       <c r="A431" t="s">
         <v>84</v>
       </c>
@@ -9502,14 +9436,14 @@
       <c r="C431" s="1">
         <v>44930</v>
       </c>
-      <c r="D431" s="2">
-        <v>0.37012731481481481</v>
+      <c r="D431">
+        <v>0.3701388888888889</v>
       </c>
       <c r="F431">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:6">
       <c r="A432" t="s">
         <v>84</v>
       </c>
@@ -9519,14 +9453,14 @@
       <c r="C432" s="1">
         <v>44957</v>
       </c>
-      <c r="D432" s="2">
-        <v>0.61480324074074078</v>
+      <c r="D432">
+        <v>0.6148148148148148</v>
       </c>
       <c r="F432">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:6">
       <c r="A433" t="s">
         <v>84</v>
       </c>
@@ -9536,14 +9470,14 @@
       <c r="C433" s="1">
         <v>44984</v>
       </c>
-      <c r="D433" s="2">
-        <v>0.90207175925925931</v>
+      <c r="D433">
+        <v>0.9020833333333332</v>
       </c>
       <c r="F433">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:6">
       <c r="A434" t="s">
         <v>84</v>
       </c>
@@ -9553,14 +9487,14 @@
       <c r="C434" s="1">
         <v>45012</v>
       </c>
-      <c r="D434" s="2">
-        <v>0.25335648148148149</v>
+      <c r="D434">
+        <v>0.2533564814814815</v>
       </c>
       <c r="F434">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:6">
       <c r="A435" t="s">
         <v>84</v>
       </c>
@@ -9570,14 +9504,14 @@
       <c r="C435" s="1">
         <v>45039</v>
       </c>
-      <c r="D435" s="2">
-        <v>0.63648148148148154</v>
+      <c r="D435">
+        <v>0.6364930555555556</v>
       </c>
       <c r="F435">
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:6">
       <c r="A436" t="s">
         <v>84</v>
       </c>
@@ -9587,14 +9521,14 @@
       <c r="C436" s="1">
         <v>45066</v>
       </c>
-      <c r="D436" s="2">
-        <v>0.99658564814814821</v>
+      <c r="D436">
+        <v>0.9965972222222222</v>
       </c>
       <c r="F436">
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:6">
       <c r="A437" t="s">
         <v>84</v>
       </c>
@@ -9604,14 +9538,14 @@
       <c r="C437" s="1">
         <v>45094</v>
       </c>
-      <c r="D437" s="2">
-        <v>0.29784722222222221</v>
+      <c r="D437">
+        <v>0.2978587962962963</v>
       </c>
       <c r="F437">
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:6">
       <c r="A438" t="s">
         <v>84</v>
       </c>
@@ -9621,14 +9555,14 @@
       <c r="C438" s="1">
         <v>45121</v>
       </c>
-      <c r="D438" s="2">
-        <v>0.54487268518518517</v>
+      <c r="D438">
+        <v>0.5448842592592592</v>
       </c>
       <c r="F438">
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:6">
       <c r="A439" t="s">
         <v>84</v>
       </c>
@@ -9638,14 +9572,14 @@
       <c r="C439" s="1">
         <v>45148</v>
       </c>
-      <c r="D439" s="2">
-        <v>0.77953703703703703</v>
+      <c r="D439">
+        <v>0.7795486111111111</v>
       </c>
       <c r="F439">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:6">
       <c r="A440" t="s">
         <v>84</v>
       </c>
@@ -9655,14 +9589,14 @@
       <c r="C440" s="1">
         <v>45176</v>
       </c>
-      <c r="D440" s="2">
-        <v>5.6516203703703707E-2</v>
+      <c r="D440">
+        <v>0.05652777777777778</v>
       </c>
       <c r="F440">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:6">
       <c r="A441" t="s">
         <v>84</v>
       </c>
@@ -9672,14 +9606,14 @@
       <c r="C441" s="1">
         <v>45203</v>
       </c>
-      <c r="D441" s="2">
-        <v>0.40660879629629632</v>
+      <c r="D441">
+        <v>0.4066203703703704</v>
       </c>
       <c r="F441">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:6">
       <c r="A442" t="s">
         <v>84</v>
       </c>
@@ -9689,14 +9623,14 @@
       <c r="C442" s="1">
         <v>45230</v>
       </c>
-      <c r="D442" s="2">
-        <v>0.81128472222222214</v>
+      <c r="D442">
+        <v>0.8112962962962963</v>
       </c>
       <c r="F442">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:6">
       <c r="A443" t="s">
         <v>84</v>
       </c>
@@ -9706,14 +9640,14 @@
       <c r="C443" s="1">
         <v>45258</v>
       </c>
-      <c r="D443" s="2">
-        <v>0.21038194444444441</v>
+      <c r="D443">
+        <v>0.2103935185185185</v>
       </c>
       <c r="F443">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:6">
       <c r="A444" t="s">
         <v>84</v>
       </c>
@@ -9723,14 +9657,14 @@
       <c r="C444" s="1">
         <v>45285</v>
       </c>
-      <c r="D444" s="2">
-        <v>0.54243055555555564</v>
+      <c r="D444">
+        <v>0.5424421296296297</v>
       </c>
       <c r="F444">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:6">
       <c r="A445" t="s">
         <v>85</v>
       </c>
@@ -9738,16 +9672,16 @@
         <v>171</v>
       </c>
       <c r="C445" s="1">
-        <v>44961</v>
-      </c>
-      <c r="D445" s="2">
-        <v>0.18474537037037039</v>
+        <v>44933</v>
+      </c>
+      <c r="D445">
+        <v>0.9297916666666667</v>
       </c>
       <c r="F445">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:6">
       <c r="A446" t="s">
         <v>85</v>
       </c>
@@ -9755,16 +9689,16 @@
         <v>171</v>
       </c>
       <c r="C446" s="1">
-        <v>44988</v>
-      </c>
-      <c r="D446" s="2">
-        <v>0.45063657407407409</v>
+        <v>44961</v>
+      </c>
+      <c r="D446">
+        <v>0.1846064814814815</v>
       </c>
       <c r="F446">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:6">
       <c r="A447" t="s">
         <v>85</v>
       </c>
@@ -9772,16 +9706,16 @@
         <v>171</v>
       </c>
       <c r="C447" s="1">
-        <v>45015</v>
-      </c>
-      <c r="D447" s="2">
-        <v>0.75162037037037044</v>
+        <v>44988</v>
+      </c>
+      <c r="D447">
+        <v>0.4504976851851852</v>
       </c>
       <c r="F447">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:6">
       <c r="A448" t="s">
         <v>85</v>
       </c>
@@ -9789,16 +9723,16 @@
         <v>171</v>
       </c>
       <c r="C448" s="1">
-        <v>45043</v>
-      </c>
-      <c r="D448" s="2">
-        <v>8.6087962962962949E-2</v>
+        <v>45015</v>
+      </c>
+      <c r="D448">
+        <v>0.7514930555555557</v>
       </c>
       <c r="F448">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>85</v>
       </c>
@@ -9806,16 +9740,16 @@
         <v>171</v>
       </c>
       <c r="C449" s="1">
-        <v>45070</v>
-      </c>
-      <c r="D449" s="2">
-        <v>0.42675925925925923</v>
+        <v>45043</v>
+      </c>
+      <c r="D449">
+        <v>0.08594907407407408</v>
       </c>
       <c r="F449">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>85</v>
       </c>
@@ -9823,16 +9757,16 @@
         <v>171</v>
       </c>
       <c r="C450" s="1">
-        <v>45097</v>
-      </c>
-      <c r="D450" s="2">
-        <v>0.74153935185185194</v>
+        <v>45070</v>
+      </c>
+      <c r="D450">
+        <v>0.4266319444444444</v>
       </c>
       <c r="F450">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>85</v>
       </c>
@@ -9840,16 +9774,16 @@
         <v>171</v>
       </c>
       <c r="C451" s="1">
-        <v>45125</v>
-      </c>
-      <c r="D451" s="2">
-        <v>1.554398148148148E-2</v>
+        <v>45097</v>
+      </c>
+      <c r="D451">
+        <v>0.7414120370370371</v>
       </c>
       <c r="F451">
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:6">
       <c r="A452" t="s">
         <v>85</v>
       </c>
@@ -9857,16 +9791,16 @@
         <v>171</v>
       </c>
       <c r="C452" s="1">
-        <v>45152</v>
-      </c>
-      <c r="D452" s="2">
-        <v>0.26024305555555549</v>
+        <v>45125</v>
+      </c>
+      <c r="D452">
+        <v>0.01541666666666667</v>
       </c>
       <c r="F452">
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:6">
       <c r="A453" t="s">
         <v>85</v>
       </c>
@@ -9874,16 +9808,16 @@
         <v>171</v>
       </c>
       <c r="C453" s="1">
-        <v>45179</v>
-      </c>
-      <c r="D453" s="2">
-        <v>0.50771990740740736</v>
+        <v>45152</v>
+      </c>
+      <c r="D453">
+        <v>0.2601041666666666</v>
       </c>
       <c r="F453">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>85</v>
       </c>
@@ -9891,16 +9825,16 @@
         <v>171</v>
       </c>
       <c r="C454" s="1">
-        <v>45206</v>
-      </c>
-      <c r="D454" s="2">
-        <v>0.79328703703703718</v>
+        <v>45179</v>
+      </c>
+      <c r="D454">
+        <v>0.5075925925925926</v>
       </c>
       <c r="F454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>85</v>
       </c>
@@ -9908,16 +9842,16 @@
         <v>171</v>
       </c>
       <c r="C455" s="1">
-        <v>45234</v>
-      </c>
-      <c r="D455" s="2">
-        <v>0.13157407407407409</v>
+        <v>45206</v>
+      </c>
+      <c r="D455">
+        <v>0.7931481481481483</v>
       </c>
       <c r="F455">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>85</v>
       </c>
@@ -9925,16 +9859,16 @@
         <v>171</v>
       </c>
       <c r="C456" s="1">
-        <v>45261</v>
-      </c>
-      <c r="D456" s="2">
-        <v>0.50111111111111117</v>
+        <v>45234</v>
+      </c>
+      <c r="D456">
+        <v>0.1314467592592592</v>
       </c>
       <c r="F456">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>85</v>
       </c>
@@ -9942,18 +9876,33 @@
         <v>171</v>
       </c>
       <c r="C457" s="1">
+        <v>45261</v>
+      </c>
+      <c r="D457">
+        <v>0.5009837962962963</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>85</v>
+      </c>
+      <c r="B458" t="s">
+        <v>171</v>
+      </c>
+      <c r="C458" s="1">
         <v>45288</v>
       </c>
-      <c r="D457" s="2">
-        <v>0.85436342592592596</v>
-      </c>
-      <c r="F457">
+      <c r="D458">
+        <v>0.8542476851851851</v>
+      </c>
+      <c r="F458">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output2023.xlsx
+++ b/output2023.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkspm.yp\Downloads\skyfield-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18940537-0D3B-4FA4-AEBD-C16CA95A4AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="25812" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1153,16 +1159,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1186,20 +1200,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1241,7 +1264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1273,9 +1296,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1307,6 +1348,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1482,14 +1541,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="3" max="3" width="11.640625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1564,7 @@
       <c r="C1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E1" t="s">
@@ -1509,7 +1574,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1519,14 +1584,14 @@
       <c r="C2" s="1">
         <v>45006</v>
       </c>
-      <c r="D2">
-        <v>0.225300925925926</v>
+      <c r="D2" s="2">
+        <v>0.22530092592592599</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1536,14 +1601,14 @@
       <c r="C3" s="1">
         <v>45098</v>
       </c>
-      <c r="D3">
-        <v>0.9568171296296296</v>
+      <c r="D3" s="2">
+        <v>0.95681712962962961</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1553,14 +1618,14 @@
       <c r="C4" s="1">
         <v>45192</v>
       </c>
-      <c r="D4">
-        <v>0.6180439814814814</v>
+      <c r="D4" s="2">
+        <v>0.61804398148148143</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1570,14 +1635,14 @@
       <c r="C5" s="1">
         <v>45282</v>
       </c>
-      <c r="D5">
-        <v>0.4773263888888888</v>
+      <c r="D5" s="2">
+        <v>0.47732638888888879</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1587,14 +1652,14 @@
       <c r="C6" s="1">
         <v>44933</v>
       </c>
-      <c r="D6">
-        <v>0.2971527777777778</v>
+      <c r="D6" s="2">
+        <v>0.29715277777777782</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1604,14 +1669,14 @@
       <c r="C7" s="1">
         <v>44941</v>
       </c>
-      <c r="D7">
-        <v>0.4238310185185185</v>
+      <c r="D7" s="2">
+        <v>0.42383101851851851</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1621,14 +1686,14 @@
       <c r="C8" s="1">
         <v>44948</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.2036458333333333</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1638,14 +1703,14 @@
       <c r="C9" s="1">
         <v>44954</v>
       </c>
-      <c r="D9">
-        <v>0.9713657407407408</v>
+      <c r="D9" s="2">
+        <v>0.97136574074074078</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1655,14 +1720,14 @@
       <c r="C10" s="1">
         <v>44963</v>
       </c>
-      <c r="D10">
-        <v>0.1031597222222222</v>
+      <c r="D10" s="2">
+        <v>0.10315972222222219</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1672,14 +1737,14 @@
       <c r="C11" s="1">
         <v>44971</v>
       </c>
-      <c r="D11">
-        <v>0.0004976851851851852</v>
+      <c r="D11" s="2">
+        <v>4.9768518518518521E-4</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1689,14 +1754,14 @@
       <c r="C12" s="1">
         <v>44977</v>
       </c>
-      <c r="D12">
-        <v>0.6290509259259259</v>
+      <c r="D12" s="2">
+        <v>0.62905092592592593</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1706,14 +1771,14 @@
       <c r="C13" s="1">
         <v>44984</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.6705671296296295</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1723,14 +1788,14 @@
       <c r="C14" s="1">
         <v>44992</v>
       </c>
-      <c r="D14">
-        <v>0.8613541666666666</v>
+      <c r="D14" s="2">
+        <v>0.86135416666666664</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1740,14 +1805,14 @@
       <c r="C15" s="1">
         <v>45000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.4224074074074074</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1757,14 +1822,14 @@
       <c r="C16" s="1">
         <v>45007</v>
       </c>
-      <c r="D16">
-        <v>0.05773148148148147</v>
+      <c r="D16" s="2">
+        <v>5.7731481481481467E-2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1774,14 +1839,14 @@
       <c r="C17" s="1">
         <v>45014</v>
       </c>
-      <c r="D17">
-        <v>0.4391435185185185</v>
+      <c r="D17" s="2">
+        <v>0.43914351851851852</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1791,14 +1856,14 @@
       <c r="C18" s="1">
         <v>45022</v>
       </c>
-      <c r="D18">
-        <v>0.5239699074074075</v>
+      <c r="D18" s="2">
+        <v>0.52396990740740745</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1808,14 +1873,14 @@
       <c r="C19" s="1">
         <v>45029</v>
       </c>
-      <c r="D19">
-        <v>0.7162500000000001</v>
+      <c r="D19" s="2">
+        <v>0.71625000000000005</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1825,14 +1890,14 @@
       <c r="C20" s="1">
         <v>45036</v>
       </c>
-      <c r="D20">
-        <v>0.5087037037037037</v>
+      <c r="D20" s="2">
+        <v>0.50870370370370366</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1842,14 +1907,14 @@
       <c r="C21" s="1">
         <v>45044</v>
       </c>
-      <c r="D21">
-        <v>0.2221759259259259</v>
+      <c r="D21" s="2">
+        <v>0.22217592592592589</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1859,14 +1924,14 @@
       <c r="C22" s="1">
         <v>45052</v>
       </c>
-      <c r="D22">
-        <v>0.0653125</v>
+      <c r="D22" s="2">
+        <v>6.5312499999999996E-2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1876,14 +1941,14 @@
       <c r="C23" s="1">
         <v>45058</v>
       </c>
-      <c r="D23">
-        <v>0.9363078703703703</v>
+      <c r="D23" s="2">
+        <v>0.93630787037037033</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1893,14 +1958,14 @@
       <c r="C24" s="1">
         <v>45065</v>
       </c>
-      <c r="D24">
-        <v>0.9953240740740741</v>
+      <c r="D24" s="2">
+        <v>0.99532407407407408</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1910,14 +1975,14 @@
       <c r="C25" s="1">
         <v>45073</v>
       </c>
-      <c r="D25">
-        <v>0.9738078703703704</v>
+      <c r="D25" s="2">
+        <v>0.97380787037037042</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1927,14 +1992,14 @@
       <c r="C26" s="1">
         <v>45081</v>
       </c>
-      <c r="D26">
-        <v>0.4873148148148148</v>
+      <c r="D26" s="2">
+        <v>0.48731481481481481</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1944,14 +2009,14 @@
       <c r="C27" s="1">
         <v>45088</v>
       </c>
-      <c r="D27">
-        <v>0.1467939814814815</v>
+      <c r="D27" s="2">
+        <v>0.14679398148148151</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1961,14 +2026,14 @@
       <c r="C28" s="1">
         <v>45095</v>
       </c>
-      <c r="D28">
-        <v>0.5257986111111111</v>
+      <c r="D28" s="2">
+        <v>0.52579861111111115</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1978,14 +2043,14 @@
       <c r="C29" s="1">
         <v>45103</v>
       </c>
-      <c r="D29">
-        <v>0.6595254629629629</v>
+      <c r="D29" s="2">
+        <v>0.65952546296296288</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1995,14 +2060,14 @@
       <c r="C30" s="1">
         <v>45110</v>
       </c>
-      <c r="D30">
-        <v>0.8185300925925926</v>
+      <c r="D30" s="2">
+        <v>0.81853009259259257</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2012,14 +2077,14 @@
       <c r="C31" s="1">
         <v>45117</v>
       </c>
-      <c r="D31">
-        <v>0.4082523148148148</v>
+      <c r="D31" s="2">
+        <v>0.40825231481481478</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2029,14 +2094,14 @@
       <c r="C32" s="1">
         <v>45125</v>
       </c>
-      <c r="D32">
-        <v>0.1054398148148148</v>
+      <c r="D32" s="2">
+        <v>0.10543981481481481</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2046,14 +2111,14 @@
       <c r="C33" s="1">
         <v>45133</v>
       </c>
-      <c r="D33">
-        <v>0.2547106481481481</v>
+      <c r="D33" s="2">
+        <v>0.25471064814814809</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2063,14 +2128,14 @@
       <c r="C34" s="1">
         <v>45140</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>0.1053240740740741</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2080,14 +2145,14 @@
       <c r="C35" s="1">
         <v>45146</v>
       </c>
-      <c r="D35">
-        <v>0.7697453703703703</v>
+      <c r="D35" s="2">
+        <v>0.76974537037037027</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2097,14 +2162,14 @@
       <c r="C36" s="1">
         <v>45154</v>
       </c>
-      <c r="D36">
-        <v>0.734849537037037</v>
+      <c r="D36" s="2">
+        <v>0.73484953703703704</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2114,14 +2179,14 @@
       <c r="C37" s="1">
         <v>45162</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>0.7480902777777777</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2131,14 +2196,14 @@
       <c r="C38" s="1">
         <v>45169</v>
       </c>
-      <c r="D38">
-        <v>0.3997337962962964</v>
+      <c r="D38" s="2">
+        <v>0.39973379629629641</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2148,14 +2213,14 @@
       <c r="C39" s="1">
         <v>45176</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0.2646412037037037</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2165,14 +2230,14 @@
       <c r="C40" s="1">
         <v>45184</v>
       </c>
-      <c r="D40">
-        <v>0.4026388888888889</v>
+      <c r="D40" s="2">
+        <v>0.40263888888888888</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2182,14 +2247,14 @@
       <c r="C41" s="1">
         <v>45192</v>
       </c>
-      <c r="D41">
-        <v>0.1470717592592592</v>
+      <c r="D41" s="2">
+        <v>0.14707175925925919</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2199,14 +2264,14 @@
       <c r="C42" s="1">
         <v>45198</v>
       </c>
-      <c r="D42">
-        <v>0.748287037037037</v>
+      <c r="D42" s="2">
+        <v>0.74828703703703703</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2216,14 +2281,14 @@
       <c r="C43" s="1">
         <v>45205</v>
       </c>
-      <c r="D43">
-        <v>0.9081365740740742</v>
+      <c r="D43" s="2">
+        <v>0.90813657407407422</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2233,14 +2298,14 @@
       <c r="C44" s="1">
         <v>45214</v>
       </c>
-      <c r="D44">
-        <v>0.07996527777777777</v>
+      <c r="D44" s="2">
+        <v>7.9965277777777774E-2</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2250,14 +2315,14 @@
       <c r="C45" s="1">
         <v>45221</v>
       </c>
-      <c r="D45">
-        <v>0.4787731481481481</v>
+      <c r="D45" s="2">
+        <v>0.47877314814814809</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2267,14 +2332,14 @@
       <c r="C46" s="1">
         <v>45228</v>
       </c>
-      <c r="D46">
-        <v>0.1833564814814815</v>
+      <c r="D46" s="2">
+        <v>0.18335648148148151</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2284,14 +2349,14 @@
       <c r="C47" s="1">
         <v>45235</v>
       </c>
-      <c r="D47">
-        <v>0.6922222222222222</v>
+      <c r="D47" s="2">
+        <v>0.69222222222222218</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2301,14 +2366,14 @@
       <c r="C48" s="1">
         <v>45243</v>
       </c>
-      <c r="D48">
-        <v>0.7273611111111111</v>
+      <c r="D48" s="2">
+        <v>0.72736111111111112</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2318,14 +2383,14 @@
       <c r="C49" s="1">
         <v>45250</v>
       </c>
-      <c r="D49">
-        <v>0.7846412037037037</v>
+      <c r="D49" s="2">
+        <v>0.78464120370370372</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2335,14 +2400,14 @@
       <c r="C50" s="1">
         <v>45257</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>0.7196527777777777</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2352,14 +2417,14 @@
       <c r="C51" s="1">
         <v>45265</v>
       </c>
-      <c r="D51">
-        <v>0.5758796296296297</v>
+      <c r="D51" s="2">
+        <v>0.57587962962962969</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2369,14 +2434,14 @@
       <c r="C52" s="1">
         <v>45273</v>
       </c>
-      <c r="D52">
-        <v>0.313912037037037</v>
+      <c r="D52" s="2">
+        <v>0.31391203703703702</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2386,14 +2451,14 @@
       <c r="C53" s="1">
         <v>45280</v>
       </c>
-      <c r="D53">
-        <v>0.1105787037037037</v>
+      <c r="D53" s="2">
+        <v>0.11057870370370371</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2403,14 +2468,14 @@
       <c r="C54" s="1">
         <v>45287</v>
       </c>
-      <c r="D54">
-        <v>0.3563888888888889</v>
+      <c r="D54" s="2">
+        <v>0.35638888888888892</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2420,8 +2485,8 @@
       <c r="C55" s="1">
         <v>44963</v>
       </c>
-      <c r="D55">
-        <v>0.1031597222222222</v>
+      <c r="D55" s="2">
+        <v>0.10315972222222219</v>
       </c>
       <c r="E55" t="s">
         <v>175</v>
@@ -2430,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2440,8 +2505,8 @@
       <c r="C56" s="1">
         <v>45169</v>
       </c>
-      <c r="D56">
-        <v>0.3997337962962964</v>
+      <c r="D56" s="2">
+        <v>0.39973379629629641</v>
       </c>
       <c r="E56" t="s">
         <v>176</v>
@@ -2450,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2460,14 +2525,14 @@
       <c r="C57" s="1">
         <v>44933</v>
       </c>
-      <c r="D57">
-        <v>0.8729166666666667</v>
+      <c r="D57" s="2">
+        <v>0.87291666666666667</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2477,14 +2542,14 @@
       <c r="C58" s="1">
         <v>45002</v>
       </c>
-      <c r="D58">
-        <v>0.7810532407407408</v>
+      <c r="D58" s="2">
+        <v>0.78105324074074078</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2494,14 +2559,14 @@
       <c r="C59" s="1">
         <v>45048</v>
       </c>
-      <c r="D59">
-        <v>0.3108333333333334</v>
+      <c r="D59" s="2">
+        <v>0.31083333333333341</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2511,14 +2576,14 @@
       <c r="C60" s="1">
         <v>45108</v>
       </c>
-      <c r="D60">
-        <v>0.5456481481481482</v>
+      <c r="D60" s="2">
+        <v>0.54564814814814822</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2528,14 +2593,14 @@
       <c r="C61" s="1">
         <v>45175</v>
       </c>
-      <c r="D61">
-        <v>0.7980902777777777</v>
+      <c r="D61" s="2">
+        <v>0.79809027777777775</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2545,14 +2610,14 @@
       <c r="C62" s="1">
         <v>45219</v>
       </c>
-      <c r="D62">
-        <v>0.5681134259259258</v>
+      <c r="D62" s="2">
+        <v>0.56811342592592584</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2562,14 +2627,14 @@
       <c r="C63" s="1">
         <v>45283</v>
       </c>
-      <c r="D63">
-        <v>0.1208333333333333</v>
+      <c r="D63" s="2">
+        <v>0.12083333333333331</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2579,14 +2644,14 @@
       <c r="C64" s="1">
         <v>45151</v>
       </c>
-      <c r="D64">
-        <v>0.8027199074074075</v>
+      <c r="D64" s="2">
+        <v>0.80271990740740751</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2596,14 +2661,14 @@
       <c r="C65" s="1">
         <v>45248</v>
       </c>
-      <c r="D65">
-        <v>0.5705671296296296</v>
+      <c r="D65" s="2">
+        <v>0.57056712962962963</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2613,14 +2678,14 @@
       <c r="C66" s="1">
         <v>45028</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>0.254849537037037</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2630,14 +2695,14 @@
       <c r="C67" s="1">
         <v>45233</v>
       </c>
-      <c r="D67">
-        <v>0.5433101851851851</v>
+      <c r="D67" s="2">
+        <v>0.54331018518518515</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -2647,14 +2712,14 @@
       <c r="C68" s="1">
         <v>44974</v>
       </c>
-      <c r="D68">
-        <v>0.03353009259259259</v>
+      <c r="D68" s="2">
+        <v>3.3530092592592591E-2</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2664,14 +2729,14 @@
       <c r="C69" s="1">
         <v>45165</v>
       </c>
-      <c r="D69">
-        <v>0.6860648148148147</v>
+      <c r="D69" s="2">
+        <v>0.68606481481481474</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2681,14 +2746,14 @@
       <c r="C70" s="1">
         <v>45056</v>
       </c>
-      <c r="D70">
-        <v>0.1637731481481481</v>
+      <c r="D70" s="2">
+        <v>0.16377314814814811</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2698,14 +2763,14 @@
       <c r="C71" s="1">
         <v>45244</v>
       </c>
-      <c r="D71">
-        <v>0.0559375</v>
+      <c r="D71" s="2">
+        <v>5.5937500000000001E-2</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2715,14 +2780,14 @@
       <c r="C72" s="1">
         <v>45001</v>
       </c>
-      <c r="D72">
-        <v>0.3187268518518518</v>
+      <c r="D72" s="2">
+        <v>0.31872685185185179</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -2732,14 +2797,14 @@
       <c r="C73" s="1">
         <v>45188</v>
       </c>
-      <c r="D73">
-        <v>0.8037615740740741</v>
+      <c r="D73" s="2">
+        <v>0.80376157407407411</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2749,14 +2814,14 @@
       <c r="C74" s="1">
         <v>44944</v>
       </c>
-      <c r="D74">
-        <v>0.9473379629629629</v>
+      <c r="D74" s="2">
+        <v>0.94733796296296291</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2766,14 +2831,14 @@
       <c r="C75" s="1">
         <v>45129</v>
       </c>
-      <c r="D75">
-        <v>0.4946527777777778</v>
+      <c r="D75" s="2">
+        <v>0.49465277777777777</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -2783,8 +2848,8 @@
       <c r="C76" s="1">
         <v>45081</v>
       </c>
-      <c r="D76">
-        <v>0.7922222222222222</v>
+      <c r="D76" s="2">
+        <v>0.79222222222222216</v>
       </c>
       <c r="E76" t="s">
         <v>177</v>
@@ -2793,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2803,8 +2868,8 @@
       <c r="C77" s="1">
         <v>45223</v>
       </c>
-      <c r="D77">
-        <v>0.3017013888888889</v>
+      <c r="D77" s="2">
+        <v>0.30170138888888892</v>
       </c>
       <c r="E77" t="s">
         <v>178</v>
@@ -2813,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -2823,8 +2888,8 @@
       <c r="C78" s="1">
         <v>44956</v>
       </c>
-      <c r="D78">
-        <v>0.5789699074074074</v>
+      <c r="D78" s="2">
+        <v>0.57896990740740739</v>
       </c>
       <c r="E78" t="s">
         <v>179</v>
@@ -2833,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -2843,8 +2908,8 @@
       <c r="C79" s="1">
         <v>45028</v>
       </c>
-      <c r="D79">
-        <v>0.2572337962962963</v>
+      <c r="D79" s="2">
+        <v>0.25723379629629628</v>
       </c>
       <c r="E79" t="s">
         <v>180</v>
@@ -2853,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -2863,8 +2928,8 @@
       <c r="C80" s="1">
         <v>45075</v>
       </c>
-      <c r="D80">
-        <v>0.5652083333333334</v>
+      <c r="D80" s="2">
+        <v>0.56520833333333342</v>
       </c>
       <c r="E80" t="s">
         <v>179</v>
@@ -2873,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -2883,7 +2948,7 @@
       <c r="C81" s="1">
         <v>45148</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>0.4073958333333334</v>
       </c>
       <c r="E81" t="s">
@@ -2893,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -2903,8 +2968,8 @@
       <c r="C82" s="1">
         <v>45191</v>
       </c>
-      <c r="D82">
-        <v>0.8861226851851852</v>
+      <c r="D82" s="2">
+        <v>0.88612268518518522</v>
       </c>
       <c r="E82" t="s">
         <v>182</v>
@@ -2913,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -2923,8 +2988,8 @@
       <c r="C83" s="1">
         <v>45264</v>
       </c>
-      <c r="D83">
-        <v>0.9364583333333333</v>
+      <c r="D83" s="2">
+        <v>0.93645833333333328</v>
       </c>
       <c r="E83" t="s">
         <v>183</v>
@@ -2933,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -2943,8 +3008,8 @@
       <c r="C84" s="1">
         <v>44934</v>
       </c>
-      <c r="D84">
-        <v>0.7108796296296297</v>
+      <c r="D84" s="2">
+        <v>0.71087962962962969</v>
       </c>
       <c r="E84" t="s">
         <v>184</v>
@@ -2953,7 +3018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -2963,8 +3028,8 @@
       <c r="C85" s="1">
         <v>44961</v>
       </c>
-      <c r="D85">
-        <v>0.6938078703703704</v>
+      <c r="D85" s="2">
+        <v>0.69380787037037039</v>
       </c>
       <c r="E85" t="s">
         <v>185</v>
@@ -2973,7 +3038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -2983,8 +3048,8 @@
       <c r="C86" s="1">
         <v>44989</v>
       </c>
-      <c r="D86">
-        <v>0.07748842592592593</v>
+      <c r="D86" s="2">
+        <v>7.7488425925925933E-2</v>
       </c>
       <c r="E86" t="s">
         <v>186</v>
@@ -2993,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -3003,7 +3068,7 @@
       <c r="C87" s="1">
         <v>45016</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>0.8007291666666666</v>
       </c>
       <c r="E87" t="s">
@@ -3013,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -3023,8 +3088,8 @@
       <c r="C88" s="1">
         <v>45044</v>
       </c>
-      <c r="D88">
-        <v>0.6127314814814815</v>
+      <c r="D88" s="2">
+        <v>0.61273148148148149</v>
       </c>
       <c r="E88" t="s">
         <v>188</v>
@@ -3033,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -3043,8 +3108,8 @@
       <c r="C89" s="1">
         <v>45072</v>
       </c>
-      <c r="D89">
-        <v>0.4037615740740741</v>
+      <c r="D89" s="2">
+        <v>0.40376157407407409</v>
       </c>
       <c r="E89" t="s">
         <v>189</v>
@@ -3053,7 +3118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -3063,7 +3128,7 @@
       <c r="C90" s="1">
         <v>45100</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>0.1089236111111111</v>
       </c>
       <c r="E90" t="s">
@@ -3073,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -3083,8 +3148,8 @@
       <c r="C91" s="1">
         <v>45127</v>
       </c>
-      <c r="D91">
-        <v>0.6308912037037037</v>
+      <c r="D91" s="2">
+        <v>0.63089120370370366</v>
       </c>
       <c r="E91" t="s">
         <v>191</v>
@@ -3093,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -3103,8 +3168,8 @@
       <c r="C92" s="1">
         <v>45154</v>
       </c>
-      <c r="D92">
-        <v>0.8405208333333333</v>
+      <c r="D92" s="2">
+        <v>0.84052083333333327</v>
       </c>
       <c r="E92" t="s">
         <v>192</v>
@@ -3113,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -3123,8 +3188,8 @@
       <c r="C93" s="1">
         <v>45181</v>
       </c>
-      <c r="D93">
-        <v>0.9963773148148148</v>
+      <c r="D93" s="2">
+        <v>0.99637731481481484</v>
       </c>
       <c r="E93" t="s">
         <v>193</v>
@@ -3133,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -3143,8 +3208,8 @@
       <c r="C94" s="1">
         <v>45209</v>
       </c>
-      <c r="D94">
-        <v>0.4916087962962963</v>
+      <c r="D94" s="2">
+        <v>0.49160879629629628</v>
       </c>
       <c r="E94" t="s">
         <v>194</v>
@@ -3153,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -3163,8 +3228,8 @@
       <c r="C95" s="1">
         <v>45237</v>
       </c>
-      <c r="D95">
-        <v>0.2439467592592592</v>
+      <c r="D95" s="2">
+        <v>0.24394675925925921</v>
       </c>
       <c r="E95" t="s">
         <v>195</v>
@@ -3173,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3183,8 +3248,8 @@
       <c r="C96" s="1">
         <v>45265</v>
       </c>
-      <c r="D96">
-        <v>0.112025462962963</v>
+      <c r="D96" s="2">
+        <v>0.11202546296296299</v>
       </c>
       <c r="E96" t="s">
         <v>196</v>
@@ -3193,7 +3258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -3203,8 +3268,8 @@
       <c r="C97" s="1">
         <v>44948</v>
       </c>
-      <c r="D97">
-        <v>0.2019212962962963</v>
+      <c r="D97" s="2">
+        <v>0.20192129629629629</v>
       </c>
       <c r="E97" t="s">
         <v>197</v>
@@ -3213,7 +3278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -3223,8 +3288,8 @@
       <c r="C98" s="1">
         <v>44976</v>
       </c>
-      <c r="D98">
-        <v>0.7076967592592593</v>
+      <c r="D98" s="2">
+        <v>0.70769675925925934</v>
       </c>
       <c r="E98" t="s">
         <v>198</v>
@@ -3233,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -3243,8 +3308,8 @@
       <c r="C99" s="1">
         <v>45004</v>
       </c>
-      <c r="D99">
-        <v>0.9617708333333334</v>
+      <c r="D99" s="2">
+        <v>0.96177083333333335</v>
       </c>
       <c r="E99" t="s">
         <v>199</v>
@@ -3253,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -3263,8 +3328,8 @@
       <c r="C100" s="1">
         <v>45032</v>
       </c>
-      <c r="D100">
-        <v>0.4272222222222222</v>
+      <c r="D100" s="2">
+        <v>0.42722222222222223</v>
       </c>
       <c r="E100" t="s">
         <v>200</v>
@@ -3273,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -3283,8 +3348,8 @@
       <c r="C101" s="1">
         <v>45057</v>
       </c>
-      <c r="D101">
-        <v>0.5494791666666666</v>
+      <c r="D101" s="2">
+        <v>0.54947916666666663</v>
       </c>
       <c r="E101" t="s">
         <v>201</v>
@@ -3293,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -3303,8 +3368,8 @@
       <c r="C102" s="1">
         <v>45084</v>
       </c>
-      <c r="D102">
-        <v>0.3013310185185185</v>
+      <c r="D102" s="2">
+        <v>0.30133101851851851</v>
       </c>
       <c r="E102" t="s">
         <v>202</v>
@@ -3313,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -3323,8 +3388,8 @@
       <c r="C103" s="1">
         <v>45112</v>
       </c>
-      <c r="D103">
-        <v>0.2722569444444444</v>
+      <c r="D103" s="2">
+        <v>0.27225694444444443</v>
       </c>
       <c r="E103" t="s">
         <v>203</v>
@@ -3333,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -3343,7 +3408,7 @@
       <c r="C104" s="1">
         <v>45140</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>0.5823032407407408</v>
       </c>
       <c r="E104" t="s">
@@ -3353,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3363,8 +3428,8 @@
       <c r="C105" s="1">
         <v>45169</v>
       </c>
-      <c r="D105">
-        <v>0.000474537037037037</v>
+      <c r="D105" s="2">
+        <v>4.7453703703703698E-4</v>
       </c>
       <c r="E105" t="s">
         <v>205</v>
@@ -3373,7 +3438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -3383,8 +3448,8 @@
       <c r="C106" s="1">
         <v>45197</v>
       </c>
-      <c r="D106">
-        <v>0.3789699074074074</v>
+      <c r="D106" s="2">
+        <v>0.37896990740740738</v>
       </c>
       <c r="E106" t="s">
         <v>206</v>
@@ -3393,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -3403,8 +3468,8 @@
       <c r="C107" s="1">
         <v>45225</v>
       </c>
-      <c r="D107">
-        <v>0.4652199074074074</v>
+      <c r="D107" s="2">
+        <v>0.46521990740740737</v>
       </c>
       <c r="E107" t="s">
         <v>207</v>
@@ -3413,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -3423,8 +3488,8 @@
       <c r="C108" s="1">
         <v>45252</v>
       </c>
-      <c r="D108">
-        <v>0.2139236111111111</v>
+      <c r="D108" s="2">
+        <v>0.21392361111111111</v>
       </c>
       <c r="E108" t="s">
         <v>208</v>
@@ -3433,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -3443,8 +3508,8 @@
       <c r="C109" s="1">
         <v>45277</v>
       </c>
-      <c r="D109">
-        <v>0.1135416666666667</v>
+      <c r="D109" s="2">
+        <v>0.11354166666666669</v>
       </c>
       <c r="E109" t="s">
         <v>209</v>
@@ -3453,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -3463,8 +3528,8 @@
       <c r="C110" s="1">
         <v>45114</v>
       </c>
-      <c r="D110">
-        <v>0.1712962962962963</v>
+      <c r="D110" s="2">
+        <v>0.17129629629629631</v>
       </c>
       <c r="E110" t="s">
         <v>210</v>
@@ -3473,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -3483,8 +3548,8 @@
       <c r="C111" s="1">
         <v>44931</v>
       </c>
-      <c r="D111">
-        <v>0.01209490740740741</v>
+      <c r="D111" s="2">
+        <v>1.209490740740741E-2</v>
       </c>
       <c r="E111" t="s">
         <v>211</v>
@@ -3493,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -3503,8 +3568,8 @@
       <c r="C112" s="1">
         <v>44946</v>
       </c>
-      <c r="D112">
-        <v>0.6709953703703704</v>
+      <c r="D112" s="2">
+        <v>0.67099537037037038</v>
       </c>
       <c r="E112" t="s">
         <v>212</v>
@@ -3513,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -3523,8 +3588,8 @@
       <c r="C113" s="1">
         <v>44976</v>
       </c>
-      <c r="D113">
-        <v>0.2780555555555556</v>
+      <c r="D113" s="2">
+        <v>0.27805555555555561</v>
       </c>
       <c r="E113" t="s">
         <v>213</v>
@@ -3533,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -3543,8 +3608,8 @@
       <c r="C114" s="1">
         <v>45007</v>
       </c>
-      <c r="D114">
-        <v>0.4089699074074074</v>
+      <c r="D114" s="2">
+        <v>0.40896990740740741</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -3553,7 +3618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -3563,8 +3628,8 @@
       <c r="C115" s="1">
         <v>45037</v>
       </c>
-      <c r="D115">
-        <v>0.6830671296296296</v>
+      <c r="D115" s="2">
+        <v>0.68306712962962957</v>
       </c>
       <c r="E115" t="s">
         <v>215</v>
@@ -3573,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -3583,8 +3648,8 @@
       <c r="C116" s="1">
         <v>45064</v>
       </c>
-      <c r="D116">
-        <v>0.2850810185185185</v>
+      <c r="D116" s="2">
+        <v>0.28508101851851853</v>
       </c>
       <c r="E116" t="s">
         <v>216</v>
@@ -3593,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -3603,8 +3668,8 @@
       <c r="C117" s="1">
         <v>45094</v>
       </c>
-      <c r="D117">
-        <v>0.1074768518518519</v>
+      <c r="D117" s="2">
+        <v>0.10747685185185191</v>
       </c>
       <c r="E117" t="s">
         <v>217</v>
@@ -3613,7 +3678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -3623,8 +3688,8 @@
       <c r="C118" s="1">
         <v>45126</v>
       </c>
-      <c r="D118">
-        <v>0.8139583333333333</v>
+      <c r="D118" s="2">
+        <v>0.81395833333333334</v>
       </c>
       <c r="E118" t="s">
         <v>218</v>
@@ -3633,7 +3698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -3643,8 +3708,8 @@
       <c r="C119" s="1">
         <v>45157</v>
       </c>
-      <c r="D119">
-        <v>0.08030092592592593</v>
+      <c r="D119" s="2">
+        <v>8.0300925925925928E-2</v>
       </c>
       <c r="E119" t="s">
         <v>219</v>
@@ -3653,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -3663,8 +3728,8 @@
       <c r="C120" s="1">
         <v>45183</v>
       </c>
-      <c r="D120">
-        <v>0.2914930555555555</v>
+      <c r="D120" s="2">
+        <v>0.29149305555555549</v>
       </c>
       <c r="E120" t="s">
         <v>220</v>
@@ -3673,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -3683,8 +3748,8 @@
       <c r="C121" s="1">
         <v>45213</v>
       </c>
-      <c r="D121">
-        <v>0.7012499999999999</v>
+      <c r="D121" s="2">
+        <v>0.70124999999999993</v>
       </c>
       <c r="E121" t="s">
         <v>221</v>
@@ -3693,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -3703,8 +3768,8 @@
       <c r="C122" s="1">
         <v>45244</v>
       </c>
-      <c r="D122">
-        <v>0.909849537037037</v>
+      <c r="D122" s="2">
+        <v>0.90984953703703697</v>
       </c>
       <c r="E122" t="s">
         <v>214</v>
@@ -3713,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -3723,8 +3788,8 @@
       <c r="C123" s="1">
         <v>45274</v>
       </c>
-      <c r="D123">
-        <v>0.5614699074074074</v>
+      <c r="D123" s="2">
+        <v>0.56146990740740743</v>
       </c>
       <c r="E123" t="s">
         <v>222</v>
@@ -3733,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -3743,8 +3808,8 @@
       <c r="C124" s="1">
         <v>44949</v>
       </c>
-      <c r="D124">
-        <v>0.769375</v>
+      <c r="D124" s="2">
+        <v>0.76937500000000003</v>
       </c>
       <c r="E124" t="s">
         <v>223</v>
@@ -3753,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3763,8 +3828,8 @@
       <c r="C125" s="1">
         <v>44979</v>
       </c>
-      <c r="D125">
-        <v>0.7369097222222223</v>
+      <c r="D125" s="2">
+        <v>0.73690972222222229</v>
       </c>
       <c r="E125" t="s">
         <v>224</v>
@@ -3773,7 +3838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -3783,8 +3848,8 @@
       <c r="C126" s="1">
         <v>45009</v>
       </c>
-      <c r="D126">
-        <v>0.7721643518518518</v>
+      <c r="D126" s="2">
+        <v>0.77216435185185184</v>
       </c>
       <c r="E126" t="s">
         <v>225</v>
@@ -3793,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A127" t="s">
         <v>34</v>
       </c>
@@ -3803,8 +3868,8 @@
       <c r="C127" s="1">
         <v>45039</v>
       </c>
-      <c r="D127">
-        <v>0.8551388888888889</v>
+      <c r="D127" s="2">
+        <v>0.85513888888888889</v>
       </c>
       <c r="E127" t="s">
         <v>226</v>
@@ -3813,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A128" t="s">
         <v>34</v>
       </c>
@@ -3823,8 +3888,8 @@
       <c r="C128" s="1">
         <v>45069</v>
       </c>
-      <c r="D128">
-        <v>0.8589120370370371</v>
+      <c r="D128" s="2">
+        <v>0.85891203703703711</v>
       </c>
       <c r="E128" t="s">
         <v>227</v>
@@ -3833,7 +3898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -3843,8 +3908,8 @@
       <c r="C129" s="1">
         <v>45099</v>
       </c>
-      <c r="D129">
-        <v>0.467662037037037</v>
+      <c r="D129" s="2">
+        <v>0.46766203703703701</v>
       </c>
       <c r="E129" t="s">
         <v>228</v>
@@ -3853,7 +3918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -3863,8 +3928,8 @@
       <c r="C130" s="1">
         <v>45127</v>
       </c>
-      <c r="D130">
-        <v>0.9378819444444444</v>
+      <c r="D130" s="2">
+        <v>0.93788194444444439</v>
       </c>
       <c r="E130" t="s">
         <v>229</v>
@@ -3873,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -3883,8 +3948,8 @@
       <c r="C131" s="1">
         <v>45154</v>
       </c>
-      <c r="D131">
-        <v>0.3899421296296297</v>
+      <c r="D131" s="2">
+        <v>0.38994212962962971</v>
       </c>
       <c r="E131" t="s">
         <v>230</v>
@@ -3893,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -3903,7 +3968,7 @@
       <c r="C132" s="1">
         <v>45181</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>0.1864467592592593</v>
       </c>
       <c r="E132" t="s">
@@ -3913,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -3923,8 +3988,8 @@
       <c r="C133" s="1">
         <v>45209</v>
       </c>
-      <c r="D133">
-        <v>0.9866666666666667</v>
+      <c r="D133" s="2">
+        <v>0.98666666666666669</v>
       </c>
       <c r="E133" t="s">
         <v>232</v>
@@ -3933,7 +3998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -3943,8 +4008,8 @@
       <c r="C134" s="1">
         <v>45239</v>
       </c>
-      <c r="D134">
-        <v>0.7738310185185185</v>
+      <c r="D134" s="2">
+        <v>0.77383101851851854</v>
       </c>
       <c r="E134" t="s">
         <v>233</v>
@@ -3953,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -3963,7 +4028,7 @@
       <c r="C135" s="1">
         <v>45269</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>0.9052430555555554</v>
       </c>
       <c r="E135" t="s">
@@ -3973,7 +4038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A136" t="s">
         <v>35</v>
       </c>
@@ -3983,8 +4048,8 @@
       <c r="C136" s="1">
         <v>44930</v>
       </c>
-      <c r="D136">
-        <v>0.1611458333333333</v>
+      <c r="D136" s="2">
+        <v>0.16114583333333329</v>
       </c>
       <c r="E136" t="s">
         <v>235</v>
@@ -3993,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -4003,8 +4068,8 @@
       <c r="C137" s="1">
         <v>44957</v>
       </c>
-      <c r="D137">
-        <v>0.5192708333333332</v>
+      <c r="D137" s="2">
+        <v>0.51927083333333324</v>
       </c>
       <c r="E137" t="s">
         <v>225</v>
@@ -4013,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -4023,7 +4088,7 @@
       <c r="C138" s="1">
         <v>44985</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="2">
         <v>0.5081134259259259</v>
       </c>
       <c r="E138" t="s">
@@ -4033,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A139" t="s">
         <v>35</v>
       </c>
@@ -4043,8 +4108,8 @@
       <c r="C139" s="1">
         <v>45013</v>
       </c>
-      <c r="D139">
-        <v>0.8780092592592593</v>
+      <c r="D139" s="2">
+        <v>0.87800925925925932</v>
       </c>
       <c r="E139" t="s">
         <v>237</v>
@@ -4053,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -4063,8 +4128,8 @@
       <c r="C140" s="1">
         <v>45042</v>
       </c>
-      <c r="D140">
-        <v>0.4554976851851851</v>
+      <c r="D140" s="2">
+        <v>0.45549768518518507</v>
       </c>
       <c r="E140" t="s">
         <v>223</v>
@@ -4073,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -4083,8 +4148,8 @@
       <c r="C141" s="1">
         <v>45071</v>
       </c>
-      <c r="D141">
-        <v>0.1386342592592592</v>
+      <c r="D141" s="2">
+        <v>0.13863425925925921</v>
       </c>
       <c r="E141" t="s">
         <v>238</v>
@@ -4093,7 +4158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -4103,8 +4168,8 @@
       <c r="C142" s="1">
         <v>45099</v>
       </c>
-      <c r="D142">
-        <v>0.8705671296296296</v>
+      <c r="D142" s="2">
+        <v>0.87056712962962957</v>
       </c>
       <c r="E142" t="s">
         <v>239</v>
@@ -4113,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -4123,8 +4188,8 @@
       <c r="C143" s="1">
         <v>45128</v>
       </c>
-      <c r="D143">
-        <v>0.6229398148148148</v>
+      <c r="D143" s="2">
+        <v>0.62293981481481475</v>
       </c>
       <c r="E143" t="s">
         <v>240</v>
@@ -4133,7 +4198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -4143,8 +4208,8 @@
       <c r="C144" s="1">
         <v>45157</v>
       </c>
-      <c r="D144">
-        <v>0.3865972222222223</v>
+      <c r="D144" s="2">
+        <v>0.38659722222222231</v>
       </c>
       <c r="E144" t="s">
         <v>241</v>
@@ -4153,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -4163,8 +4228,8 @@
       <c r="C145" s="1">
         <v>45186</v>
       </c>
-      <c r="D145">
-        <v>0.1662731481481481</v>
+      <c r="D145" s="2">
+        <v>0.16627314814814809</v>
       </c>
       <c r="E145" t="s">
         <v>242</v>
@@ -4173,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -4183,8 +4248,8 @@
       <c r="C146" s="1">
         <v>45214</v>
       </c>
-      <c r="D146">
-        <v>0.975625</v>
+      <c r="D146" s="2">
+        <v>0.97562499999999996</v>
       </c>
       <c r="E146" t="s">
         <v>243</v>
@@ -4193,7 +4258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -4203,8 +4268,8 @@
       <c r="C147" s="1">
         <v>45243</v>
       </c>
-      <c r="D147">
-        <v>0.8301157407407408</v>
+      <c r="D147" s="2">
+        <v>0.83011574074074079</v>
       </c>
       <c r="E147" t="s">
         <v>244</v>
@@ -4213,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -4223,8 +4288,8 @@
       <c r="C148" s="1">
         <v>45272</v>
       </c>
-      <c r="D148">
-        <v>0.7375925925925926</v>
+      <c r="D148" s="2">
+        <v>0.73759259259259258</v>
       </c>
       <c r="E148" t="s">
         <v>245</v>
@@ -4233,7 +4298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -4243,8 +4308,8 @@
       <c r="C149" s="1">
         <v>44952</v>
       </c>
-      <c r="D149">
-        <v>0.4794560185185185</v>
+      <c r="D149" s="2">
+        <v>0.47945601851851849</v>
       </c>
       <c r="E149" t="s">
         <v>214</v>
@@ -4253,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -4263,7 +4328,7 @@
       <c r="C150" s="1">
         <v>44980</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>0.2895949074074074</v>
       </c>
       <c r="E150" t="s">
@@ -4273,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -4283,8 +4348,8 @@
       <c r="C151" s="1">
         <v>45008</v>
       </c>
-      <c r="D151">
-        <v>0.181412037037037</v>
+      <c r="D151" s="2">
+        <v>0.18141203703703701</v>
       </c>
       <c r="E151" t="s">
         <v>247</v>
@@ -4293,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -4303,8 +4368,8 @@
       <c r="C152" s="1">
         <v>45036</v>
       </c>
-      <c r="D152">
-        <v>0.0594675925925926</v>
+      <c r="D152" s="2">
+        <v>5.94675925925926E-2</v>
       </c>
       <c r="E152" t="s">
         <v>248</v>
@@ -4313,7 +4378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -4323,8 +4388,8 @@
       <c r="C153" s="1">
         <v>45063</v>
       </c>
-      <c r="D153">
-        <v>0.8611574074074074</v>
+      <c r="D153" s="2">
+        <v>0.86115740740740743</v>
       </c>
       <c r="E153" t="s">
         <v>249</v>
@@ -4333,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -4343,8 +4408,8 @@
       <c r="C154" s="1">
         <v>45091</v>
       </c>
-      <c r="D154">
-        <v>0.5600347222222223</v>
+      <c r="D154" s="2">
+        <v>0.56003472222222228</v>
       </c>
       <c r="E154" t="s">
         <v>250</v>
@@ -4353,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -4363,7 +4428,7 @@
       <c r="C155" s="1">
         <v>45119</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="2">
         <v>0.1554861111111111</v>
       </c>
       <c r="E155" t="s">
@@ -4373,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -4383,8 +4448,8 @@
       <c r="C156" s="1">
         <v>45146</v>
       </c>
-      <c r="D156">
-        <v>0.6568402777777778</v>
+      <c r="D156" s="2">
+        <v>0.65684027777777776</v>
       </c>
       <c r="E156" t="s">
         <v>252</v>
@@ -4393,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -4403,8 +4468,8 @@
       <c r="C157" s="1">
         <v>45174</v>
       </c>
-      <c r="D157">
-        <v>0.06796296296296296</v>
+      <c r="D157" s="2">
+        <v>6.7962962962962961E-2</v>
       </c>
       <c r="E157" t="s">
         <v>253</v>
@@ -4413,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -4423,7 +4488,7 @@
       <c r="C158" s="1">
         <v>45201</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="2">
         <v>0.3812962962962963</v>
       </c>
       <c r="E158" t="s">
@@ -4433,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -4443,8 +4508,8 @@
       <c r="C159" s="1">
         <v>45228</v>
       </c>
-      <c r="D159">
-        <v>0.5909722222222222</v>
+      <c r="D159" s="2">
+        <v>0.59097222222222223</v>
       </c>
       <c r="E159" t="s">
         <v>255</v>
@@ -4453,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -4463,8 +4528,8 @@
       <c r="C160" s="1">
         <v>45255</v>
       </c>
-      <c r="D160">
-        <v>0.7222106481481482</v>
+      <c r="D160" s="2">
+        <v>0.72221064814814817</v>
       </c>
       <c r="E160" t="s">
         <v>256</v>
@@ -4473,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -4483,8 +4548,8 @@
       <c r="C161" s="1">
         <v>45282</v>
       </c>
-      <c r="D161">
-        <v>0.8555208333333333</v>
+      <c r="D161" s="2">
+        <v>0.85552083333333329</v>
       </c>
       <c r="E161" t="s">
         <v>257</v>
@@ -4493,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -4503,8 +4568,8 @@
       <c r="C162" s="1">
         <v>44949</v>
       </c>
-      <c r="D162">
-        <v>0.7309837962962963</v>
+      <c r="D162" s="2">
+        <v>0.73098379629629628</v>
       </c>
       <c r="E162" t="s">
         <v>239</v>
@@ -4513,7 +4578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -4523,8 +4588,8 @@
       <c r="C163" s="1">
         <v>44977</v>
       </c>
-      <c r="D163">
-        <v>0.4243981481481482</v>
+      <c r="D163" s="2">
+        <v>0.42439814814814819</v>
       </c>
       <c r="E163" t="s">
         <v>258</v>
@@ -4533,7 +4598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -4543,8 +4608,8 @@
       <c r="C164" s="1">
         <v>45005</v>
       </c>
-      <c r="D164">
-        <v>0.07023148148148148</v>
+      <c r="D164" s="2">
+        <v>7.0231481481481478E-2</v>
       </c>
       <c r="E164" t="s">
         <v>234</v>
@@ -4553,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -4563,7 +4628,7 @@
       <c r="C165" s="1">
         <v>45032</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="2">
         <v>0.5921412037037036</v>
       </c>
       <c r="E165" t="s">
@@ -4573,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -4583,8 +4648,8 @@
       <c r="C166" s="1">
         <v>45059</v>
       </c>
-      <c r="D166">
-        <v>0.9769907407407407</v>
+      <c r="D166" s="2">
+        <v>0.97699074074074066</v>
       </c>
       <c r="E166" t="s">
         <v>260</v>
@@ -4593,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -4603,8 +4668,8 @@
       <c r="C167" s="1">
         <v>45087</v>
       </c>
-      <c r="D167">
-        <v>0.2704745370370371</v>
+      <c r="D167" s="2">
+        <v>0.27047453703703711</v>
       </c>
       <c r="E167" t="s">
         <v>261</v>
@@ -4613,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -4623,8 +4688,8 @@
       <c r="C168" s="1">
         <v>45114</v>
       </c>
-      <c r="D168">
-        <v>0.541261574074074</v>
+      <c r="D168" s="2">
+        <v>0.54126157407407405</v>
       </c>
       <c r="E168" t="s">
         <v>262</v>
@@ -4633,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -4643,8 +4708,8 @@
       <c r="C169" s="1">
         <v>45141</v>
       </c>
-      <c r="D169">
-        <v>0.8360185185185185</v>
+      <c r="D169" s="2">
+        <v>0.83601851851851849</v>
       </c>
       <c r="E169" t="s">
         <v>263</v>
@@ -4653,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -4663,8 +4728,8 @@
       <c r="C170" s="1">
         <v>45169</v>
       </c>
-      <c r="D170">
-        <v>0.1559259259259259</v>
+      <c r="D170" s="2">
+        <v>0.15592592592592591</v>
       </c>
       <c r="E170" t="s">
         <v>264</v>
@@ -4673,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -4683,8 +4748,8 @@
       <c r="C171" s="1">
         <v>45196</v>
       </c>
-      <c r="D171">
-        <v>0.4675925925925926</v>
+      <c r="D171" s="2">
+        <v>0.46759259259259262</v>
       </c>
       <c r="E171" t="s">
         <v>262</v>
@@ -4693,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -4703,8 +4768,8 @@
       <c r="C172" s="1">
         <v>45223</v>
       </c>
-      <c r="D172">
-        <v>0.7414699074074075</v>
+      <c r="D172" s="2">
+        <v>0.74146990740740748</v>
       </c>
       <c r="E172" t="s">
         <v>265</v>
@@ -4713,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -4723,8 +4788,8 @@
       <c r="C173" s="1">
         <v>45250</v>
       </c>
-      <c r="D173">
-        <v>0.9990393518518518</v>
+      <c r="D173" s="2">
+        <v>0.99903935185185178</v>
       </c>
       <c r="E173" t="s">
         <v>266</v>
@@ -4733,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -4743,8 +4808,8 @@
       <c r="C174" s="1">
         <v>45278</v>
       </c>
-      <c r="D174">
-        <v>0.3227662037037037</v>
+      <c r="D174" s="2">
+        <v>0.32276620370370368</v>
       </c>
       <c r="E174" t="s">
         <v>267</v>
@@ -4753,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A175" t="s">
         <v>38</v>
       </c>
@@ -4763,7 +4828,7 @@
       <c r="C175" s="1">
         <v>44928</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="2">
         <v>0.2401041666666667</v>
       </c>
       <c r="E175" t="s">
@@ -4773,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -4783,8 +4848,8 @@
       <c r="C176" s="1">
         <v>44955</v>
       </c>
-      <c r="D176">
-        <v>0.4778703703703704</v>
+      <c r="D176" s="2">
+        <v>0.47787037037037039</v>
       </c>
       <c r="E176" t="s">
         <v>269</v>
@@ -4793,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A177" t="s">
         <v>38</v>
       </c>
@@ -4803,8 +4868,8 @@
       <c r="C177" s="1">
         <v>44982</v>
       </c>
-      <c r="D177">
-        <v>0.842361111111111</v>
+      <c r="D177" s="2">
+        <v>0.84236111111111101</v>
       </c>
       <c r="E177" t="s">
         <v>270</v>
@@ -4813,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -4823,8 +4888,8 @@
       <c r="C178" s="1">
         <v>45010</v>
       </c>
-      <c r="D178">
-        <v>0.3179513888888889</v>
+      <c r="D178" s="2">
+        <v>0.31795138888888891</v>
       </c>
       <c r="E178" t="s">
         <v>271</v>
@@ -4833,7 +4898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -4843,8 +4908,8 @@
       <c r="C179" s="1">
         <v>45037</v>
       </c>
-      <c r="D179">
-        <v>0.8290856481481481</v>
+      <c r="D179" s="2">
+        <v>0.82908564814814811</v>
       </c>
       <c r="E179" t="s">
         <v>272</v>
@@ -4853,7 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -4863,8 +4928,8 @@
       <c r="C180" s="1">
         <v>45065</v>
       </c>
-      <c r="D180">
-        <v>0.299849537037037</v>
+      <c r="D180" s="2">
+        <v>0.29984953703703698</v>
       </c>
       <c r="E180" t="s">
         <v>273</v>
@@ -4873,7 +4938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -4883,8 +4948,8 @@
       <c r="C181" s="1">
         <v>45092</v>
       </c>
-      <c r="D181">
-        <v>0.6922916666666667</v>
+      <c r="D181" s="2">
+        <v>0.69229166666666675</v>
       </c>
       <c r="E181" t="s">
         <v>274</v>
@@ -4893,7 +4958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A182" t="s">
         <v>38</v>
       </c>
@@ -4903,8 +4968,8 @@
       <c r="C182" s="1">
         <v>45120</v>
       </c>
-      <c r="D182">
-        <v>0.01527777777777778</v>
+      <c r="D182" s="2">
+        <v>1.5277777777777781E-2</v>
       </c>
       <c r="E182" t="s">
         <v>275</v>
@@ -4913,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A183" t="s">
         <v>38</v>
       </c>
@@ -4923,8 +4988,8 @@
       <c r="C183" s="1">
         <v>45147</v>
       </c>
-      <c r="D183">
-        <v>0.3115277777777778</v>
+      <c r="D183" s="2">
+        <v>0.31152777777777779</v>
       </c>
       <c r="E183" t="s">
         <v>276</v>
@@ -4933,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -4943,8 +5008,8 @@
       <c r="C184" s="1">
         <v>45174</v>
       </c>
-      <c r="D184">
-        <v>0.6280671296296296</v>
+      <c r="D184" s="2">
+        <v>0.62806712962962963</v>
       </c>
       <c r="E184" t="s">
         <v>277</v>
@@ -4953,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -4963,8 +5028,8 @@
       <c r="C185" s="1">
         <v>45201</v>
       </c>
-      <c r="D185">
-        <v>0.9815856481481481</v>
+      <c r="D185" s="2">
+        <v>0.98158564814814808</v>
       </c>
       <c r="E185" t="s">
         <v>278</v>
@@ -4973,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -4983,8 +5048,8 @@
       <c r="C186" s="1">
         <v>45229</v>
       </c>
-      <c r="D186">
-        <v>0.3423148148148148</v>
+      <c r="D186" s="2">
+        <v>0.34231481481481479</v>
       </c>
       <c r="E186" t="s">
         <v>279</v>
@@ -4993,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -5003,7 +5068,7 @@
       <c r="C187" s="1">
         <v>45256</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="2">
         <v>0.6534375</v>
       </c>
       <c r="E187" t="s">
@@ -5013,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -5023,8 +5088,8 @@
       <c r="C188" s="1">
         <v>45283</v>
       </c>
-      <c r="D188">
-        <v>0.8830787037037037</v>
+      <c r="D188" s="2">
+        <v>0.88307870370370367</v>
       </c>
       <c r="E188" t="s">
         <v>281</v>
@@ -5033,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -5043,7 +5108,7 @@
       <c r="C189" s="1">
         <v>44951</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="2">
         <v>0.6646643518518518</v>
       </c>
       <c r="E189" t="s">
@@ -5053,7 +5118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -5063,7 +5128,7 @@
       <c r="C190" s="1">
         <v>44979</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="2">
         <v>0.1709606481481481</v>
       </c>
       <c r="E190" t="s">
@@ -5073,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -5083,8 +5148,8 @@
       <c r="C191" s="1">
         <v>45006</v>
       </c>
-      <c r="D191">
-        <v>0.6904282407407408</v>
+      <c r="D191" s="2">
+        <v>0.69042824074074083</v>
       </c>
       <c r="E191" t="s">
         <v>284</v>
@@ -5093,7 +5158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -5103,7 +5168,7 @@
       <c r="C192" s="1">
         <v>45034</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="2">
         <v>0.1333333333333333</v>
       </c>
       <c r="E192" t="s">
@@ -5113,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A193" t="s">
         <v>39</v>
       </c>
@@ -5123,7 +5188,7 @@
       <c r="C193" s="1">
         <v>45061</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="2">
         <v>0.4661689814814815</v>
       </c>
       <c r="E193" t="s">
@@ -5133,7 +5198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -5143,8 +5208,8 @@
       <c r="C194" s="1">
         <v>45088</v>
       </c>
-      <c r="D194">
-        <v>0.7239814814814816</v>
+      <c r="D194" s="2">
+        <v>0.72398148148148156</v>
       </c>
       <c r="E194" t="s">
         <v>286</v>
@@ -5153,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A195" t="s">
         <v>39</v>
       </c>
@@ -5163,8 +5228,8 @@
       <c r="C195" s="1">
         <v>45115</v>
       </c>
-      <c r="D195">
-        <v>0.9812152777777778</v>
+      <c r="D195" s="2">
+        <v>0.98121527777777784</v>
       </c>
       <c r="E195" t="s">
         <v>287</v>
@@ -5173,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -5183,8 +5248,8 @@
       <c r="C196" s="1">
         <v>45143</v>
       </c>
-      <c r="D196">
-        <v>0.2982986111111111</v>
+      <c r="D196" s="2">
+        <v>0.29829861111111111</v>
       </c>
       <c r="E196" t="s">
         <v>288</v>
@@ -5193,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -5203,8 +5268,8 @@
       <c r="C197" s="1">
         <v>45170</v>
       </c>
-      <c r="D197">
-        <v>0.6822800925925926</v>
+      <c r="D197" s="2">
+        <v>0.68228009259259259</v>
       </c>
       <c r="E197" t="s">
         <v>289</v>
@@ -5213,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -5223,8 +5288,8 @@
       <c r="C198" s="1">
         <v>45198</v>
       </c>
-      <c r="D198">
-        <v>0.08582175925925926</v>
+      <c r="D198" s="2">
+        <v>8.5821759259259264E-2</v>
       </c>
       <c r="E198" t="s">
         <v>290</v>
@@ -5233,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -5243,8 +5308,8 @@
       <c r="C199" s="1">
         <v>45225</v>
       </c>
-      <c r="D199">
-        <v>0.4393402777777778</v>
+      <c r="D199" s="2">
+        <v>0.43934027777777779</v>
       </c>
       <c r="E199" t="s">
         <v>291</v>
@@ -5253,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A200" t="s">
         <v>39</v>
       </c>
@@ -5263,8 +5328,8 @@
       <c r="C200" s="1">
         <v>45252</v>
       </c>
-      <c r="D200">
-        <v>0.7052314814814816</v>
+      <c r="D200" s="2">
+        <v>0.70523148148148163</v>
       </c>
       <c r="E200" t="s">
         <v>292</v>
@@ -5273,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A201" t="s">
         <v>39</v>
       </c>
@@ -5283,8 +5348,8 @@
       <c r="C201" s="1">
         <v>45279</v>
       </c>
-      <c r="D201">
-        <v>0.9280208333333332</v>
+      <c r="D201" s="2">
+        <v>0.92802083333333318</v>
       </c>
       <c r="E201" t="s">
         <v>293</v>
@@ -5293,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -5303,8 +5368,8 @@
       <c r="C202" s="1">
         <v>45151</v>
       </c>
-      <c r="D202">
-        <v>0.6279513888888889</v>
+      <c r="D202" s="2">
+        <v>0.62795138888888891</v>
       </c>
       <c r="E202" t="s">
         <v>294</v>
@@ -5313,7 +5378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -5323,8 +5388,8 @@
       <c r="C203" s="1">
         <v>45228</v>
       </c>
-      <c r="D203">
-        <v>0.8909490740740741</v>
+      <c r="D203" s="2">
+        <v>0.89094907407407409</v>
       </c>
       <c r="E203" t="s">
         <v>295</v>
@@ -5333,7 +5398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -5343,8 +5408,8 @@
       <c r="C204" s="1">
         <v>45288</v>
       </c>
-      <c r="D204">
-        <v>0.2420601851851852</v>
+      <c r="D204" s="2">
+        <v>0.24206018518518521</v>
       </c>
       <c r="E204" t="s">
         <v>296</v>
@@ -5353,7 +5418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -5363,8 +5428,8 @@
       <c r="C205" s="1">
         <v>45013</v>
       </c>
-      <c r="D205">
-        <v>0.5369444444444444</v>
+      <c r="D205" s="2">
+        <v>0.53694444444444445</v>
       </c>
       <c r="E205" t="s">
         <v>297</v>
@@ -5373,7 +5438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -5383,8 +5448,8 @@
       <c r="C206" s="1">
         <v>44987</v>
       </c>
-      <c r="D206">
-        <v>0.9366898148148147</v>
+      <c r="D206" s="2">
+        <v>0.93668981481481473</v>
       </c>
       <c r="E206" t="s">
         <v>298</v>
@@ -5393,7 +5458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -5403,8 +5468,8 @@
       <c r="C207" s="1">
         <v>45038</v>
       </c>
-      <c r="D207">
-        <v>0.6122916666666667</v>
+      <c r="D207" s="2">
+        <v>0.61229166666666668</v>
       </c>
       <c r="E207" t="s">
         <v>299</v>
@@ -5413,7 +5478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A208" t="s">
         <v>43</v>
       </c>
@@ -5423,8 +5488,8 @@
       <c r="C208" s="1">
         <v>45082</v>
       </c>
-      <c r="D208">
-        <v>0.3521527777777778</v>
+      <c r="D208" s="2">
+        <v>0.35215277777777781</v>
       </c>
       <c r="E208" t="s">
         <v>300</v>
@@ -5433,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -5443,8 +5508,8 @@
       <c r="C209" s="1">
         <v>45002</v>
       </c>
-      <c r="D209">
-        <v>0.06116898148148148</v>
+      <c r="D209" s="2">
+        <v>6.1168981481481477E-2</v>
       </c>
       <c r="E209" t="s">
         <v>301</v>
@@ -5453,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A210" t="s">
         <v>45</v>
       </c>
@@ -5463,8 +5528,8 @@
       <c r="C210" s="1">
         <v>45108</v>
       </c>
-      <c r="D210">
-        <v>0.6318171296296297</v>
+      <c r="D210" s="2">
+        <v>0.63181712962962966</v>
       </c>
       <c r="E210" t="s">
         <v>302</v>
@@ -5473,7 +5538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A211" t="s">
         <v>46</v>
       </c>
@@ -5483,8 +5548,8 @@
       <c r="C211" s="1">
         <v>44987</v>
       </c>
-      <c r="D211">
-        <v>0.5453472222222223</v>
+      <c r="D211" s="2">
+        <v>0.54534722222222232</v>
       </c>
       <c r="E211" t="s">
         <v>303</v>
@@ -5493,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -5503,8 +5568,8 @@
       <c r="C212" s="1">
         <v>44949</v>
       </c>
-      <c r="D212">
-        <v>0.2597453703703704</v>
+      <c r="D212" s="2">
+        <v>0.25974537037037038</v>
       </c>
       <c r="E212" t="s">
         <v>304</v>
@@ -5513,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A213" t="s">
         <v>48</v>
       </c>
@@ -5523,7 +5588,7 @@
       <c r="C213" s="1">
         <v>45016</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="2">
         <v>0.2149537037037037</v>
       </c>
       <c r="E213" t="s">
@@ -5533,7 +5598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A214" t="s">
         <v>49</v>
       </c>
@@ -5543,8 +5608,8 @@
       <c r="C214" s="1">
         <v>44972</v>
       </c>
-      <c r="D214">
-        <v>0.8512037037037037</v>
+      <c r="D214" s="2">
+        <v>0.85120370370370368</v>
       </c>
       <c r="E214" t="s">
         <v>306</v>
@@ -5553,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A215" t="s">
         <v>50</v>
       </c>
@@ -5563,8 +5628,8 @@
       <c r="C215" s="1">
         <v>44941</v>
       </c>
-      <c r="D215">
-        <v>0.4277662037037037</v>
+      <c r="D215" s="2">
+        <v>0.42776620370370372</v>
       </c>
       <c r="E215" t="s">
         <v>307</v>
@@ -5573,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A216" t="s">
         <v>50</v>
       </c>
@@ -5583,8 +5648,8 @@
       <c r="C216" s="1">
         <v>44968</v>
       </c>
-      <c r="D216">
-        <v>0.6871180555555556</v>
+      <c r="D216" s="2">
+        <v>0.68711805555555561</v>
       </c>
       <c r="E216" t="s">
         <v>308</v>
@@ -5593,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A217" t="s">
         <v>50</v>
       </c>
@@ -5603,8 +5668,8 @@
       <c r="C217" s="1">
         <v>44995</v>
       </c>
-      <c r="D217">
-        <v>0.9184490740740742</v>
+      <c r="D217" s="2">
+        <v>0.91844907407407417</v>
       </c>
       <c r="E217" t="s">
         <v>309</v>
@@ -5613,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A218" t="s">
         <v>50</v>
       </c>
@@ -5623,7 +5688,7 @@
       <c r="C218" s="1">
         <v>45023</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="2">
         <v>0.1915625</v>
       </c>
       <c r="E218" t="s">
@@ -5633,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A219" t="s">
         <v>50</v>
       </c>
@@ -5643,8 +5708,8 @@
       <c r="C219" s="1">
         <v>45050</v>
       </c>
-      <c r="D219">
-        <v>0.5313078703703703</v>
+      <c r="D219" s="2">
+        <v>0.53130787037037031</v>
       </c>
       <c r="E219" t="s">
         <v>311</v>
@@ -5653,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A220" t="s">
         <v>50</v>
       </c>
@@ -5663,8 +5728,8 @@
       <c r="C220" s="1">
         <v>45077</v>
       </c>
-      <c r="D220">
-        <v>0.9124074074074073</v>
+      <c r="D220" s="2">
+        <v>0.91240740740740733</v>
       </c>
       <c r="E220" t="s">
         <v>312</v>
@@ -5673,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A221" t="s">
         <v>50</v>
       </c>
@@ -5683,7 +5748,7 @@
       <c r="C221" s="1">
         <v>45105</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="2">
         <v>0.2851157407407407</v>
       </c>
       <c r="E221" t="s">
@@ -5693,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A222" t="s">
         <v>50</v>
       </c>
@@ -5703,8 +5768,8 @@
       <c r="C222" s="1">
         <v>45132</v>
       </c>
-      <c r="D222">
-        <v>0.6066666666666667</v>
+      <c r="D222" s="2">
+        <v>0.60666666666666669</v>
       </c>
       <c r="E222" t="s">
         <v>314</v>
@@ -5713,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A223" t="s">
         <v>50</v>
       </c>
@@ -5723,8 +5788,8 @@
       <c r="C223" s="1">
         <v>45159</v>
       </c>
-      <c r="D223">
-        <v>0.8678009259259259</v>
+      <c r="D223" s="2">
+        <v>0.86780092592592595</v>
       </c>
       <c r="E223" t="s">
         <v>315</v>
@@ -5733,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A224" t="s">
         <v>50</v>
       </c>
@@ -5743,7 +5808,7 @@
       <c r="C224" s="1">
         <v>45187</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="2">
         <v>0.1012615740740741</v>
       </c>
       <c r="E224" t="s">
@@ -5753,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A225" t="s">
         <v>50</v>
       </c>
@@ -5763,8 +5828,8 @@
       <c r="C225" s="1">
         <v>45214</v>
       </c>
-      <c r="D225">
-        <v>0.3604166666666667</v>
+      <c r="D225" s="2">
+        <v>0.36041666666666672</v>
       </c>
       <c r="E225" t="s">
         <v>317</v>
@@ -5773,7 +5838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A226" t="s">
         <v>50</v>
       </c>
@@ -5783,8 +5848,8 @@
       <c r="C226" s="1">
         <v>45241</v>
       </c>
-      <c r="D226">
-        <v>0.6798263888888889</v>
+      <c r="D226" s="2">
+        <v>0.67982638888888891</v>
       </c>
       <c r="E226" t="s">
         <v>318</v>
@@ -5793,7 +5858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A227" t="s">
         <v>50</v>
       </c>
@@ -5803,8 +5868,8 @@
       <c r="C227" s="1">
         <v>45269</v>
       </c>
-      <c r="D227">
-        <v>0.04835648148148148</v>
+      <c r="D227" s="2">
+        <v>4.8356481481481479E-2</v>
       </c>
       <c r="E227" t="s">
         <v>319</v>
@@ -5813,7 +5878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -5823,8 +5888,8 @@
       <c r="C228" s="1">
         <v>44936</v>
       </c>
-      <c r="D228">
-        <v>0.9923611111111111</v>
+      <c r="D228" s="2">
+        <v>0.99236111111111114</v>
       </c>
       <c r="E228" t="s">
         <v>320</v>
@@ -5833,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A229" t="s">
         <v>51</v>
       </c>
@@ -5843,8 +5908,8 @@
       <c r="C229" s="1">
         <v>44964</v>
       </c>
-      <c r="D229">
-        <v>0.2427777777777778</v>
+      <c r="D229" s="2">
+        <v>0.24277777777777779</v>
       </c>
       <c r="E229" t="s">
         <v>321</v>
@@ -5853,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A230" t="s">
         <v>51</v>
       </c>
@@ -5863,8 +5928,8 @@
       <c r="C230" s="1">
         <v>44991</v>
       </c>
-      <c r="D230">
-        <v>0.511099537037037</v>
+      <c r="D230" s="2">
+        <v>0.51109953703703703</v>
       </c>
       <c r="E230" t="s">
         <v>322</v>
@@ -5873,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -5883,8 +5948,8 @@
       <c r="C231" s="1">
         <v>45018</v>
       </c>
-      <c r="D231">
-        <v>0.8169212962962963</v>
+      <c r="D231" s="2">
+        <v>0.81692129629629628</v>
       </c>
       <c r="E231" t="s">
         <v>323</v>
@@ -5893,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -5903,8 +5968,8 @@
       <c r="C232" s="1">
         <v>45046</v>
       </c>
-      <c r="D232">
-        <v>0.151875</v>
+      <c r="D232" s="2">
+        <v>0.15187500000000001</v>
       </c>
       <c r="E232" t="s">
         <v>324</v>
@@ -5913,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -5923,8 +5988,8 @@
       <c r="C233" s="1">
         <v>45073</v>
       </c>
-      <c r="D233">
-        <v>0.4891550925925925</v>
+      <c r="D233" s="2">
+        <v>0.48915509259259249</v>
       </c>
       <c r="E233" t="s">
         <v>325</v>
@@ -5933,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A234" t="s">
         <v>51</v>
       </c>
@@ -5943,8 +6008,8 @@
       <c r="C234" s="1">
         <v>45100</v>
       </c>
-      <c r="D234">
-        <v>0.8014236111111112</v>
+      <c r="D234" s="2">
+        <v>0.80142361111111116</v>
       </c>
       <c r="E234" t="s">
         <v>326</v>
@@ -5953,7 +6018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A235" t="s">
         <v>51</v>
       </c>
@@ -5963,8 +6028,8 @@
       <c r="C235" s="1">
         <v>45128</v>
       </c>
-      <c r="D235">
-        <v>0.07781249999999999</v>
+      <c r="D235" s="2">
+        <v>7.7812499999999993E-2</v>
       </c>
       <c r="E235" t="s">
         <v>327</v>
@@ -5973,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A236" t="s">
         <v>51</v>
       </c>
@@ -5983,8 +6048,8 @@
       <c r="C236" s="1">
         <v>45155</v>
       </c>
-      <c r="D236">
-        <v>0.3297685185185185</v>
+      <c r="D236" s="2">
+        <v>0.32976851851851852</v>
       </c>
       <c r="E236" t="s">
         <v>328</v>
@@ -5993,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A237" t="s">
         <v>51</v>
       </c>
@@ -6003,7 +6068,7 @@
       <c r="C237" s="1">
         <v>45182</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="2">
         <v>0.5836689814814815</v>
       </c>
       <c r="E237" t="s">
@@ -6013,7 +6078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A238" t="s">
         <v>51</v>
       </c>
@@ -6023,8 +6088,8 @@
       <c r="C238" s="1">
         <v>45209</v>
       </c>
-      <c r="D238">
-        <v>0.864988425925926</v>
+      <c r="D238" s="2">
+        <v>0.86498842592592595</v>
       </c>
       <c r="E238" t="s">
         <v>330</v>
@@ -6033,7 +6098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A239" t="s">
         <v>51</v>
       </c>
@@ -6043,8 +6108,8 @@
       <c r="C239" s="1">
         <v>45237</v>
       </c>
-      <c r="D239">
-        <v>0.1828009259259259</v>
+      <c r="D239" s="2">
+        <v>0.18280092592592589</v>
       </c>
       <c r="E239" t="s">
         <v>331</v>
@@ -6053,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A240" t="s">
         <v>51</v>
       </c>
@@ -6063,8 +6128,8 @@
       <c r="C240" s="1">
         <v>45264</v>
       </c>
-      <c r="D240">
-        <v>0.5235185185185186</v>
+      <c r="D240" s="2">
+        <v>0.52351851851851861</v>
       </c>
       <c r="E240" t="s">
         <v>332</v>
@@ -6073,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A241" t="s">
         <v>52</v>
       </c>
@@ -6083,8 +6148,8 @@
       <c r="C241" s="1">
         <v>44944</v>
       </c>
-      <c r="D241">
-        <v>0.7857638888888889</v>
+      <c r="D241" s="2">
+        <v>0.78576388888888893</v>
       </c>
       <c r="E241" t="s">
         <v>333</v>
@@ -6093,7 +6158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A242" t="s">
         <v>52</v>
       </c>
@@ -6103,8 +6168,8 @@
       <c r="C242" s="1">
         <v>44972</v>
       </c>
-      <c r="D242">
-        <v>0.1430092592592593</v>
+      <c r="D242" s="2">
+        <v>0.14300925925925931</v>
       </c>
       <c r="E242" t="s">
         <v>334</v>
@@ -6113,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A243" t="s">
         <v>52</v>
       </c>
@@ -6123,8 +6188,8 @@
       <c r="C243" s="1">
         <v>44999</v>
       </c>
-      <c r="D243">
-        <v>0.3988888888888888</v>
+      <c r="D243" s="2">
+        <v>0.39888888888888879</v>
       </c>
       <c r="E243" t="s">
         <v>335</v>
@@ -6133,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A244" t="s">
         <v>52</v>
       </c>
@@ -6143,8 +6208,8 @@
       <c r="C244" s="1">
         <v>45026</v>
       </c>
-      <c r="D244">
-        <v>0.6255555555555555</v>
+      <c r="D244" s="2">
+        <v>0.62555555555555553</v>
       </c>
       <c r="E244" t="s">
         <v>336</v>
@@ -6153,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A245" t="s">
         <v>52</v>
       </c>
@@ -6163,8 +6228,8 @@
       <c r="C245" s="1">
         <v>45053</v>
       </c>
-      <c r="D245">
-        <v>0.9059375</v>
+      <c r="D245" s="2">
+        <v>0.90593749999999995</v>
       </c>
       <c r="E245" t="s">
         <v>337</v>
@@ -6173,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A246" t="s">
         <v>52</v>
       </c>
@@ -6183,8 +6248,8 @@
       <c r="C246" s="1">
         <v>45081</v>
       </c>
-      <c r="D246">
-        <v>0.2692824074074074</v>
+      <c r="D246" s="2">
+        <v>0.26928240740740739</v>
       </c>
       <c r="E246" t="s">
         <v>338</v>
@@ -6193,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -6203,8 +6268,8 @@
       <c r="C247" s="1">
         <v>45108</v>
       </c>
-      <c r="D247">
-        <v>0.6856249999999999</v>
+      <c r="D247" s="2">
+        <v>0.68562499999999993</v>
       </c>
       <c r="E247" t="s">
         <v>339</v>
@@ -6213,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A248" t="s">
         <v>52</v>
       </c>
@@ -6223,8 +6288,8 @@
       <c r="C248" s="1">
         <v>45136</v>
       </c>
-      <c r="D248">
-        <v>0.0939699074074074</v>
+      <c r="D248" s="2">
+        <v>9.3969907407407405E-2</v>
       </c>
       <c r="E248" t="s">
         <v>340</v>
@@ -6233,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A249" t="s">
         <v>52</v>
       </c>
@@ -6243,8 +6308,8 @@
       <c r="C249" s="1">
         <v>45163</v>
       </c>
-      <c r="D249">
-        <v>0.4374537037037037</v>
+      <c r="D249" s="2">
+        <v>0.43745370370370368</v>
       </c>
       <c r="E249" t="s">
         <v>341</v>
@@ -6253,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A250" t="s">
         <v>52</v>
       </c>
@@ -6263,8 +6328,8 @@
       <c r="C250" s="1">
         <v>45190</v>
       </c>
-      <c r="D250">
-        <v>0.6997337962962963</v>
+      <c r="D250" s="2">
+        <v>0.69973379629629628</v>
       </c>
       <c r="E250" t="s">
         <v>342</v>
@@ -6273,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A251" t="s">
         <v>52</v>
       </c>
@@ -6283,8 +6348,8 @@
       <c r="C251" s="1">
         <v>45217</v>
       </c>
-      <c r="D251">
-        <v>0.925474537037037</v>
+      <c r="D251" s="2">
+        <v>0.92547453703703697</v>
       </c>
       <c r="E251" t="s">
         <v>343</v>
@@ -6293,7 +6358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A252" t="s">
         <v>52</v>
       </c>
@@ -6303,8 +6368,8 @@
       <c r="C252" s="1">
         <v>45245</v>
       </c>
-      <c r="D252">
-        <v>0.193125</v>
+      <c r="D252" s="2">
+        <v>0.19312499999999999</v>
       </c>
       <c r="E252" t="s">
         <v>344</v>
@@ -6313,7 +6378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A253" t="s">
         <v>52</v>
       </c>
@@ -6323,8 +6388,8 @@
       <c r="C253" s="1">
         <v>45272</v>
       </c>
-      <c r="D253">
-        <v>0.5496180555555555</v>
+      <c r="D253" s="2">
+        <v>0.54961805555555554</v>
       </c>
       <c r="E253" t="s">
         <v>345</v>
@@ -6333,7 +6398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A254" t="s">
         <v>53</v>
       </c>
@@ -6343,7 +6408,7 @@
       <c r="C254" s="1">
         <v>44930</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="2">
         <v>0.2260069444444445</v>
       </c>
       <c r="E254" t="s">
@@ -6353,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -6363,8 +6428,8 @@
       <c r="C255" s="1">
         <v>44957</v>
       </c>
-      <c r="D255">
-        <v>0.4688888888888889</v>
+      <c r="D255" s="2">
+        <v>0.46888888888888891</v>
       </c>
       <c r="E255" t="s">
         <v>347</v>
@@ -6373,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A256" t="s">
         <v>53</v>
       </c>
@@ -6383,8 +6448,8 @@
       <c r="C256" s="1">
         <v>44984</v>
       </c>
-      <c r="D256">
-        <v>0.7545601851851852</v>
+      <c r="D256" s="2">
+        <v>0.75456018518518519</v>
       </c>
       <c r="E256" t="s">
         <v>348</v>
@@ -6393,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A257" t="s">
         <v>53</v>
       </c>
@@ -6403,7 +6468,7 @@
       <c r="C257" s="1">
         <v>45012</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="2">
         <v>0.105625</v>
       </c>
       <c r="E257" t="s">
@@ -6413,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A258" t="s">
         <v>53</v>
       </c>
@@ -6423,8 +6488,8 @@
       <c r="C258" s="1">
         <v>45039</v>
       </c>
-      <c r="D258">
-        <v>0.4897800925925926</v>
+      <c r="D258" s="2">
+        <v>0.48978009259259259</v>
       </c>
       <c r="E258" t="s">
         <v>350</v>
@@ -6433,7 +6498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A259" t="s">
         <v>53</v>
       </c>
@@ -6443,8 +6508,8 @@
       <c r="C259" s="1">
         <v>45066</v>
       </c>
-      <c r="D259">
-        <v>0.8510763888888889</v>
+      <c r="D259" s="2">
+        <v>0.85107638888888892</v>
       </c>
       <c r="E259" t="s">
         <v>351</v>
@@ -6453,7 +6518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A260" t="s">
         <v>53</v>
       </c>
@@ -6463,8 +6528,8 @@
       <c r="C260" s="1">
         <v>45094</v>
       </c>
-      <c r="D260">
-        <v>0.1525578703703704</v>
+      <c r="D260" s="2">
+        <v>0.15255787037037041</v>
       </c>
       <c r="E260" t="s">
         <v>352</v>
@@ -6473,7 +6538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -6483,8 +6548,8 @@
       <c r="C261" s="1">
         <v>45121</v>
       </c>
-      <c r="D261">
-        <v>0.3984606481481481</v>
+      <c r="D261" s="2">
+        <v>0.39846064814814808</v>
       </c>
       <c r="E261" t="s">
         <v>353</v>
@@ -6493,7 +6558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A262" t="s">
         <v>53</v>
       </c>
@@ -6503,8 +6568,8 @@
       <c r="C262" s="1">
         <v>45148</v>
       </c>
-      <c r="D262">
-        <v>0.6315740740740741</v>
+      <c r="D262" s="2">
+        <v>0.63157407407407407</v>
       </c>
       <c r="E262" t="s">
         <v>354</v>
@@ -6513,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A263" t="s">
         <v>53</v>
       </c>
@@ -6523,8 +6588,8 @@
       <c r="C263" s="1">
         <v>45175</v>
       </c>
-      <c r="D263">
-        <v>0.9081828703703705</v>
+      <c r="D263" s="2">
+        <v>0.90818287037037049</v>
       </c>
       <c r="E263" t="s">
         <v>355</v>
@@ -6533,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A264" t="s">
         <v>53</v>
       </c>
@@ -6543,8 +6608,8 @@
       <c r="C264" s="1">
         <v>45203</v>
       </c>
-      <c r="D264">
-        <v>0.2599305555555556</v>
+      <c r="D264" s="2">
+        <v>0.25993055555555561</v>
       </c>
       <c r="E264" t="s">
         <v>356</v>
@@ -6553,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A265" t="s">
         <v>53</v>
       </c>
@@ -6563,8 +6628,8 @@
       <c r="C265" s="1">
         <v>45230</v>
       </c>
-      <c r="D265">
-        <v>0.6675462962962962</v>
+      <c r="D265" s="2">
+        <v>0.66754629629629625</v>
       </c>
       <c r="E265" t="s">
         <v>357</v>
@@ -6573,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A266" t="s">
         <v>53</v>
       </c>
@@ -6583,8 +6648,8 @@
       <c r="C266" s="1">
         <v>45258</v>
       </c>
-      <c r="D266">
-        <v>0.06888888888888889</v>
+      <c r="D266" s="2">
+        <v>6.8888888888888888E-2</v>
       </c>
       <c r="E266" t="s">
         <v>358</v>
@@ -6593,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A267" t="s">
         <v>53</v>
       </c>
@@ -6603,7 +6668,7 @@
       <c r="C267" s="1">
         <v>45285</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="2">
         <v>0.4007175925925926</v>
       </c>
       <c r="E267" t="s">
@@ -6613,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A268" t="s">
         <v>54</v>
       </c>
@@ -6623,8 +6688,8 @@
       <c r="C268" s="1">
         <v>44933</v>
       </c>
-      <c r="D268">
-        <v>0.9050578703703703</v>
+      <c r="D268" s="2">
+        <v>0.90505787037037033</v>
       </c>
       <c r="E268" t="s">
         <v>360</v>
@@ -6633,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A269" t="s">
         <v>54</v>
       </c>
@@ -6643,7 +6708,7 @@
       <c r="C269" s="1">
         <v>44961</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="2">
         <v>0.1595486111111111</v>
       </c>
       <c r="E269" t="s">
@@ -6653,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A270" t="s">
         <v>54</v>
       </c>
@@ -6663,8 +6728,8 @@
       <c r="C270" s="1">
         <v>44988</v>
       </c>
-      <c r="D270">
-        <v>0.4269212962962963</v>
+      <c r="D270" s="2">
+        <v>0.42692129629629633</v>
       </c>
       <c r="E270" t="s">
         <v>362</v>
@@ -6673,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A271" t="s">
         <v>54</v>
       </c>
@@ -6683,8 +6748,8 @@
       <c r="C271" s="1">
         <v>45015</v>
       </c>
-      <c r="D271">
-        <v>0.7299768518518518</v>
+      <c r="D271" s="2">
+        <v>0.72997685185185179</v>
       </c>
       <c r="E271" t="s">
         <v>363</v>
@@ -6693,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A272" t="s">
         <v>54</v>
       </c>
@@ -6703,8 +6768,8 @@
       <c r="C272" s="1">
         <v>45043</v>
       </c>
-      <c r="D272">
-        <v>0.0653125</v>
+      <c r="D272" s="2">
+        <v>6.5312499999999996E-2</v>
       </c>
       <c r="E272" t="s">
         <v>364</v>
@@ -6713,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A273" t="s">
         <v>54</v>
       </c>
@@ -6723,8 +6788,8 @@
       <c r="C273" s="1">
         <v>45070</v>
       </c>
-      <c r="D273">
-        <v>0.4051041666666667</v>
+      <c r="D273" s="2">
+        <v>0.40510416666666671</v>
       </c>
       <c r="E273" t="s">
         <v>365</v>
@@ -6733,7 +6798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A274" t="s">
         <v>54</v>
       </c>
@@ -6743,8 +6808,8 @@
       <c r="C274" s="1">
         <v>45097</v>
       </c>
-      <c r="D274">
-        <v>0.7180208333333332</v>
+      <c r="D274" s="2">
+        <v>0.71802083333333322</v>
       </c>
       <c r="E274" t="s">
         <v>366</v>
@@ -6753,7 +6818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A275" t="s">
         <v>54</v>
       </c>
@@ -6763,8 +6828,8 @@
       <c r="C275" s="1">
         <v>45124</v>
       </c>
-      <c r="D275">
-        <v>0.9906712962962962</v>
+      <c r="D275" s="2">
+        <v>0.99067129629629624</v>
       </c>
       <c r="E275" t="s">
         <v>367</v>
@@ -6773,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A276" t="s">
         <v>54</v>
       </c>
@@ -6783,7 +6848,7 @@
       <c r="C276" s="1">
         <v>45152</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="2">
         <v>0.2355902777777778</v>
       </c>
       <c r="E276" t="s">
@@ -6793,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A277" t="s">
         <v>54</v>
       </c>
@@ -6803,8 +6868,8 @@
       <c r="C277" s="1">
         <v>45179</v>
       </c>
-      <c r="D277">
-        <v>0.4847685185185185</v>
+      <c r="D277" s="2">
+        <v>0.48476851851851849</v>
       </c>
       <c r="E277" t="s">
         <v>369</v>
@@ -6813,7 +6878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A278" t="s">
         <v>54</v>
       </c>
@@ -6823,8 +6888,8 @@
       <c r="C278" s="1">
         <v>45206</v>
       </c>
-      <c r="D278">
-        <v>0.772048611111111</v>
+      <c r="D278" s="2">
+        <v>0.77204861111111101</v>
       </c>
       <c r="E278" t="s">
         <v>370</v>
@@ -6833,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A279" t="s">
         <v>54</v>
       </c>
@@ -6843,7 +6908,7 @@
       <c r="C279" s="1">
         <v>45234</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="2">
         <v>0.1104513888888889</v>
       </c>
       <c r="E279" t="s">
@@ -6853,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A280" t="s">
         <v>54</v>
       </c>
@@ -6863,8 +6928,8 @@
       <c r="C280" s="1">
         <v>45261</v>
       </c>
-      <c r="D280">
-        <v>0.4782407407407407</v>
+      <c r="D280" s="2">
+        <v>0.47824074074074069</v>
       </c>
       <c r="E280" t="s">
         <v>372</v>
@@ -6873,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A281" t="s">
         <v>54</v>
       </c>
@@ -6883,8 +6948,8 @@
       <c r="C281" s="1">
         <v>45288</v>
       </c>
-      <c r="D281">
-        <v>0.8291898148148147</v>
+      <c r="D281" s="2">
+        <v>0.82918981481481469</v>
       </c>
       <c r="E281" t="s">
         <v>373</v>
@@ -6893,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A282" t="s">
         <v>55</v>
       </c>
@@ -6903,14 +6968,14 @@
       <c r="C282" s="1">
         <v>44943</v>
       </c>
-      <c r="D282">
-        <v>0.2948842592592593</v>
+      <c r="D282" s="2">
+        <v>0.29488425925925932</v>
       </c>
       <c r="F282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A283" t="s">
         <v>56</v>
       </c>
@@ -6920,14 +6985,14 @@
       <c r="C283" s="1">
         <v>45111</v>
       </c>
-      <c r="D283">
-        <v>0.7992939814814816</v>
+      <c r="D283" s="2">
+        <v>0.79929398148148156</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A284" t="s">
         <v>57</v>
       </c>
@@ -6937,14 +7002,14 @@
       <c r="C284" s="1">
         <v>45085</v>
       </c>
-      <c r="D284">
-        <v>0.2352314814814815</v>
+      <c r="D284" s="2">
+        <v>0.23523148148148151</v>
       </c>
       <c r="F284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A285" t="s">
         <v>58</v>
       </c>
@@ -6954,14 +7019,14 @@
       <c r="C285" s="1">
         <v>45290</v>
       </c>
-      <c r="D285">
-        <v>0.7425810185185185</v>
+      <c r="D285" s="2">
+        <v>0.74258101851851854</v>
       </c>
       <c r="F285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A286" t="s">
         <v>59</v>
       </c>
@@ -6978,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A287" t="s">
         <v>60</v>
       </c>
@@ -6995,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A288" t="s">
         <v>61</v>
       </c>
@@ -7012,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A289" t="s">
         <v>62</v>
       </c>
@@ -7022,14 +7087,14 @@
       <c r="C289" s="1">
         <v>44946</v>
       </c>
-      <c r="D289">
-        <v>0.6591435185185185</v>
+      <c r="D289" s="2">
+        <v>0.65914351851851849</v>
       </c>
       <c r="F289">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A290" t="s">
         <v>62</v>
       </c>
@@ -7039,14 +7104,14 @@
       <c r="C290" s="1">
         <v>44976</v>
       </c>
-      <c r="D290">
-        <v>0.2024884259259259</v>
+      <c r="D290" s="2">
+        <v>0.20248842592592589</v>
       </c>
       <c r="F290">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A291" t="s">
         <v>62</v>
       </c>
@@ -7056,14 +7121,14 @@
       <c r="C291" s="1">
         <v>45007</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="2">
         <v>0.3403356481481481</v>
       </c>
       <c r="F291">
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A292" t="s">
         <v>62</v>
       </c>
@@ -7073,14 +7138,14 @@
       <c r="C292" s="1">
         <v>45037</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="2">
         <v>0.6287962962962963</v>
       </c>
       <c r="F292">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A293" t="s">
         <v>62</v>
       </c>
@@ -7090,14 +7155,14 @@
       <c r="C293" s="1">
         <v>45064</v>
       </c>
-      <c r="D293">
-        <v>0.3994212962962964</v>
+      <c r="D293" s="2">
+        <v>0.39942129629629641</v>
       </c>
       <c r="F293">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A294" t="s">
         <v>62</v>
       </c>
@@ -7107,14 +7172,14 @@
       <c r="C294" s="1">
         <v>45094</v>
       </c>
-      <c r="D294">
-        <v>0.1931944444444444</v>
+      <c r="D294" s="2">
+        <v>0.19319444444444439</v>
       </c>
       <c r="F294">
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A295" t="s">
         <v>62</v>
       </c>
@@ -7124,14 +7189,14 @@
       <c r="C295" s="1">
         <v>45126</v>
       </c>
-      <c r="D295">
-        <v>0.7052777777777779</v>
+      <c r="D295" s="2">
+        <v>0.70527777777777789</v>
       </c>
       <c r="F295">
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -7141,14 +7206,14 @@
       <c r="C296" s="1">
         <v>45156</v>
       </c>
-      <c r="D296">
-        <v>0.809675925925926</v>
+      <c r="D296" s="2">
+        <v>0.80967592592592597</v>
       </c>
       <c r="F296">
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A297" t="s">
         <v>62</v>
       </c>
@@ -7158,14 +7223,14 @@
       <c r="C297" s="1">
         <v>45183</v>
       </c>
-      <c r="D297">
-        <v>0.06949074074074073</v>
+      <c r="D297" s="2">
+        <v>6.9490740740740728E-2</v>
       </c>
       <c r="F297">
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A298" t="s">
         <v>62</v>
       </c>
@@ -7175,14 +7240,14 @@
       <c r="C298" s="1">
         <v>45213</v>
       </c>
-      <c r="D298">
-        <v>0.7311574074074074</v>
+      <c r="D298" s="2">
+        <v>0.73115740740740742</v>
       </c>
       <c r="F298">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A299" t="s">
         <v>62</v>
       </c>
@@ -7192,14 +7257,14 @@
       <c r="C299" s="1">
         <v>45244</v>
       </c>
-      <c r="D299">
-        <v>0.9435416666666666</v>
+      <c r="D299" s="2">
+        <v>0.94354166666666661</v>
       </c>
       <c r="F299">
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A300" t="s">
         <v>62</v>
       </c>
@@ -7209,14 +7274,14 @@
       <c r="C300" s="1">
         <v>45274</v>
       </c>
-      <c r="D300">
-        <v>0.5547685185185186</v>
+      <c r="D300" s="2">
+        <v>0.55476851851851861</v>
       </c>
       <c r="F300">
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A301" t="s">
         <v>63</v>
       </c>
@@ -7226,14 +7291,14 @@
       <c r="C301" s="1">
         <v>44949</v>
       </c>
-      <c r="D301">
-        <v>0.6792245370370371</v>
+      <c r="D301" s="2">
+        <v>0.67922453703703711</v>
       </c>
       <c r="F301">
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A302" t="s">
         <v>63</v>
       </c>
@@ -7243,14 +7308,14 @@
       <c r="C302" s="1">
         <v>44979</v>
       </c>
-      <c r="D302">
-        <v>0.6635069444444445</v>
+      <c r="D302" s="2">
+        <v>0.66350694444444447</v>
       </c>
       <c r="F302">
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A303" t="s">
         <v>63</v>
       </c>
@@ -7260,14 +7325,14 @@
       <c r="C303" s="1">
         <v>45009</v>
       </c>
-      <c r="D303">
-        <v>0.7685648148148148</v>
+      <c r="D303" s="2">
+        <v>0.76856481481481476</v>
       </c>
       <c r="F303">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A304" t="s">
         <v>63</v>
       </c>
@@ -7277,14 +7342,14 @@
       <c r="C304" s="1">
         <v>45039</v>
       </c>
-      <c r="D304">
-        <v>0.876851851851852</v>
+      <c r="D304" s="2">
+        <v>0.87685185185185199</v>
       </c>
       <c r="F304">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A305" t="s">
         <v>63</v>
       </c>
@@ -7294,14 +7359,14 @@
       <c r="C305" s="1">
         <v>45069</v>
       </c>
-      <c r="D305">
-        <v>0.8390740740740741</v>
+      <c r="D305" s="2">
+        <v>0.83907407407407408</v>
       </c>
       <c r="F305">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A306" t="s">
         <v>63</v>
       </c>
@@ -7311,14 +7376,14 @@
       <c r="C306" s="1">
         <v>45099</v>
       </c>
-      <c r="D306">
-        <v>0.3664699074074074</v>
+      <c r="D306" s="2">
+        <v>0.36646990740740742</v>
       </c>
       <c r="F306">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A307" t="s">
         <v>63</v>
       </c>
@@ -7328,14 +7393,14 @@
       <c r="C307" s="1">
         <v>45127</v>
       </c>
-      <c r="D307">
-        <v>0.6924652777777779</v>
+      <c r="D307" s="2">
+        <v>0.69246527777777789</v>
       </c>
       <c r="F307">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A308" t="s">
         <v>63</v>
       </c>
@@ -7345,14 +7410,14 @@
       <c r="C308" s="1">
         <v>45154</v>
       </c>
-      <c r="D308">
-        <v>0.04180555555555556</v>
+      <c r="D308" s="2">
+        <v>4.1805555555555561E-2</v>
       </c>
       <c r="F308">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A309" t="s">
         <v>63</v>
       </c>
@@ -7362,14 +7427,14 @@
       <c r="C309" s="1">
         <v>45180</v>
       </c>
-      <c r="D309">
-        <v>0.8745023148148149</v>
+      <c r="D309" s="2">
+        <v>0.87450231481481489</v>
       </c>
       <c r="F309">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A310" t="s">
         <v>63</v>
       </c>
@@ -7379,14 +7444,14 @@
       <c r="C310" s="1">
         <v>45209</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="2">
         <v>0.7391550925925926</v>
       </c>
       <c r="F310">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A311" t="s">
         <v>63</v>
       </c>
@@ -7396,14 +7461,14 @@
       <c r="C311" s="1">
         <v>45239</v>
       </c>
-      <c r="D311">
-        <v>0.7291087962962964</v>
+      <c r="D311" s="2">
+        <v>0.72910879629629644</v>
       </c>
       <c r="F311">
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A312" t="s">
         <v>63</v>
       </c>
@@ -7413,14 +7478,14 @@
       <c r="C312" s="1">
         <v>45270</v>
       </c>
-      <c r="D312">
-        <v>0.03703703703703703</v>
+      <c r="D312" s="2">
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="F312">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A313" t="s">
         <v>64</v>
       </c>
@@ -7430,14 +7495,14 @@
       <c r="C313" s="1">
         <v>44930</v>
       </c>
-      <c r="D313">
-        <v>0.1508564814814815</v>
+      <c r="D313" s="2">
+        <v>0.15085648148148151</v>
       </c>
       <c r="F313">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A314" t="s">
         <v>64</v>
       </c>
@@ -7447,14 +7512,14 @@
       <c r="C314" s="1">
         <v>44957</v>
       </c>
-      <c r="D314">
-        <v>0.5173032407407407</v>
+      <c r="D314" s="2">
+        <v>0.51730324074074074</v>
       </c>
       <c r="F314">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A315" t="s">
         <v>64</v>
       </c>
@@ -7464,14 +7529,14 @@
       <c r="C315" s="1">
         <v>44985</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="2">
         <v>0.5220717592592593</v>
       </c>
       <c r="F315">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A316" t="s">
         <v>64</v>
       </c>
@@ -7481,14 +7546,14 @@
       <c r="C316" s="1">
         <v>45013</v>
       </c>
-      <c r="D316">
-        <v>0.886087962962963</v>
+      <c r="D316" s="2">
+        <v>0.88608796296296299</v>
       </c>
       <c r="F316">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A317" t="s">
         <v>64</v>
       </c>
@@ -7498,14 +7563,14 @@
       <c r="C317" s="1">
         <v>45042</v>
       </c>
-      <c r="D317">
-        <v>0.4294560185185186</v>
+      <c r="D317" s="2">
+        <v>0.42945601851851861</v>
       </c>
       <c r="F317">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A318" t="s">
         <v>64</v>
       </c>
@@ -7515,14 +7580,14 @@
       <c r="C318" s="1">
         <v>45071</v>
       </c>
-      <c r="D318">
-        <v>0.06396990740740741</v>
+      <c r="D318" s="2">
+        <v>6.3969907407407406E-2</v>
       </c>
       <c r="F318">
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A319" t="s">
         <v>64</v>
       </c>
@@ -7532,14 +7597,14 @@
       <c r="C319" s="1">
         <v>45099</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="2">
         <v>0.7562268518518519</v>
       </c>
       <c r="F319">
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A320" t="s">
         <v>64</v>
       </c>
@@ -7549,14 +7614,14 @@
       <c r="C320" s="1">
         <v>45128</v>
       </c>
-      <c r="D320">
-        <v>0.5001041666666667</v>
+      <c r="D320" s="2">
+        <v>0.50010416666666668</v>
       </c>
       <c r="F320">
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A321" t="s">
         <v>64</v>
       </c>
@@ -7566,14 +7631,14 @@
       <c r="C321" s="1">
         <v>45157</v>
       </c>
-      <c r="D321">
-        <v>0.2963773148148148</v>
+      <c r="D321" s="2">
+        <v>0.29637731481481477</v>
       </c>
       <c r="F321">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -7583,14 +7648,14 @@
       <c r="C322" s="1">
         <v>45186</v>
       </c>
-      <c r="D322">
-        <v>0.1390509259259259</v>
+      <c r="D322" s="2">
+        <v>0.13905092592592591</v>
       </c>
       <c r="F322">
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A323" t="s">
         <v>64</v>
       </c>
@@ -7600,14 +7665,14 @@
       <c r="C323" s="1">
         <v>45215</v>
       </c>
-      <c r="D323">
-        <v>0.01190972222222222</v>
+      <c r="D323" s="2">
+        <v>1.1909722222222221E-2</v>
       </c>
       <c r="F323">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A324" t="s">
         <v>64</v>
       </c>
@@ -7617,14 +7682,14 @@
       <c r="C324" s="1">
         <v>45243</v>
       </c>
-      <c r="D324">
-        <v>0.8975578703703704</v>
+      <c r="D324" s="2">
+        <v>0.89755787037037038</v>
       </c>
       <c r="F324">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A325" t="s">
         <v>64</v>
       </c>
@@ -7634,14 +7699,14 @@
       <c r="C325" s="1">
         <v>45272</v>
       </c>
-      <c r="D325">
-        <v>0.7885300925925925</v>
+      <c r="D325" s="2">
+        <v>0.78853009259259255</v>
       </c>
       <c r="F325">
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A326" t="s">
         <v>65</v>
       </c>
@@ -7651,14 +7716,14 @@
       <c r="C326" s="1">
         <v>44952</v>
       </c>
-      <c r="D326">
-        <v>0.4187962962962963</v>
+      <c r="D326" s="2">
+        <v>0.41879629629629628</v>
       </c>
       <c r="F326">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A327" t="s">
         <v>65</v>
       </c>
@@ -7668,14 +7733,14 @@
       <c r="C327" s="1">
         <v>44980</v>
       </c>
-      <c r="D327">
-        <v>0.2502430555555555</v>
+      <c r="D327" s="2">
+        <v>0.25024305555555548</v>
       </c>
       <c r="F327">
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A328" t="s">
         <v>65</v>
       </c>
@@ -7685,14 +7750,14 @@
       <c r="C328" s="1">
         <v>45008</v>
       </c>
-      <c r="D328">
-        <v>0.1637731481481481</v>
+      <c r="D328" s="2">
+        <v>0.16377314814814811</v>
       </c>
       <c r="F328">
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A329" t="s">
         <v>65</v>
       </c>
@@ -7702,14 +7767,14 @@
       <c r="C329" s="1">
         <v>45036</v>
       </c>
-      <c r="D329">
-        <v>0.06347222222222222</v>
+      <c r="D329" s="2">
+        <v>6.3472222222222222E-2</v>
       </c>
       <c r="F329">
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A330" t="s">
         <v>65</v>
       </c>
@@ -7719,14 +7784,14 @@
       <c r="C330" s="1">
         <v>45063</v>
       </c>
-      <c r="D330">
-        <v>0.8871990740740742</v>
+      <c r="D330" s="2">
+        <v>0.88719907407407417</v>
       </c>
       <c r="F330">
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A331" t="s">
         <v>65</v>
       </c>
@@ -7736,14 +7801,14 @@
       <c r="C331" s="1">
         <v>45091</v>
       </c>
-      <c r="D331">
-        <v>0.6079513888888889</v>
+      <c r="D331" s="2">
+        <v>0.60795138888888889</v>
       </c>
       <c r="F331">
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A332" t="s">
         <v>65</v>
       </c>
@@ -7753,14 +7818,14 @@
       <c r="C332" s="1">
         <v>45119</v>
       </c>
-      <c r="D332">
-        <v>0.2229861111111111</v>
+      <c r="D332" s="2">
+        <v>0.22298611111111111</v>
       </c>
       <c r="F332">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -7770,14 +7835,14 @@
       <c r="C333" s="1">
         <v>45146</v>
       </c>
-      <c r="D333">
-        <v>0.738912037037037</v>
+      <c r="D333" s="2">
+        <v>0.73891203703703701</v>
       </c>
       <c r="F333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A334" t="s">
         <v>65</v>
       </c>
@@ -7787,14 +7852,14 @@
       <c r="C334" s="1">
         <v>45174</v>
       </c>
-      <c r="D334">
-        <v>0.1578240740740741</v>
+      <c r="D334" s="2">
+        <v>0.15782407407407409</v>
       </c>
       <c r="F334">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A335" t="s">
         <v>65</v>
       </c>
@@ -7804,14 +7869,14 @@
       <c r="C335" s="1">
         <v>45201</v>
       </c>
-      <c r="D335">
-        <v>0.4718981481481481</v>
+      <c r="D335" s="2">
+        <v>0.47189814814814812</v>
       </c>
       <c r="F335">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A336" t="s">
         <v>65</v>
       </c>
@@ -7821,14 +7886,14 @@
       <c r="C336" s="1">
         <v>45228</v>
       </c>
-      <c r="D336">
-        <v>0.6766782407407407</v>
+      <c r="D336" s="2">
+        <v>0.67667824074074068</v>
       </c>
       <c r="F336">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A337" t="s">
         <v>65</v>
       </c>
@@ -7838,14 +7903,14 @@
       <c r="C337" s="1">
         <v>45255</v>
       </c>
-      <c r="D337">
-        <v>0.801712962962963</v>
+      <c r="D337" s="2">
+        <v>0.80171296296296302</v>
       </c>
       <c r="F337">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A338" t="s">
         <v>65</v>
       </c>
@@ -7855,14 +7920,14 @@
       <c r="C338" s="1">
         <v>45282</v>
       </c>
-      <c r="D338">
-        <v>0.9336458333333333</v>
+      <c r="D338" s="2">
+        <v>0.93364583333333329</v>
       </c>
       <c r="F338">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A339" t="s">
         <v>66</v>
       </c>
@@ -7872,14 +7937,14 @@
       <c r="C339" s="1">
         <v>44949</v>
       </c>
-      <c r="D339">
-        <v>0.6397800925925926</v>
+      <c r="D339" s="2">
+        <v>0.63978009259259261</v>
       </c>
       <c r="F339">
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A340" t="s">
         <v>66</v>
       </c>
@@ -7889,14 +7954,14 @@
       <c r="C340" s="1">
         <v>44977</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="2">
         <v>0.3316898148148148</v>
       </c>
       <c r="F340">
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A341" t="s">
         <v>66</v>
       </c>
@@ -7906,14 +7971,14 @@
       <c r="C341" s="1">
         <v>45004</v>
       </c>
-      <c r="D341">
-        <v>0.9733564814814816</v>
+      <c r="D341" s="2">
+        <v>0.97335648148148157</v>
       </c>
       <c r="F341">
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A342" t="s">
         <v>66</v>
       </c>
@@ -7923,14 +7988,14 @@
       <c r="C342" s="1">
         <v>45032</v>
       </c>
-      <c r="D342">
-        <v>0.4922685185185185</v>
+      <c r="D342" s="2">
+        <v>0.49226851851851849</v>
       </c>
       <c r="F342">
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A343" t="s">
         <v>66</v>
       </c>
@@ -7940,14 +8005,14 @@
       <c r="C343" s="1">
         <v>45059</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="2">
         <v>0.8798032407407409</v>
       </c>
       <c r="F343">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A344" t="s">
         <v>66</v>
       </c>
@@ -7957,14 +8022,14 @@
       <c r="C344" s="1">
         <v>45087</v>
       </c>
-      <c r="D344">
-        <v>0.1825462962962963</v>
+      <c r="D344" s="2">
+        <v>0.18254629629629629</v>
       </c>
       <c r="F344">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A345" t="s">
         <v>66</v>
       </c>
@@ -7974,14 +8039,14 @@
       <c r="C345" s="1">
         <v>45114</v>
       </c>
-      <c r="D345">
-        <v>0.4650462962962963</v>
+      <c r="D345" s="2">
+        <v>0.46504629629629629</v>
       </c>
       <c r="F345">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A346" t="s">
         <v>66</v>
       </c>
@@ -7991,14 +8056,14 @@
       <c r="C346" s="1">
         <v>45141</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="2">
         <v>0.7678356481481482</v>
       </c>
       <c r="F346">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A347" t="s">
         <v>66</v>
       </c>
@@ -8008,14 +8073,14 @@
       <c r="C347" s="1">
         <v>45169</v>
       </c>
-      <c r="D347">
-        <v>0.08868055555555555</v>
+      <c r="D347" s="2">
+        <v>8.8680555555555554E-2</v>
       </c>
       <c r="F347">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A348" t="s">
         <v>66</v>
       </c>
@@ -8025,14 +8090,14 @@
       <c r="C348" s="1">
         <v>45196</v>
       </c>
-      <c r="D348">
-        <v>0.3954629629629629</v>
+      <c r="D348" s="2">
+        <v>0.39546296296296291</v>
       </c>
       <c r="F348">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A349" t="s">
         <v>66</v>
       </c>
@@ -8042,14 +8107,14 @@
       <c r="C349" s="1">
         <v>45223</v>
       </c>
-      <c r="D349">
-        <v>0.6637152777777777</v>
+      <c r="D349" s="2">
+        <v>0.66371527777777772</v>
       </c>
       <c r="F349">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A350" t="s">
         <v>66</v>
       </c>
@@ -8059,14 +8124,14 @@
       <c r="C350" s="1">
         <v>45250</v>
       </c>
-      <c r="D350">
-        <v>0.9207291666666667</v>
+      <c r="D350" s="2">
+        <v>0.92072916666666671</v>
       </c>
       <c r="F350">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A351" t="s">
         <v>66</v>
       </c>
@@ -8076,14 +8141,14 @@
       <c r="C351" s="1">
         <v>45278</v>
       </c>
-      <c r="D351">
-        <v>0.2508912037037037</v>
+      <c r="D351" s="2">
+        <v>0.25089120370370371</v>
       </c>
       <c r="F351">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A352" t="s">
         <v>67</v>
       </c>
@@ -8093,14 +8158,14 @@
       <c r="C352" s="1">
         <v>44928</v>
       </c>
-      <c r="D352">
-        <v>0.2612268518518518</v>
+      <c r="D352" s="2">
+        <v>0.26122685185185179</v>
       </c>
       <c r="F352">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A353" t="s">
         <v>67</v>
       </c>
@@ -8110,14 +8175,14 @@
       <c r="C353" s="1">
         <v>44955</v>
       </c>
-      <c r="D353">
-        <v>0.5059375</v>
+      <c r="D353" s="2">
+        <v>0.50593750000000004</v>
       </c>
       <c r="F353">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A354" t="s">
         <v>67</v>
       </c>
@@ -8127,14 +8192,14 @@
       <c r="C354" s="1">
         <v>44982</v>
       </c>
-      <c r="D354">
-        <v>0.8787847222222221</v>
+      <c r="D354" s="2">
+        <v>0.87878472222222215</v>
       </c>
       <c r="F354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A355" t="s">
         <v>67</v>
       </c>
@@ -8144,14 +8209,14 @@
       <c r="C355" s="1">
         <v>45010</v>
       </c>
-      <c r="D355">
-        <v>0.3605671296296296</v>
+      <c r="D355" s="2">
+        <v>0.36056712962962961</v>
       </c>
       <c r="F355">
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A356" t="s">
         <v>67</v>
       </c>
@@ -8161,14 +8226,14 @@
       <c r="C356" s="1">
         <v>45037</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="2">
         <v>0.8753009259259259</v>
       </c>
       <c r="F356">
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A357" t="s">
         <v>67</v>
       </c>
@@ -8178,14 +8243,14 @@
       <c r="C357" s="1">
         <v>45065</v>
       </c>
-      <c r="D357">
-        <v>0.3489467592592593</v>
+      <c r="D357" s="2">
+        <v>0.34894675925925928</v>
       </c>
       <c r="F357">
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A358" t="s">
         <v>67</v>
       </c>
@@ -8195,14 +8260,14 @@
       <c r="C358" s="1">
         <v>45092</v>
       </c>
-      <c r="D358">
-        <v>0.7456597222222222</v>
+      <c r="D358" s="2">
+        <v>0.74565972222222221</v>
       </c>
       <c r="F358">
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A359" t="s">
         <v>67</v>
       </c>
@@ -8212,14 +8277,14 @@
       <c r="C359" s="1">
         <v>45120</v>
       </c>
-      <c r="D359">
-        <v>0.07474537037037036</v>
+      <c r="D359" s="2">
+        <v>7.4745370370370365E-2</v>
       </c>
       <c r="F359">
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A360" t="s">
         <v>67</v>
       </c>
@@ -8229,14 +8294,14 @@
       <c r="C360" s="1">
         <v>45147</v>
       </c>
-      <c r="D360">
-        <v>0.3773611111111111</v>
+      <c r="D360" s="2">
+        <v>0.37736111111111109</v>
       </c>
       <c r="F360">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A361" t="s">
         <v>67</v>
       </c>
@@ -8246,14 +8311,14 @@
       <c r="C361" s="1">
         <v>45174</v>
       </c>
-      <c r="D361">
-        <v>0.698113425925926</v>
+      <c r="D361" s="2">
+        <v>0.69811342592592596</v>
       </c>
       <c r="F361">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A362" t="s">
         <v>67</v>
       </c>
@@ -8263,14 +8328,14 @@
       <c r="C362" s="1">
         <v>45202</v>
       </c>
-      <c r="D362">
-        <v>0.05240740740740741</v>
+      <c r="D362" s="2">
+        <v>5.2407407407407409E-2</v>
       </c>
       <c r="F362">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A363" t="s">
         <v>67</v>
       </c>
@@ -8280,14 +8345,14 @@
       <c r="C363" s="1">
         <v>45229</v>
       </c>
-      <c r="D363">
-        <v>0.4115162037037037</v>
+      <c r="D363" s="2">
+        <v>0.41151620370370368</v>
       </c>
       <c r="F363">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A364" t="s">
         <v>67</v>
       </c>
@@ -8297,14 +8362,14 @@
       <c r="C364" s="1">
         <v>45256</v>
       </c>
-      <c r="D364">
-        <v>0.7216666666666667</v>
+      <c r="D364" s="2">
+        <v>0.72166666666666668</v>
       </c>
       <c r="F364">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A365" t="s">
         <v>67</v>
       </c>
@@ -8314,14 +8379,14 @@
       <c r="C365" s="1">
         <v>45283</v>
       </c>
-      <c r="D365">
-        <v>0.9539004629629629</v>
+      <c r="D365" s="2">
+        <v>0.95390046296296294</v>
       </c>
       <c r="F365">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A366" t="s">
         <v>68</v>
       </c>
@@ -8331,14 +8396,14 @@
       <c r="C366" s="1">
         <v>44951</v>
       </c>
-      <c r="D366">
-        <v>0.5799884259259259</v>
+      <c r="D366" s="2">
+        <v>0.57998842592592592</v>
       </c>
       <c r="F366">
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A367" t="s">
         <v>68</v>
       </c>
@@ -8348,14 +8413,14 @@
       <c r="C367" s="1">
         <v>44979</v>
       </c>
-      <c r="D367">
-        <v>0.09434027777777777</v>
+      <c r="D367" s="2">
+        <v>9.4340277777777773E-2</v>
       </c>
       <c r="F367">
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A368" t="s">
         <v>68</v>
       </c>
@@ -8365,14 +8430,14 @@
       <c r="C368" s="1">
         <v>45006</v>
       </c>
-      <c r="D368">
-        <v>0.6160763888888888</v>
+      <c r="D368" s="2">
+        <v>0.61607638888888883</v>
       </c>
       <c r="F368">
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A369" t="s">
         <v>68</v>
       </c>
@@ -8382,14 +8447,14 @@
       <c r="C369" s="1">
         <v>45034</v>
       </c>
-      <c r="D369">
-        <v>0.05831018518518519</v>
+      <c r="D369" s="2">
+        <v>5.8310185185185187E-2</v>
       </c>
       <c r="F369">
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A370" t="s">
         <v>68</v>
       </c>
@@ -8399,14 +8464,14 @@
       <c r="C370" s="1">
         <v>45061</v>
       </c>
-      <c r="D370">
-        <v>0.3926041666666666</v>
+      <c r="D370" s="2">
+        <v>0.39260416666666659</v>
       </c>
       <c r="F370">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A371" t="s">
         <v>68</v>
       </c>
@@ -8416,14 +8481,14 @@
       <c r="C371" s="1">
         <v>45088</v>
       </c>
-      <c r="D371">
-        <v>0.6572106481481482</v>
+      <c r="D371" s="2">
+        <v>0.65721064814814822</v>
       </c>
       <c r="F371">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A372" t="s">
         <v>68</v>
       </c>
@@ -8433,14 +8498,14 @@
       <c r="C372" s="1">
         <v>45115</v>
       </c>
-      <c r="D372">
-        <v>0.9250115740740741</v>
+      <c r="D372" s="2">
+        <v>0.92501157407407408</v>
       </c>
       <c r="F372">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A373" t="s">
         <v>68</v>
       </c>
@@ -8450,14 +8515,14 @@
       <c r="C373" s="1">
         <v>45143</v>
       </c>
-      <c r="D373">
-        <v>0.251412037037037</v>
+      <c r="D373" s="2">
+        <v>0.25141203703703702</v>
       </c>
       <c r="F373">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A374" t="s">
         <v>68</v>
       </c>
@@ -8467,14 +8532,14 @@
       <c r="C374" s="1">
         <v>45170</v>
       </c>
-      <c r="D374">
-        <v>0.639375</v>
+      <c r="D374" s="2">
+        <v>0.63937500000000003</v>
       </c>
       <c r="F374">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A375" t="s">
         <v>68</v>
       </c>
@@ -8484,14 +8549,14 @@
       <c r="C375" s="1">
         <v>45198</v>
       </c>
-      <c r="D375">
-        <v>0.04119212962962963</v>
+      <c r="D375" s="2">
+        <v>4.1192129629629627E-2</v>
       </c>
       <c r="F375">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A376" t="s">
         <v>68</v>
       </c>
@@ -8501,14 +8566,14 @@
       <c r="C376" s="1">
         <v>45225</v>
       </c>
-      <c r="D376">
-        <v>0.3909027777777778</v>
+      <c r="D376" s="2">
+        <v>0.39090277777777782</v>
       </c>
       <c r="F376">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A377" t="s">
         <v>68</v>
       </c>
@@ -8518,14 +8583,14 @@
       <c r="C377" s="1">
         <v>45252</v>
       </c>
-      <c r="D377">
-        <v>0.6566087962962963</v>
+      <c r="D377" s="2">
+        <v>0.65660879629629632</v>
       </c>
       <c r="F377">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A378" t="s">
         <v>68</v>
       </c>
@@ -8535,14 +8600,14 @@
       <c r="C378" s="1">
         <v>45279</v>
       </c>
-      <c r="D378">
-        <v>0.8862152777777778</v>
+      <c r="D378" s="2">
+        <v>0.88621527777777775</v>
       </c>
       <c r="F378">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A379" t="s">
         <v>69</v>
       </c>
@@ -8552,14 +8617,14 @@
       <c r="C379" s="1">
         <v>45052</v>
       </c>
-      <c r="D379">
-        <v>0.05756944444444444</v>
+      <c r="D379" s="2">
+        <v>5.7569444444444437E-2</v>
       </c>
       <c r="F379" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A380" t="s">
         <v>70</v>
       </c>
@@ -8569,14 +8634,14 @@
       <c r="C380" s="1">
         <v>45228</v>
       </c>
-      <c r="D380">
-        <v>0.1764583333333334</v>
+      <c r="D380" s="2">
+        <v>0.17645833333333341</v>
       </c>
       <c r="F380" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A381" t="s">
         <v>71</v>
       </c>
@@ -8586,14 +8651,14 @@
       <c r="C381" s="1">
         <v>45133</v>
       </c>
-      <c r="D381">
-        <v>0.8609722222222221</v>
+      <c r="D381" s="2">
+        <v>0.86097222222222214</v>
       </c>
       <c r="F381" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A382" t="s">
         <v>72</v>
       </c>
@@ -8603,14 +8668,14 @@
       <c r="C382" s="1">
         <v>45229</v>
       </c>
-      <c r="D382">
-        <v>0.05428240740740741</v>
+      <c r="D382" s="2">
+        <v>5.4282407407407411E-2</v>
       </c>
       <c r="F382" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A383" t="s">
         <v>72</v>
       </c>
@@ -8620,14 +8685,14 @@
       <c r="C383" s="1">
         <v>45288</v>
       </c>
-      <c r="D383">
-        <v>0.4493171296296296</v>
+      <c r="D383" s="2">
+        <v>0.44931712962962961</v>
       </c>
       <c r="F383" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A384" t="s">
         <v>73</v>
       </c>
@@ -8637,14 +8702,14 @@
       <c r="C384" s="1">
         <v>45013</v>
       </c>
-      <c r="D384">
-        <v>0.9405671296296295</v>
+      <c r="D384" s="2">
+        <v>0.94056712962962952</v>
       </c>
       <c r="F384" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A385" t="s">
         <v>74</v>
       </c>
@@ -8654,14 +8719,14 @@
       <c r="C385" s="1">
         <v>44987</v>
       </c>
-      <c r="D385">
-        <v>0.7324189814814814</v>
+      <c r="D385" s="2">
+        <v>0.73241898148148143</v>
       </c>
       <c r="F385" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A386" t="s">
         <v>75</v>
       </c>
@@ -8671,14 +8736,14 @@
       <c r="C386" s="1">
         <v>45081</v>
       </c>
-      <c r="D386">
-        <v>0.5286921296296296</v>
+      <c r="D386" s="2">
+        <v>0.52869212962962964</v>
       </c>
       <c r="F386">
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A387" t="s">
         <v>76</v>
       </c>
@@ -8688,14 +8753,14 @@
       <c r="C387" s="1">
         <v>45001</v>
       </c>
-      <c r="D387">
-        <v>0.9631828703703705</v>
+      <c r="D387" s="2">
+        <v>0.96318287037037054</v>
       </c>
       <c r="F387">
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A388" t="s">
         <v>77</v>
       </c>
@@ -8705,14 +8770,14 @@
       <c r="C388" s="1">
         <v>44987</v>
       </c>
-      <c r="D388">
-        <v>0.7783101851851852</v>
+      <c r="D388" s="2">
+        <v>0.77831018518518524</v>
       </c>
       <c r="F388" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A389" t="s">
         <v>78</v>
       </c>
@@ -8722,14 +8787,14 @@
       <c r="C389" s="1">
         <v>44949</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="2">
         <v>0.1502546296296296</v>
       </c>
       <c r="F389" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A390" t="s">
         <v>79</v>
       </c>
@@ -8739,14 +8804,14 @@
       <c r="C390" s="1">
         <v>45016</v>
       </c>
-      <c r="D390">
-        <v>0.5908101851851851</v>
+      <c r="D390" s="2">
+        <v>0.59081018518518513</v>
       </c>
       <c r="F390">
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A391" t="s">
         <v>80</v>
       </c>
@@ -8756,14 +8821,14 @@
       <c r="C391" s="1">
         <v>44972</v>
       </c>
-      <c r="D391">
-        <v>0.8466319444444445</v>
+      <c r="D391" s="2">
+        <v>0.84663194444444445</v>
       </c>
       <c r="F391">
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A392" t="s">
         <v>81</v>
       </c>
@@ -8773,14 +8838,14 @@
       <c r="C392" s="1">
         <v>44941</v>
       </c>
-      <c r="D392">
-        <v>0.2755787037037037</v>
+      <c r="D392" s="2">
+        <v>0.27557870370370369</v>
       </c>
       <c r="F392">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A393" t="s">
         <v>81</v>
       </c>
@@ -8790,14 +8855,14 @@
       <c r="C393" s="1">
         <v>44968</v>
       </c>
-      <c r="D393">
-        <v>0.5428819444444445</v>
+      <c r="D393" s="2">
+        <v>0.54288194444444449</v>
       </c>
       <c r="F393">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A394" t="s">
         <v>81</v>
       </c>
@@ -8807,14 +8872,14 @@
       <c r="C394" s="1">
         <v>44995</v>
       </c>
-      <c r="D394">
-        <v>0.7812152777777778</v>
+      <c r="D394" s="2">
+        <v>0.78121527777777777</v>
       </c>
       <c r="F394">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A395" t="s">
         <v>81</v>
       </c>
@@ -8824,14 +8889,14 @@
       <c r="C395" s="1">
         <v>45023</v>
       </c>
-      <c r="D395">
-        <v>0.0575462962962963</v>
+      <c r="D395" s="2">
+        <v>5.7546296296296297E-2</v>
       </c>
       <c r="F395">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A396" t="s">
         <v>81</v>
       </c>
@@ -8841,14 +8906,14 @@
       <c r="C396" s="1">
         <v>45050</v>
       </c>
-      <c r="D396">
-        <v>0.3979861111111112</v>
+      <c r="D396" s="2">
+        <v>0.39798611111111121</v>
       </c>
       <c r="F396">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A397" t="s">
         <v>81</v>
       </c>
@@ -8858,14 +8923,14 @@
       <c r="C397" s="1">
         <v>45077</v>
       </c>
-      <c r="D397">
-        <v>0.780625</v>
+      <c r="D397" s="2">
+        <v>0.78062500000000001</v>
       </c>
       <c r="F397">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A398" t="s">
         <v>81</v>
       </c>
@@ -8875,14 +8940,14 @@
       <c r="C398" s="1">
         <v>45105</v>
       </c>
-      <c r="D398">
-        <v>0.157974537037037</v>
+      <c r="D398" s="2">
+        <v>0.15797453703703701</v>
       </c>
       <c r="F398">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A399" t="s">
         <v>81</v>
       </c>
@@ -8892,14 +8957,14 @@
       <c r="C399" s="1">
         <v>45132</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="2">
         <v>0.4869560185185185</v>
       </c>
       <c r="F399">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A400" t="s">
         <v>81</v>
       </c>
@@ -8909,14 +8974,14 @@
       <c r="C400" s="1">
         <v>45159</v>
       </c>
-      <c r="D400">
-        <v>0.7557523148148149</v>
+      <c r="D400" s="2">
+        <v>0.75575231481481486</v>
       </c>
       <c r="F400">
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A401" t="s">
         <v>81</v>
       </c>
@@ -8926,14 +8991,14 @@
       <c r="C401" s="1">
         <v>45186</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="2">
         <v>0.9940972222222223</v>
       </c>
       <c r="F401">
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A402" t="s">
         <v>81</v>
       </c>
@@ -8943,14 +9008,14 @@
       <c r="C402" s="1">
         <v>45214</v>
       </c>
-      <c r="D402">
-        <v>0.2547916666666666</v>
+      <c r="D402" s="2">
+        <v>0.25479166666666658</v>
       </c>
       <c r="F402">
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A403" t="s">
         <v>81</v>
       </c>
@@ -8960,14 +9025,14 @@
       <c r="C403" s="1">
         <v>45241</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="2">
         <v>0.5750925925925926</v>
       </c>
       <c r="F403">
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A404" t="s">
         <v>81</v>
       </c>
@@ -8977,14 +9042,14 @@
       <c r="C404" s="1">
         <v>45268</v>
       </c>
-      <c r="D404">
-        <v>0.9476273148148149</v>
+      <c r="D404" s="2">
+        <v>0.94762731481481488</v>
       </c>
       <c r="F404">
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A405" t="s">
         <v>82</v>
       </c>
@@ -8994,14 +9059,14 @@
       <c r="C405" s="1">
         <v>44936</v>
       </c>
-      <c r="D405">
-        <v>0.8450810185185186</v>
+      <c r="D405" s="2">
+        <v>0.84508101851851858</v>
       </c>
       <c r="F405">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A406" t="s">
         <v>82</v>
       </c>
@@ -9011,14 +9076,14 @@
       <c r="C406" s="1">
         <v>44964</v>
       </c>
-      <c r="D406">
-        <v>0.09880787037037037</v>
+      <c r="D406" s="2">
+        <v>9.8807870370370365E-2</v>
       </c>
       <c r="F406">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A407" t="s">
         <v>82</v>
       </c>
@@ -9028,14 +9093,14 @@
       <c r="C407" s="1">
         <v>44991</v>
       </c>
-      <c r="D407">
-        <v>0.3657407407407408</v>
+      <c r="D407" s="2">
+        <v>0.36574074074074081</v>
       </c>
       <c r="F407">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A408" t="s">
         <v>82</v>
       </c>
@@ -9045,14 +9110,14 @@
       <c r="C408" s="1">
         <v>45018</v>
       </c>
-      <c r="D408">
-        <v>0.6675</v>
+      <c r="D408" s="2">
+        <v>0.66749999999999998</v>
       </c>
       <c r="F408">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A409" t="s">
         <v>82</v>
       </c>
@@ -9062,14 +9127,14 @@
       <c r="C409" s="1">
         <v>45046</v>
       </c>
-      <c r="D409">
-        <v>0.0002083333333333333</v>
+      <c r="D409" s="2">
+        <v>2.0833333333333329E-4</v>
       </c>
       <c r="F409">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A410" t="s">
         <v>82</v>
       </c>
@@ -9079,14 +9144,14 @@
       <c r="C410" s="1">
         <v>45073</v>
       </c>
-      <c r="D410">
-        <v>0.3395833333333333</v>
+      <c r="D410" s="2">
+        <v>0.33958333333333329</v>
       </c>
       <c r="F410">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A411" t="s">
         <v>82</v>
       </c>
@@ -9096,14 +9161,14 @@
       <c r="C411" s="1">
         <v>45100</v>
       </c>
-      <c r="D411">
-        <v>0.6572569444444445</v>
+      <c r="D411" s="2">
+        <v>0.65725694444444449</v>
       </c>
       <c r="F411">
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A412" t="s">
         <v>82</v>
       </c>
@@ -9113,14 +9178,14 @@
       <c r="C412" s="1">
         <v>45127</v>
       </c>
-      <c r="D412">
-        <v>0.9387962962962962</v>
+      <c r="D412" s="2">
+        <v>0.93879629629629624</v>
       </c>
       <c r="F412">
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A413" t="s">
         <v>82</v>
       </c>
@@ -9130,14 +9195,14 @@
       <c r="C413" s="1">
         <v>45155</v>
       </c>
-      <c r="D413">
-        <v>0.1924537037037037</v>
+      <c r="D413" s="2">
+        <v>0.19245370370370371</v>
       </c>
       <c r="F413">
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A414" t="s">
         <v>82</v>
       </c>
@@ -9147,14 +9212,14 @@
       <c r="C414" s="1">
         <v>45182</v>
       </c>
-      <c r="D414">
-        <v>0.4441666666666667</v>
+      <c r="D414" s="2">
+        <v>0.44416666666666671</v>
       </c>
       <c r="F414">
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A415" t="s">
         <v>82</v>
       </c>
@@ -9164,14 +9229,14 @@
       <c r="C415" s="1">
         <v>45209</v>
       </c>
-      <c r="D415">
-        <v>0.722511574074074</v>
+      <c r="D415" s="2">
+        <v>0.72251157407407396</v>
       </c>
       <c r="F415">
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A416" t="s">
         <v>82</v>
       </c>
@@ -9181,14 +9246,14 @@
       <c r="C416" s="1">
         <v>45237</v>
       </c>
-      <c r="D416">
-        <v>0.04097222222222222</v>
+      <c r="D416" s="2">
+        <v>4.0972222222222222E-2</v>
       </c>
       <c r="F416">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A417" t="s">
         <v>82</v>
       </c>
@@ -9198,14 +9263,14 @@
       <c r="C417" s="1">
         <v>45264</v>
       </c>
-      <c r="D417">
-        <v>0.3877199074074074</v>
+      <c r="D417" s="2">
+        <v>0.38771990740740742</v>
       </c>
       <c r="F417">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A418" t="s">
         <v>83</v>
       </c>
@@ -9215,14 +9280,14 @@
       <c r="C418" s="1">
         <v>44944</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="2">
         <v>0.7528125</v>
       </c>
       <c r="F418">
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A419" t="s">
         <v>83</v>
       </c>
@@ -9232,14 +9297,14 @@
       <c r="C419" s="1">
         <v>44972</v>
       </c>
-      <c r="D419">
-        <v>0.1132175925925926</v>
+      <c r="D419" s="2">
+        <v>0.11321759259259261</v>
       </c>
       <c r="F419">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A420" t="s">
         <v>83</v>
       </c>
@@ -9249,14 +9314,14 @@
       <c r="C420" s="1">
         <v>44999</v>
       </c>
-      <c r="D420">
-        <v>0.3722916666666667</v>
+      <c r="D420" s="2">
+        <v>0.37229166666666669</v>
       </c>
       <c r="F420">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A421" t="s">
         <v>83</v>
       </c>
@@ -9266,14 +9331,14 @@
       <c r="C421" s="1">
         <v>45026</v>
       </c>
-      <c r="D421">
-        <v>0.6008680555555556</v>
+      <c r="D421" s="2">
+        <v>0.60086805555555556</v>
       </c>
       <c r="F421">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A422" t="s">
         <v>83</v>
       </c>
@@ -9283,14 +9348,14 @@
       <c r="C422" s="1">
         <v>45053</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="2">
         <v>0.8817476851851852</v>
       </c>
       <c r="F422">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A423" t="s">
         <v>83</v>
       </c>
@@ -9300,14 +9365,14 @@
       <c r="C423" s="1">
         <v>45081</v>
       </c>
-      <c r="D423">
-        <v>0.2453472222222222</v>
+      <c r="D423" s="2">
+        <v>0.24534722222222219</v>
       </c>
       <c r="F423">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A424" t="s">
         <v>83</v>
       </c>
@@ -9317,14 +9382,14 @@
       <c r="C424" s="1">
         <v>45108</v>
       </c>
-      <c r="D424">
-        <v>0.6629513888888889</v>
+      <c r="D424" s="2">
+        <v>0.66295138888888894</v>
       </c>
       <c r="F424">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A425" t="s">
         <v>83</v>
       </c>
@@ -9334,14 +9399,14 @@
       <c r="C425" s="1">
         <v>45136</v>
       </c>
-      <c r="D425">
-        <v>0.07385416666666667</v>
+      <c r="D425" s="2">
+        <v>7.3854166666666665E-2</v>
       </c>
       <c r="F425">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A426" t="s">
         <v>83</v>
       </c>
@@ -9351,14 +9416,14 @@
       <c r="C426" s="1">
         <v>45163</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="2">
         <v>0.4205208333333334</v>
       </c>
       <c r="F426">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A427" t="s">
         <v>83</v>
       </c>
@@ -9368,14 +9433,14 @@
       <c r="C427" s="1">
         <v>45190</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="2">
         <v>0.6852893518518518</v>
       </c>
       <c r="F427">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A428" t="s">
         <v>83</v>
       </c>
@@ -9385,14 +9450,14 @@
       <c r="C428" s="1">
         <v>45217</v>
       </c>
-      <c r="D428">
-        <v>0.9118402777777778</v>
+      <c r="D428" s="2">
+        <v>0.91184027777777776</v>
       </c>
       <c r="F428">
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A429" t="s">
         <v>83</v>
       </c>
@@ -9402,14 +9467,14 @@
       <c r="C429" s="1">
         <v>45245</v>
       </c>
-      <c r="D429">
-        <v>0.1791435185185185</v>
+      <c r="D429" s="2">
+        <v>0.17914351851851851</v>
       </c>
       <c r="F429">
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A430" t="s">
         <v>83</v>
       </c>
@@ -9419,14 +9484,14 @@
       <c r="C430" s="1">
         <v>45272</v>
       </c>
-      <c r="D430">
-        <v>0.5357986111111112</v>
+      <c r="D430" s="2">
+        <v>0.53579861111111116</v>
       </c>
       <c r="F430">
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A431" t="s">
         <v>84</v>
       </c>
@@ -9436,14 +9501,14 @@
       <c r="C431" s="1">
         <v>44930</v>
       </c>
-      <c r="D431">
-        <v>0.3701388888888889</v>
+      <c r="D431" s="2">
+        <v>0.37013888888888891</v>
       </c>
       <c r="F431">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A432" t="s">
         <v>84</v>
       </c>
@@ -9453,14 +9518,14 @@
       <c r="C432" s="1">
         <v>44957</v>
       </c>
-      <c r="D432">
-        <v>0.6148148148148148</v>
+      <c r="D432" s="2">
+        <v>0.61481481481481481</v>
       </c>
       <c r="F432">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A433" t="s">
         <v>84</v>
       </c>
@@ -9470,14 +9535,14 @@
       <c r="C433" s="1">
         <v>44984</v>
       </c>
-      <c r="D433">
-        <v>0.9020833333333332</v>
+      <c r="D433" s="2">
+        <v>0.90208333333333324</v>
       </c>
       <c r="F433">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A434" t="s">
         <v>84</v>
       </c>
@@ -9487,14 +9552,14 @@
       <c r="C434" s="1">
         <v>45012</v>
       </c>
-      <c r="D434">
-        <v>0.2533564814814815</v>
+      <c r="D434" s="2">
+        <v>0.25335648148148149</v>
       </c>
       <c r="F434">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A435" t="s">
         <v>84</v>
       </c>
@@ -9504,14 +9569,14 @@
       <c r="C435" s="1">
         <v>45039</v>
       </c>
-      <c r="D435">
-        <v>0.6364930555555556</v>
+      <c r="D435" s="2">
+        <v>0.63649305555555558</v>
       </c>
       <c r="F435">
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A436" t="s">
         <v>84</v>
       </c>
@@ -9521,14 +9586,14 @@
       <c r="C436" s="1">
         <v>45066</v>
       </c>
-      <c r="D436">
-        <v>0.9965972222222222</v>
+      <c r="D436" s="2">
+        <v>0.99659722222222225</v>
       </c>
       <c r="F436">
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A437" t="s">
         <v>84</v>
       </c>
@@ -9538,14 +9603,14 @@
       <c r="C437" s="1">
         <v>45094</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="2">
         <v>0.2978587962962963</v>
       </c>
       <c r="F437">
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A438" t="s">
         <v>84</v>
       </c>
@@ -9555,14 +9620,14 @@
       <c r="C438" s="1">
         <v>45121</v>
       </c>
-      <c r="D438">
-        <v>0.5448842592592592</v>
+      <c r="D438" s="2">
+        <v>0.54488425925925921</v>
       </c>
       <c r="F438">
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A439" t="s">
         <v>84</v>
       </c>
@@ -9572,14 +9637,14 @@
       <c r="C439" s="1">
         <v>45148</v>
       </c>
-      <c r="D439">
-        <v>0.7795486111111111</v>
+      <c r="D439" s="2">
+        <v>0.77954861111111107</v>
       </c>
       <c r="F439">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A440" t="s">
         <v>84</v>
       </c>
@@ -9589,14 +9654,14 @@
       <c r="C440" s="1">
         <v>45176</v>
       </c>
-      <c r="D440">
-        <v>0.05652777777777778</v>
+      <c r="D440" s="2">
+        <v>5.6527777777777781E-2</v>
       </c>
       <c r="F440">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A441" t="s">
         <v>84</v>
       </c>
@@ -9606,14 +9671,14 @@
       <c r="C441" s="1">
         <v>45203</v>
       </c>
-      <c r="D441">
-        <v>0.4066203703703704</v>
+      <c r="D441" s="2">
+        <v>0.40662037037037041</v>
       </c>
       <c r="F441">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A442" t="s">
         <v>84</v>
       </c>
@@ -9623,14 +9688,14 @@
       <c r="C442" s="1">
         <v>45230</v>
       </c>
-      <c r="D442">
-        <v>0.8112962962962963</v>
+      <c r="D442" s="2">
+        <v>0.81129629629629629</v>
       </c>
       <c r="F442">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A443" t="s">
         <v>84</v>
       </c>
@@ -9640,14 +9705,14 @@
       <c r="C443" s="1">
         <v>45258</v>
       </c>
-      <c r="D443">
-        <v>0.2103935185185185</v>
+      <c r="D443" s="2">
+        <v>0.21039351851851851</v>
       </c>
       <c r="F443">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A444" t="s">
         <v>84</v>
       </c>
@@ -9657,14 +9722,14 @@
       <c r="C444" s="1">
         <v>45285</v>
       </c>
-      <c r="D444">
-        <v>0.5424421296296297</v>
+      <c r="D444" s="2">
+        <v>0.54244212962962968</v>
       </c>
       <c r="F444">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A445" t="s">
         <v>85</v>
       </c>
@@ -9674,14 +9739,14 @@
       <c r="C445" s="1">
         <v>44933</v>
       </c>
-      <c r="D445">
-        <v>0.9297916666666667</v>
+      <c r="D445" s="2">
+        <v>0.92979166666666668</v>
       </c>
       <c r="F445">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A446" t="s">
         <v>85</v>
       </c>
@@ -9691,14 +9756,14 @@
       <c r="C446" s="1">
         <v>44961</v>
       </c>
-      <c r="D446">
-        <v>0.1846064814814815</v>
+      <c r="D446" s="2">
+        <v>0.18460648148148151</v>
       </c>
       <c r="F446">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A447" t="s">
         <v>85</v>
       </c>
@@ -9708,14 +9773,14 @@
       <c r="C447" s="1">
         <v>44988</v>
       </c>
-      <c r="D447">
-        <v>0.4504976851851852</v>
+      <c r="D447" s="2">
+        <v>0.45049768518518518</v>
       </c>
       <c r="F447">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A448" t="s">
         <v>85</v>
       </c>
@@ -9725,14 +9790,14 @@
       <c r="C448" s="1">
         <v>45015</v>
       </c>
-      <c r="D448">
-        <v>0.7514930555555557</v>
+      <c r="D448" s="2">
+        <v>0.75149305555555568</v>
       </c>
       <c r="F448">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A449" t="s">
         <v>85</v>
       </c>
@@ -9742,14 +9807,14 @@
       <c r="C449" s="1">
         <v>45043</v>
       </c>
-      <c r="D449">
-        <v>0.08594907407407408</v>
+      <c r="D449" s="2">
+        <v>8.5949074074074081E-2</v>
       </c>
       <c r="F449">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A450" t="s">
         <v>85</v>
       </c>
@@ -9759,14 +9824,14 @@
       <c r="C450" s="1">
         <v>45070</v>
       </c>
-      <c r="D450">
-        <v>0.4266319444444444</v>
+      <c r="D450" s="2">
+        <v>0.42663194444444441</v>
       </c>
       <c r="F450">
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A451" t="s">
         <v>85</v>
       </c>
@@ -9776,14 +9841,14 @@
       <c r="C451" s="1">
         <v>45097</v>
       </c>
-      <c r="D451">
-        <v>0.7414120370370371</v>
+      <c r="D451" s="2">
+        <v>0.74141203703703706</v>
       </c>
       <c r="F451">
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A452" t="s">
         <v>85</v>
       </c>
@@ -9793,14 +9858,14 @@
       <c r="C452" s="1">
         <v>45125</v>
       </c>
-      <c r="D452">
-        <v>0.01541666666666667</v>
+      <c r="D452" s="2">
+        <v>1.5416666666666671E-2</v>
       </c>
       <c r="F452">
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A453" t="s">
         <v>85</v>
       </c>
@@ -9810,14 +9875,14 @@
       <c r="C453" s="1">
         <v>45152</v>
       </c>
-      <c r="D453">
-        <v>0.2601041666666666</v>
+      <c r="D453" s="2">
+        <v>0.26010416666666658</v>
       </c>
       <c r="F453">
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A454" t="s">
         <v>85</v>
       </c>
@@ -9827,14 +9892,14 @@
       <c r="C454" s="1">
         <v>45179</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="2">
         <v>0.5075925925925926</v>
       </c>
       <c r="F454">
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A455" t="s">
         <v>85</v>
       </c>
@@ -9844,14 +9909,14 @@
       <c r="C455" s="1">
         <v>45206</v>
       </c>
-      <c r="D455">
-        <v>0.7931481481481483</v>
+      <c r="D455" s="2">
+        <v>0.79314814814814827</v>
       </c>
       <c r="F455">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A456" t="s">
         <v>85</v>
       </c>
@@ -9861,14 +9926,14 @@
       <c r="C456" s="1">
         <v>45234</v>
       </c>
-      <c r="D456">
-        <v>0.1314467592592592</v>
+      <c r="D456" s="2">
+        <v>0.13144675925925919</v>
       </c>
       <c r="F456">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A457" t="s">
         <v>85</v>
       </c>
@@ -9878,14 +9943,14 @@
       <c r="C457" s="1">
         <v>45261</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="2">
         <v>0.5009837962962963</v>
       </c>
       <c r="F457">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A458" t="s">
         <v>85</v>
       </c>
@@ -9895,14 +9960,15 @@
       <c r="C458" s="1">
         <v>45288</v>
       </c>
-      <c r="D458">
-        <v>0.8542476851851851</v>
+      <c r="D458" s="2">
+        <v>0.85424768518518512</v>
       </c>
       <c r="F458">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output2023.xlsx
+++ b/output2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="394">
   <si>
     <t>1. Chin. Title</t>
   </si>
@@ -202,6 +202,15 @@
     <t>雙子座流星雨 (ZHR=120 )</t>
   </si>
   <si>
+    <t>天琴座流星雨 (ZHR=18 )</t>
+  </si>
+  <si>
+    <t>獵戶座流星雨 (ZHR=15 )</t>
+  </si>
+  <si>
+    <t>獅子座流星雨 (ZHR=15 )</t>
+  </si>
+  <si>
     <t>水星合月（赤經）</t>
   </si>
   <si>
@@ -460,6 +469,15 @@
     <t>Geminids (ZHR=120 )</t>
   </si>
   <si>
+    <t>Lyrids (ZHR=18 )</t>
+  </si>
+  <si>
+    <t>Orionids (ZHR=15 )</t>
+  </si>
+  <si>
+    <t>Leonids (ZHR=15 )</t>
+  </si>
+  <si>
     <t>Mercury Moon Conjunction (right ascension)</t>
   </si>
   <si>
@@ -535,6 +553,24 @@
     <t>Date</t>
   </si>
   <si>
+    <t>04Jan2023</t>
+  </si>
+  <si>
+    <t>12Aug2023</t>
+  </si>
+  <si>
+    <t>11Dec2023</t>
+  </si>
+  <si>
+    <t>22Apr2023</t>
+  </si>
+  <si>
+    <t>22Oct2023</t>
+  </si>
+  <si>
+    <t>17Nov2023</t>
+  </si>
+  <si>
     <t>HKT</t>
   </si>
   <si>
@@ -568,82 +604,82 @@
     <t>21°</t>
   </si>
   <si>
-    <t>406447km</t>
-  </si>
-  <si>
-    <t>406486km</t>
-  </si>
-  <si>
-    <t>405915km</t>
-  </si>
-  <si>
-    <t>404954km</t>
-  </si>
-  <si>
-    <t>404338km</t>
-  </si>
-  <si>
-    <t>404546km</t>
-  </si>
-  <si>
-    <t>405415km</t>
-  </si>
-  <si>
-    <t>406307km</t>
+    <t>406458km</t>
+  </si>
+  <si>
+    <t>406476km</t>
+  </si>
+  <si>
+    <t>405888km</t>
+  </si>
+  <si>
+    <t>404918km</t>
+  </si>
+  <si>
+    <t>404299km</t>
+  </si>
+  <si>
+    <t>404508km</t>
+  </si>
+  <si>
+    <t>405385km</t>
+  </si>
+  <si>
+    <t>406288km</t>
   </si>
   <si>
     <t>406634km</t>
   </si>
   <si>
-    <t>406272km</t>
-  </si>
-  <si>
-    <t>405393km</t>
-  </si>
-  <si>
-    <t>404530km</t>
-  </si>
-  <si>
-    <t>404305km</t>
-  </si>
-  <si>
-    <t>356569km</t>
-  </si>
-  <si>
-    <t>358259km</t>
-  </si>
-  <si>
-    <t>362679km</t>
-  </si>
-  <si>
-    <t>367939km</t>
-  </si>
-  <si>
-    <t>369308km</t>
-  </si>
-  <si>
-    <t>364839km</t>
-  </si>
-  <si>
-    <t>360136km</t>
-  </si>
-  <si>
-    <t>357306km</t>
-  </si>
-  <si>
-    <t>357184km</t>
-  </si>
-  <si>
-    <t>359923km</t>
-  </si>
-  <si>
-    <t>364894km</t>
-  </si>
-  <si>
-    <t>369853km</t>
-  </si>
-  <si>
-    <t>367929km</t>
+    <t>406290km</t>
+  </si>
+  <si>
+    <t>405425km</t>
+  </si>
+  <si>
+    <t>404569km</t>
+  </si>
+  <si>
+    <t>404346km</t>
+  </si>
+  <si>
+    <t>356568km</t>
+  </si>
+  <si>
+    <t>358266km</t>
+  </si>
+  <si>
+    <t>362696km</t>
+  </si>
+  <si>
+    <t>367968km</t>
+  </si>
+  <si>
+    <t>369343km</t>
+  </si>
+  <si>
+    <t>364861km</t>
+  </si>
+  <si>
+    <t>360148km</t>
+  </si>
+  <si>
+    <t>357310km</t>
+  </si>
+  <si>
+    <t>357180km</t>
+  </si>
+  <si>
+    <t>359911km</t>
+  </si>
+  <si>
+    <t>364872km</t>
+  </si>
+  <si>
+    <t>369818km</t>
+  </si>
+  <si>
+    <t>367901km</t>
   </si>
   <si>
     <t>152093258km</t>
@@ -1495,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F461"/>
+  <dimension ref="A1:F464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1506,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1526,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1">
         <v>45006</v>
@@ -1543,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>45098</v>
@@ -1560,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>45192</v>
@@ -1577,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1">
         <v>45282</v>
@@ -1594,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1">
         <v>44933</v>
@@ -1611,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1">
         <v>44941</v>
@@ -1628,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1">
         <v>44948</v>
@@ -1645,7 +1681,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1">
         <v>44954</v>
@@ -1662,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1">
         <v>44963</v>
@@ -1679,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
         <v>44971</v>
@@ -1696,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1">
         <v>44977</v>
@@ -1713,7 +1749,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1">
         <v>44984</v>
@@ -1730,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1">
         <v>44992</v>
@@ -1747,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1">
         <v>45000</v>
@@ -1764,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1">
         <v>45007</v>
@@ -1781,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1">
         <v>45014</v>
@@ -1798,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1">
         <v>45022</v>
@@ -1815,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1">
         <v>45029</v>
@@ -1832,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1">
         <v>45036</v>
@@ -1849,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1">
         <v>45044</v>
@@ -1866,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C22" s="1">
         <v>45052</v>
@@ -1883,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1">
         <v>45058</v>
@@ -1900,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1">
         <v>45065</v>
@@ -1917,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1">
         <v>45073</v>
@@ -1934,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1">
         <v>45081</v>
@@ -1951,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>45088</v>
@@ -1968,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1">
         <v>45095</v>
@@ -1985,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1">
         <v>45103</v>
@@ -2002,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1">
         <v>45110</v>
@@ -2019,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1">
         <v>45117</v>
@@ -2036,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1">
         <v>45125</v>
@@ -2053,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1">
         <v>45133</v>
@@ -2070,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1">
         <v>45140</v>
@@ -2087,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1">
         <v>45146</v>
@@ -2104,7 +2140,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1">
         <v>45154</v>
@@ -2121,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1">
         <v>45162</v>
@@ -2138,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1">
         <v>45169</v>
@@ -2155,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1">
         <v>45176</v>
@@ -2172,7 +2208,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1">
         <v>45184</v>
@@ -2189,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1">
         <v>45192</v>
@@ -2206,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1">
         <v>45198</v>
@@ -2223,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1">
         <v>45205</v>
@@ -2240,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1">
         <v>45214</v>
@@ -2257,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1">
         <v>45221</v>
@@ -2274,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1">
         <v>45228</v>
@@ -2291,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1">
         <v>45235</v>
@@ -2308,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1">
         <v>45243</v>
@@ -2325,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1">
         <v>45250</v>
@@ -2342,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1">
         <v>45257</v>
@@ -2359,7 +2395,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C51" s="1">
         <v>45265</v>
@@ -2376,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1">
         <v>45273</v>
@@ -2393,7 +2429,7 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1">
         <v>45280</v>
@@ -2410,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C54" s="1">
         <v>45287</v>
@@ -2427,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1">
         <v>44963</v>
@@ -2436,7 +2472,7 @@
         <v>0.1031597222222222</v>
       </c>
       <c r="E55" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2447,7 +2483,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1">
         <v>45169</v>
@@ -2456,7 +2492,7 @@
         <v>0.3997337962962964</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2467,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1">
         <v>44933</v>
@@ -2484,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1">
         <v>45002</v>
@@ -2501,7 +2537,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C59" s="1">
         <v>45048</v>
@@ -2518,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C60" s="1">
         <v>45108</v>
@@ -2535,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1">
         <v>45175</v>
@@ -2552,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1">
         <v>45219</v>
@@ -2569,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1">
         <v>45283</v>
@@ -2586,7 +2622,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1">
         <v>45151</v>
@@ -2603,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1">
         <v>45248</v>
@@ -2620,7 +2656,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1">
         <v>45028</v>
@@ -2637,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1">
         <v>45233</v>
@@ -2654,7 +2690,7 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1">
         <v>44974</v>
@@ -2671,7 +2707,7 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1">
         <v>45165</v>
@@ -2688,7 +2724,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1">
         <v>45056</v>
@@ -2705,7 +2741,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1">
         <v>45244</v>
@@ -2722,7 +2758,7 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1">
         <v>45001</v>
@@ -2739,7 +2775,7 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1">
         <v>45188</v>
@@ -2756,7 +2792,7 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1">
         <v>44944</v>
@@ -2773,7 +2809,7 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1">
         <v>45129</v>
@@ -2790,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1">
         <v>45081</v>
@@ -2799,7 +2835,7 @@
         <v>0.7922222222222222</v>
       </c>
       <c r="E76" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2810,7 +2846,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1">
         <v>45223</v>
@@ -2819,7 +2855,7 @@
         <v>0.3017013888888889</v>
       </c>
       <c r="E77" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2830,7 +2866,7 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1">
         <v>44956</v>
@@ -2839,7 +2875,7 @@
         <v>0.5789699074074074</v>
       </c>
       <c r="E78" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2850,7 +2886,7 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1">
         <v>45028</v>
@@ -2859,7 +2895,7 @@
         <v>0.2572337962962963</v>
       </c>
       <c r="E79" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2870,7 +2906,7 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C80" s="1">
         <v>45075</v>
@@ -2879,7 +2915,7 @@
         <v>0.5652083333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2890,7 +2926,7 @@
         <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C81" s="1">
         <v>45148</v>
@@ -2899,7 +2935,7 @@
         <v>0.4073958333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2910,7 +2946,7 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C82" s="1">
         <v>45191</v>
@@ -2919,7 +2955,7 @@
         <v>0.8861226851851852</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2930,7 +2966,7 @@
         <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C83" s="1">
         <v>45264</v>
@@ -2939,7 +2975,7 @@
         <v>0.9364583333333333</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2950,16 +2986,16 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C84" s="1">
         <v>44934</v>
       </c>
       <c r="D84">
-        <v>0.7108796296296297</v>
+        <v>0.7217129629629629</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -2970,16 +3006,16 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C85" s="1">
         <v>44961</v>
       </c>
       <c r="D85">
-        <v>0.6938078703703704</v>
+        <v>0.7046180555555556</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -2990,16 +3026,16 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C86" s="1">
         <v>44989</v>
       </c>
       <c r="D86">
-        <v>0.07748842592592593</v>
+        <v>0.08355324074074073</v>
       </c>
       <c r="E86" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F86">
         <v>3</v>
@@ -3010,16 +3046,16 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C87" s="1">
         <v>45016</v>
       </c>
       <c r="D87">
-        <v>0.8007291666666666</v>
+        <v>0.803587962962963</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -3030,16 +3066,16 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C88" s="1">
         <v>45044</v>
       </c>
       <c r="D88">
-        <v>0.6127314814814815</v>
+        <v>0.6132291666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -3050,16 +3086,16 @@
         <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C89" s="1">
         <v>45072</v>
       </c>
       <c r="D89">
-        <v>0.4037615740740741</v>
+        <v>0.4020138888888889</v>
       </c>
       <c r="E89" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -3070,16 +3106,16 @@
         <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C90" s="1">
         <v>45100</v>
       </c>
       <c r="D90">
-        <v>0.1089236111111111</v>
+        <v>0.1044791666666667</v>
       </c>
       <c r="E90" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -3090,16 +3126,16 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C91" s="1">
         <v>45127</v>
       </c>
       <c r="D91">
-        <v>0.6308912037037037</v>
+        <v>0.6227662037037037</v>
       </c>
       <c r="E91" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F91">
         <v>3</v>
@@ -3110,16 +3146,16 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C92" s="1">
         <v>45154</v>
       </c>
       <c r="D92">
-        <v>0.8405208333333333</v>
+        <v>0.8293634259259259</v>
       </c>
       <c r="E92" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -3130,16 +3166,16 @@
         <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C93" s="1">
         <v>45181</v>
       </c>
       <c r="D93">
-        <v>0.9963773148148148</v>
+        <v>0.987962962962963</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -3150,16 +3186,16 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C94" s="1">
         <v>45209</v>
       </c>
       <c r="D94">
-        <v>0.4916087962962963</v>
+        <v>0.4871759259259259</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -3170,16 +3206,16 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C95" s="1">
         <v>45237</v>
       </c>
       <c r="D95">
-        <v>0.2439467592592592</v>
+        <v>0.2423032407407407</v>
       </c>
       <c r="E95" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F95">
         <v>3</v>
@@ -3190,16 +3226,16 @@
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C96" s="1">
         <v>45265</v>
       </c>
       <c r="D96">
-        <v>0.112025462962963</v>
+        <v>0.1125925925925926</v>
       </c>
       <c r="E96" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -3210,16 +3246,16 @@
         <v>30</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C97" s="1">
         <v>44948</v>
       </c>
       <c r="D97">
-        <v>0.2019212962962963</v>
+        <v>0.2063078703703704</v>
       </c>
       <c r="E97" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -3230,16 +3266,16 @@
         <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C98" s="1">
         <v>44976</v>
       </c>
       <c r="D98">
-        <v>0.7076967592592593</v>
+        <v>0.7122916666666667</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F98">
         <v>3</v>
@@ -3250,16 +3286,16 @@
         <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C99" s="1">
         <v>45004</v>
       </c>
       <c r="D99">
-        <v>0.9617708333333334</v>
+        <v>0.9670138888888888</v>
       </c>
       <c r="E99" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F99">
         <v>3</v>
@@ -3270,16 +3306,16 @@
         <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C100" s="1">
         <v>45032</v>
       </c>
       <c r="D100">
-        <v>0.4272222222222222</v>
+        <v>0.4332523148148148</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -3290,16 +3326,16 @@
         <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C101" s="1">
         <v>45057</v>
       </c>
       <c r="D101">
-        <v>0.5494791666666666</v>
+        <v>0.5452199074074074</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -3310,16 +3346,16 @@
         <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C102" s="1">
         <v>45084</v>
       </c>
       <c r="D102">
-        <v>0.3013310185185185</v>
+        <v>0.2958680555555556</v>
       </c>
       <c r="E102" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F102">
         <v>3</v>
@@ -3330,16 +3366,16 @@
         <v>30</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C103" s="1">
         <v>45112</v>
       </c>
       <c r="D103">
-        <v>0.2722569444444444</v>
+        <v>0.2674652777777778</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -3350,16 +3386,16 @@
         <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C104" s="1">
         <v>45140</v>
       </c>
       <c r="D104">
-        <v>0.5823032407407408</v>
+        <v>0.5778356481481481</v>
       </c>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F104">
         <v>3</v>
@@ -3370,16 +3406,16 @@
         <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C105" s="1">
-        <v>45169</v>
+        <v>45168</v>
       </c>
       <c r="D105">
-        <v>0.000474537037037037</v>
+        <v>0.9960416666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F105">
         <v>3</v>
@@ -3390,16 +3426,16 @@
         <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C106" s="1">
         <v>45197</v>
       </c>
       <c r="D106">
-        <v>0.3789699074074074</v>
+        <v>0.374212962962963</v>
       </c>
       <c r="E106" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -3410,16 +3446,16 @@
         <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C107" s="1">
         <v>45225</v>
       </c>
       <c r="D107">
-        <v>0.4652199074074074</v>
+        <v>0.4597222222222222</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -3430,16 +3466,16 @@
         <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C108" s="1">
         <v>45252</v>
       </c>
       <c r="D108">
-        <v>0.2139236111111111</v>
+        <v>0.209224537037037</v>
       </c>
       <c r="E108" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -3450,16 +3486,16 @@
         <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C109" s="1">
         <v>45277</v>
       </c>
       <c r="D109">
-        <v>0.1135416666666667</v>
+        <v>0.1198263888888889</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -3470,7 +3506,7 @@
         <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C110" s="1">
         <v>45114</v>
@@ -3479,7 +3515,7 @@
         <v>0.1712962962962963</v>
       </c>
       <c r="E110" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -3490,7 +3526,7 @@
         <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C111" s="1">
         <v>44931</v>
@@ -3499,7 +3535,7 @@
         <v>0.01209490740740741</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F111">
         <v>3</v>
@@ -3510,7 +3546,7 @@
         <v>33</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C112" s="1">
         <v>44946</v>
@@ -3519,7 +3555,7 @@
         <v>0.7896064814814814</v>
       </c>
       <c r="E112" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F112">
         <v>3</v>
@@ -3530,7 +3566,7 @@
         <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C113" s="1">
         <v>44976</v>
@@ -3539,7 +3575,7 @@
         <v>0.1694907407407407</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F113">
         <v>3</v>
@@ -3550,7 +3586,7 @@
         <v>33</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C114" s="1">
         <v>45007</v>
@@ -3559,7 +3595,7 @@
         <v>0.4208680555555555</v>
       </c>
       <c r="E114" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -3570,7 +3606,7 @@
         <v>33</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C115" s="1">
         <v>45037</v>
@@ -3579,7 +3615,7 @@
         <v>0.7388657407407407</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -3590,7 +3626,7 @@
         <v>33</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C116" s="1">
         <v>45064</v>
@@ -3599,7 +3635,7 @@
         <v>0.2169560185185185</v>
       </c>
       <c r="E116" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F116">
         <v>3</v>
@@ -3610,7 +3646,7 @@
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C117" s="1">
         <v>45094</v>
@@ -3619,7 +3655,7 @@
         <v>0.06736111111111111</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -3630,7 +3666,7 @@
         <v>33</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C118" s="1">
         <v>45126</v>
@@ -3639,7 +3675,7 @@
         <v>0.891412037037037</v>
       </c>
       <c r="E118" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F118">
         <v>3</v>
@@ -3650,7 +3686,7 @@
         <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C119" s="1">
         <v>45157</v>
@@ -3659,7 +3695,7 @@
         <v>0.02547453703703704</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -3670,7 +3706,7 @@
         <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C120" s="1">
         <v>45183</v>
@@ -3679,7 +3715,7 @@
         <v>0.1606018518518519</v>
       </c>
       <c r="E120" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -3690,7 +3726,7 @@
         <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1">
         <v>45213</v>
@@ -3699,7 +3735,7 @@
         <v>0.7657638888888889</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -3710,7 +3746,7 @@
         <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1">
         <v>45244</v>
@@ -3719,7 +3755,7 @@
         <v>0.9651157407407407</v>
       </c>
       <c r="E122" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -3730,7 +3766,7 @@
         <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C123" s="1">
         <v>45274</v>
@@ -3739,7 +3775,7 @@
         <v>0.6588310185185186</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -3750,7 +3786,7 @@
         <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C124" s="1">
         <v>44949</v>
@@ -3759,7 +3795,7 @@
         <v>0.8614814814814816</v>
       </c>
       <c r="E124" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F124">
         <v>3</v>
@@ -3770,7 +3806,7 @@
         <v>34</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C125" s="1">
         <v>44979</v>
@@ -3779,7 +3815,7 @@
         <v>0.8180787037037036</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -3790,7 +3826,7 @@
         <v>34</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C126" s="1">
         <v>45009</v>
@@ -3799,7 +3835,7 @@
         <v>0.8481944444444446</v>
       </c>
       <c r="E126" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -3810,7 +3846,7 @@
         <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C127" s="1">
         <v>45039</v>
@@ -3819,7 +3855,7 @@
         <v>0.9461574074074074</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -3830,7 +3866,7 @@
         <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C128" s="1">
         <v>45069</v>
@@ -3839,7 +3875,7 @@
         <v>0.9512847222222223</v>
       </c>
       <c r="E128" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -3850,7 +3886,7 @@
         <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C129" s="1">
         <v>45099</v>
@@ -3859,7 +3895,7 @@
         <v>0.3344791666666667</v>
       </c>
       <c r="E129" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -3870,7 +3906,7 @@
         <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C130" s="1">
         <v>45127</v>
@@ -3879,7 +3915,7 @@
         <v>0.9668518518518519</v>
       </c>
       <c r="E130" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -3890,7 +3926,7 @@
         <v>34</v>
       </c>
       <c r="B131" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C131" s="1">
         <v>45154</v>
@@ -3899,7 +3935,7 @@
         <v>0.1630671296296296</v>
       </c>
       <c r="E131" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F131">
         <v>3</v>
@@ -3910,7 +3946,7 @@
         <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C132" s="1">
         <v>45154</v>
@@ -3919,7 +3955,7 @@
         <v>0.6678703703703702</v>
       </c>
       <c r="E132" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F132">
         <v>3</v>
@@ -3930,7 +3966,7 @@
         <v>34</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C133" s="1">
         <v>45180</v>
@@ -3939,7 +3975,7 @@
         <v>0.9998148148148148</v>
       </c>
       <c r="E133" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -3950,7 +3986,7 @@
         <v>34</v>
       </c>
       <c r="B134" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C134" s="1">
         <v>45209</v>
@@ -3959,7 +3995,7 @@
         <v>0.8944560185185185</v>
       </c>
       <c r="E134" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F134">
         <v>2</v>
@@ -3970,7 +4006,7 @@
         <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C135" s="1">
         <v>45239</v>
@@ -3979,7 +4015,7 @@
         <v>0.7913541666666667</v>
       </c>
       <c r="E135" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -3990,7 +4026,7 @@
         <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C136" s="1">
         <v>45269</v>
@@ -3999,7 +4035,7 @@
         <v>0.9226736111111111</v>
       </c>
       <c r="E136" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -4010,7 +4046,7 @@
         <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C137" s="1">
         <v>44930</v>
@@ -4019,7 +4055,7 @@
         <v>0.2209953703703703</v>
       </c>
       <c r="E137" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -4030,7 +4066,7 @@
         <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C138" s="1">
         <v>44957</v>
@@ -4039,7 +4075,7 @@
         <v>0.4806597222222222</v>
       </c>
       <c r="E138" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -4050,7 +4086,7 @@
         <v>35</v>
       </c>
       <c r="B139" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C139" s="1">
         <v>44985</v>
@@ -4059,7 +4095,7 @@
         <v>0.4515162037037037</v>
       </c>
       <c r="E139" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -4070,7 +4106,7 @@
         <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C140" s="1">
         <v>45013</v>
@@ -4079,7 +4115,7 @@
         <v>0.9903124999999999</v>
       </c>
       <c r="E140" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -4090,7 +4126,7 @@
         <v>35</v>
       </c>
       <c r="B141" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C141" s="1">
         <v>45042</v>
@@ -4099,7 +4135,7 @@
         <v>0.3604861111111111</v>
       </c>
       <c r="E141" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -4110,7 +4146,7 @@
         <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C142" s="1">
         <v>45071</v>
@@ -4119,7 +4155,7 @@
         <v>0.1409375</v>
       </c>
       <c r="E142" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -4130,7 +4166,7 @@
         <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C143" s="1">
         <v>45099</v>
@@ -4139,7 +4175,7 @@
         <v>0.9496990740740742</v>
       </c>
       <c r="E143" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -4150,7 +4186,7 @@
         <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C144" s="1">
         <v>45128</v>
@@ -4159,7 +4195,7 @@
         <v>0.727511574074074</v>
       </c>
       <c r="E144" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -4170,7 +4206,7 @@
         <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C145" s="1">
         <v>45157</v>
@@ -4179,7 +4215,7 @@
         <v>0.293587962962963</v>
       </c>
       <c r="E145" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F145">
         <v>3</v>
@@ -4190,7 +4226,7 @@
         <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C146" s="1">
         <v>45186</v>
@@ -4199,7 +4235,7 @@
         <v>0.1245717592592593</v>
       </c>
       <c r="E146" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F146">
         <v>3</v>
@@ -4210,7 +4246,7 @@
         <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C147" s="1">
         <v>45214</v>
@@ -4219,7 +4255,7 @@
         <v>0.9984027777777778</v>
       </c>
       <c r="E147" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -4230,7 +4266,7 @@
         <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C148" s="1">
         <v>45243</v>
@@ -4239,7 +4275,7 @@
         <v>0.9025925925925925</v>
       </c>
       <c r="E148" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F148">
         <v>3</v>
@@ -4250,7 +4286,7 @@
         <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C149" s="1">
         <v>45272</v>
@@ -4259,7 +4295,7 @@
         <v>0.8388078703703704</v>
       </c>
       <c r="E149" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F149">
         <v>3</v>
@@ -4270,7 +4306,7 @@
         <v>36</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C150" s="1">
         <v>44952</v>
@@ -4279,7 +4315,7 @@
         <v>0.4315972222222222</v>
       </c>
       <c r="E150" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F150">
         <v>2</v>
@@ -4290,7 +4326,7 @@
         <v>36</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C151" s="1">
         <v>44980</v>
@@ -4299,7 +4335,7 @@
         <v>0.2491087962962963</v>
       </c>
       <c r="E151" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -4310,7 +4346,7 @@
         <v>36</v>
       </c>
       <c r="B152" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C152" s="1">
         <v>45008</v>
@@ -4319,7 +4355,7 @@
         <v>0.1551851851851852</v>
       </c>
       <c r="E152" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -4330,7 +4366,7 @@
         <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C153" s="1">
         <v>45036</v>
@@ -4339,7 +4375,7 @@
         <v>0.05290509259259259</v>
       </c>
       <c r="E153" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F153">
         <v>3</v>
@@ -4350,7 +4386,7 @@
         <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C154" s="1">
         <v>45063</v>
@@ -4359,7 +4395,7 @@
         <v>0.8983564814814815</v>
       </c>
       <c r="E154" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -4370,7 +4406,7 @@
         <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C155" s="1">
         <v>45091</v>
@@ -4379,7 +4415,7 @@
         <v>0.6448032407407408</v>
       </c>
       <c r="E155" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -4390,7 +4426,7 @@
         <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C156" s="1">
         <v>45119</v>
@@ -4399,7 +4435,7 @@
         <v>0.0894212962962963</v>
       </c>
       <c r="E156" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4410,7 +4446,7 @@
         <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C157" s="1">
         <v>45146</v>
@@ -4419,7 +4455,7 @@
         <v>0.7120949074074073</v>
       </c>
       <c r="E157" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -4430,7 +4466,7 @@
         <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C158" s="1">
         <v>45173</v>
@@ -4439,7 +4475,7 @@
         <v>0.9847106481481482</v>
       </c>
       <c r="E158" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4450,7 +4486,7 @@
         <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C159" s="1">
         <v>45201</v>
@@ -4459,7 +4495,7 @@
         <v>0.471238425925926</v>
       </c>
       <c r="E159" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -4470,7 +4506,7 @@
         <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C160" s="1">
         <v>45228</v>
@@ -4479,7 +4515,7 @@
         <v>0.5921064814814815</v>
       </c>
       <c r="E160" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -4490,7 +4526,7 @@
         <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C161" s="1">
         <v>45255</v>
@@ -4499,7 +4535,7 @@
         <v>0.6663773148148148</v>
       </c>
       <c r="E161" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4510,7 +4546,7 @@
         <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C162" s="1">
         <v>45282</v>
@@ -4519,7 +4555,7 @@
         <v>0.7937615740740741</v>
       </c>
       <c r="E162" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4530,7 +4566,7 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C163" s="1">
         <v>44949</v>
@@ -4539,7 +4575,7 @@
         <v>0.8278009259259259</v>
       </c>
       <c r="E163" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F163">
         <v>3</v>
@@ -4550,7 +4586,7 @@
         <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C164" s="1">
         <v>44977</v>
@@ -4559,7 +4595,7 @@
         <v>0.4565393518518518</v>
       </c>
       <c r="E164" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F164">
         <v>3</v>
@@ -4570,7 +4606,7 @@
         <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C165" s="1">
         <v>45005</v>
@@ -4579,7 +4615,7 @@
         <v>0.0174537037037037</v>
       </c>
       <c r="E165" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F165">
         <v>3</v>
@@ -4590,7 +4626,7 @@
         <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C166" s="1">
         <v>45032</v>
@@ -4599,7 +4635,7 @@
         <v>0.6695949074074075</v>
       </c>
       <c r="E166" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -4610,7 +4646,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C167" s="1">
         <v>45059</v>
@@ -4619,7 +4655,7 @@
         <v>0.9131828703703704</v>
       </c>
       <c r="E167" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4630,7 +4666,7 @@
         <v>37</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C168" s="1">
         <v>45087</v>
@@ -4639,7 +4675,7 @@
         <v>0.3745138888888889</v>
       </c>
       <c r="E168" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -4650,7 +4686,7 @@
         <v>37</v>
       </c>
       <c r="B169" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C169" s="1">
         <v>45114</v>
@@ -4659,7 +4695,7 @@
         <v>0.5697222222222221</v>
       </c>
       <c r="E169" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -4670,7 +4706,7 @@
         <v>37</v>
       </c>
       <c r="B170" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C170" s="1">
         <v>45141</v>
@@ -4679,7 +4715,7 @@
         <v>0.7682175925925926</v>
       </c>
       <c r="E170" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -4690,7 +4726,7 @@
         <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C171" s="1">
         <v>45169</v>
@@ -4699,7 +4735,7 @@
         <v>0.2384375</v>
       </c>
       <c r="E171" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -4710,7 +4746,7 @@
         <v>37</v>
       </c>
       <c r="B172" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C172" s="1">
         <v>45196</v>
@@ -4719,7 +4755,7 @@
         <v>0.4449074074074074</v>
       </c>
       <c r="E172" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -4730,7 +4766,7 @@
         <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C173" s="1">
         <v>45223</v>
@@ -4739,7 +4775,7 @@
         <v>0.729363425925926</v>
       </c>
       <c r="E173" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -4750,7 +4786,7 @@
         <v>37</v>
       </c>
       <c r="B174" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C174" s="1">
         <v>45251</v>
@@ -4759,7 +4795,7 @@
         <v>0.07208333333333335</v>
       </c>
       <c r="E174" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4770,7 +4806,7 @@
         <v>37</v>
       </c>
       <c r="B175" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C175" s="1">
         <v>45278</v>
@@ -4779,7 +4815,7 @@
         <v>0.2764814814814815</v>
       </c>
       <c r="E175" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -4790,7 +4826,7 @@
         <v>38</v>
       </c>
       <c r="B176" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C176" s="1">
         <v>44928</v>
@@ -4799,7 +4835,7 @@
         <v>0.2859375</v>
       </c>
       <c r="E176" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -4810,7 +4846,7 @@
         <v>38</v>
       </c>
       <c r="B177" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C177" s="1">
         <v>44955</v>
@@ -4819,7 +4855,7 @@
         <v>0.4382870370370371</v>
       </c>
       <c r="E177" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -4830,7 +4866,7 @@
         <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C178" s="1">
         <v>44982</v>
@@ -4839,7 +4875,7 @@
         <v>0.9207638888888888</v>
       </c>
       <c r="E178" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4850,7 +4886,7 @@
         <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C179" s="1">
         <v>45010</v>
@@ -4859,7 +4895,7 @@
         <v>0.2817824074074074</v>
       </c>
       <c r="E179" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F179">
         <v>2</v>
@@ -4870,7 +4906,7 @@
         <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C180" s="1">
         <v>45037</v>
@@ -4879,7 +4915,7 @@
         <v>0.9093749999999999</v>
       </c>
       <c r="E180" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F180">
         <v>3</v>
@@ -4890,7 +4926,7 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C181" s="1">
         <v>45065</v>
@@ -4899,7 +4935,7 @@
         <v>0.2373611111111111</v>
       </c>
       <c r="E181" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F181">
         <v>3</v>
@@ -4910,7 +4946,7 @@
         <v>38</v>
       </c>
       <c r="B182" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C182" s="1">
         <v>45092</v>
@@ -4919,7 +4955,7 @@
         <v>0.7758912037037038</v>
       </c>
       <c r="E182" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -4930,7 +4966,7 @@
         <v>38</v>
       </c>
       <c r="B183" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C183" s="1">
         <v>45119</v>
@@ -4939,7 +4975,7 @@
         <v>0.9810763888888889</v>
       </c>
       <c r="E183" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F183">
         <v>2</v>
@@ -4950,7 +4986,7 @@
         <v>38</v>
       </c>
       <c r="B184" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C184" s="1">
         <v>45147</v>
@@ -4959,7 +4995,7 @@
         <v>0.2620023148148148</v>
       </c>
       <c r="E184" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -4970,7 +5006,7 @@
         <v>38</v>
       </c>
       <c r="B185" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C185" s="1">
         <v>45174</v>
@@ -4979,7 +5015,7 @@
         <v>0.6729398148148147</v>
       </c>
       <c r="E185" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4990,7 +5026,7 @@
         <v>38</v>
       </c>
       <c r="B186" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C186" s="1">
         <v>45201</v>
@@ -4999,7 +5035,7 @@
         <v>0.9023842592592591</v>
       </c>
       <c r="E186" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -5010,7 +5046,7 @@
         <v>38</v>
       </c>
       <c r="B187" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C187" s="1">
         <v>45229</v>
@@ -5019,7 +5055,7 @@
         <v>0.4244907407407408</v>
       </c>
       <c r="E187" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -5030,7 +5066,7 @@
         <v>38</v>
       </c>
       <c r="B188" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C188" s="1">
         <v>45256</v>
@@ -5039,7 +5075,7 @@
         <v>0.6157407407407408</v>
       </c>
       <c r="E188" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -5050,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C189" s="1">
         <v>45283</v>
@@ -5059,7 +5095,7 @@
         <v>0.8059722222222222</v>
       </c>
       <c r="E189" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -5070,7 +5106,7 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C190" s="1">
         <v>44951</v>
@@ -5079,7 +5115,7 @@
         <v>0.7543981481481482</v>
       </c>
       <c r="E190" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -5090,7 +5126,7 @@
         <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C191" s="1">
         <v>44979</v>
@@ -5099,7 +5135,7 @@
         <v>0.1372337962962963</v>
       </c>
       <c r="E191" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F191">
         <v>3</v>
@@ -5110,7 +5146,7 @@
         <v>39</v>
       </c>
       <c r="B192" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C192" s="1">
         <v>45006</v>
@@ -5119,7 +5155,7 @@
         <v>0.7624074074074074</v>
       </c>
       <c r="E192" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F192">
         <v>3</v>
@@ -5130,7 +5166,7 @@
         <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C193" s="1">
         <v>45034</v>
@@ -5139,7 +5175,7 @@
         <v>0.07809027777777779</v>
       </c>
       <c r="E193" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F193">
         <v>2</v>
@@ -5150,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="B194" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C194" s="1">
         <v>45061</v>
@@ -5159,7 +5195,7 @@
         <v>0.5480555555555556</v>
       </c>
       <c r="E194" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F194">
         <v>2</v>
@@ -5170,7 +5206,7 @@
         <v>39</v>
       </c>
       <c r="B195" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C195" s="1">
         <v>45088</v>
@@ -5179,7 +5215,7 @@
         <v>0.7367939814814816</v>
       </c>
       <c r="E195" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -5190,7 +5226,7 @@
         <v>39</v>
       </c>
       <c r="B196" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C196" s="1">
         <v>45115</v>
@@ -5199,7 +5235,7 @@
         <v>0.9269444444444445</v>
       </c>
       <c r="E196" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -5210,7 +5246,7 @@
         <v>39</v>
       </c>
       <c r="B197" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C197" s="1">
         <v>45143</v>
@@ -5219,7 +5255,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="E197" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -5230,7 +5266,7 @@
         <v>39</v>
       </c>
       <c r="B198" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C198" s="1">
         <v>45170</v>
@@ -5239,7 +5275,7 @@
         <v>0.6495370370370371</v>
       </c>
       <c r="E198" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -5250,7 +5286,7 @@
         <v>39</v>
       </c>
       <c r="B199" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C199" s="1">
         <v>45198</v>
@@ -5259,7 +5295,7 @@
         <v>0.1575925925925926</v>
       </c>
       <c r="E199" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -5270,7 +5306,7 @@
         <v>39</v>
       </c>
       <c r="B200" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C200" s="1">
         <v>45225</v>
@@ -5279,7 +5315,7 @@
         <v>0.4278472222222223</v>
       </c>
       <c r="E200" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -5290,7 +5326,7 @@
         <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C201" s="1">
         <v>45252</v>
@@ -5299,7 +5335,7 @@
         <v>0.6896875000000001</v>
       </c>
       <c r="E201" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -5310,7 +5346,7 @@
         <v>39</v>
       </c>
       <c r="B202" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C202" s="1">
         <v>45280</v>
@@ -5319,7 +5355,7 @@
         <v>0.0004282407407407408</v>
       </c>
       <c r="E202" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -5330,7 +5366,7 @@
         <v>40</v>
       </c>
       <c r="B203" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C203" s="1">
         <v>45151</v>
@@ -5339,7 +5375,7 @@
         <v>0.4763657407407407</v>
       </c>
       <c r="E203" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F203">
         <v>3</v>
@@ -5350,7 +5386,7 @@
         <v>40</v>
       </c>
       <c r="B204" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C204" s="1">
         <v>45228</v>
@@ -5359,7 +5395,7 @@
         <v>0.8921874999999999</v>
       </c>
       <c r="E204" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F204">
         <v>3</v>
@@ -5370,7 +5406,7 @@
         <v>40</v>
       </c>
       <c r="B205" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C205" s="1">
         <v>45288</v>
@@ -5379,7 +5415,7 @@
         <v>0.2500694444444445</v>
       </c>
       <c r="E205" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F205">
         <v>3</v>
@@ -5390,7 +5426,7 @@
         <v>41</v>
       </c>
       <c r="B206" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C206" s="1">
         <v>45013</v>
@@ -5399,7 +5435,7 @@
         <v>0.5350925925925926</v>
       </c>
       <c r="E206" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F206">
         <v>3</v>
@@ -5410,7 +5446,7 @@
         <v>42</v>
       </c>
       <c r="B207" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C207" s="1">
         <v>44987</v>
@@ -5419,7 +5455,7 @@
         <v>0.9362615740740741</v>
       </c>
       <c r="E207" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F207">
         <v>3</v>
@@ -5430,7 +5466,7 @@
         <v>43</v>
       </c>
       <c r="B208" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C208" s="1">
         <v>45038</v>
@@ -5439,7 +5475,7 @@
         <v>0.3752662037037037</v>
       </c>
       <c r="E208" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F208">
         <v>3</v>
@@ -5450,7 +5486,7 @@
         <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C209" s="1">
         <v>45082</v>
@@ -5459,7 +5495,7 @@
         <v>0.3620138888888889</v>
       </c>
       <c r="E209" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F209">
         <v>3</v>
@@ -5470,7 +5506,7 @@
         <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C210" s="1">
         <v>45002</v>
@@ -5479,7 +5515,7 @@
         <v>0.0606712962962963</v>
       </c>
       <c r="E210" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F210">
         <v>3</v>
@@ -5490,7 +5526,7 @@
         <v>45</v>
       </c>
       <c r="B211" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C211" s="1">
         <v>45108</v>
@@ -5499,7 +5535,7 @@
         <v>0.4211458333333333</v>
       </c>
       <c r="E211" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -5510,7 +5546,7 @@
         <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C212" s="1">
         <v>44987</v>
@@ -5519,7 +5555,7 @@
         <v>0.5434375</v>
       </c>
       <c r="E212" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -5530,7 +5566,7 @@
         <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C213" s="1">
         <v>44949</v>
@@ -5539,7 +5575,7 @@
         <v>0.258125</v>
       </c>
       <c r="E213" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F213">
         <v>3</v>
@@ -5550,7 +5586,7 @@
         <v>48</v>
       </c>
       <c r="B214" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C214" s="1">
         <v>45016</v>
@@ -5559,7 +5595,7 @@
         <v>0.2155092592592593</v>
       </c>
       <c r="E214" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="F214">
         <v>3</v>
@@ -5570,7 +5606,7 @@
         <v>49</v>
       </c>
       <c r="B215" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C215" s="1">
         <v>44972</v>
@@ -5579,7 +5615,7 @@
         <v>0.8525578703703703</v>
       </c>
       <c r="E215" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F215">
         <v>3</v>
@@ -5590,7 +5626,7 @@
         <v>50</v>
       </c>
       <c r="B216" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C216" s="1">
         <v>44941</v>
@@ -5599,7 +5635,7 @@
         <v>0.4713310185185185</v>
       </c>
       <c r="E216" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -5610,7 +5646,7 @@
         <v>50</v>
       </c>
       <c r="B217" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C217" s="1">
         <v>44968</v>
@@ -5619,7 +5655,7 @@
         <v>0.6586458333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -5630,7 +5666,7 @@
         <v>50</v>
       </c>
       <c r="B218" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C218" s="1">
         <v>44995</v>
@@ -5639,7 +5675,7 @@
         <v>0.8564351851851852</v>
       </c>
       <c r="E218" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -5650,7 +5686,7 @@
         <v>50</v>
       </c>
       <c r="B219" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C219" s="1">
         <v>45023</v>
@@ -5659,7 +5695,7 @@
         <v>0.2354166666666667</v>
       </c>
       <c r="E219" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -5670,7 +5706,7 @@
         <v>50</v>
       </c>
       <c r="B220" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C220" s="1">
         <v>45050</v>
@@ -5679,7 +5715,7 @@
         <v>0.4877430555555555</v>
       </c>
       <c r="E220" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -5690,7 +5726,7 @@
         <v>50</v>
       </c>
       <c r="B221" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C221" s="1">
         <v>45077</v>
@@ -5699,7 +5735,7 @@
         <v>0.9594560185185185</v>
       </c>
       <c r="E221" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -5710,7 +5746,7 @@
         <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C222" s="1">
         <v>45105</v>
@@ -5719,7 +5755,7 @@
         <v>0.2677314814814815</v>
       </c>
       <c r="E222" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5730,7 +5766,7 @@
         <v>50</v>
       </c>
       <c r="B223" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C223" s="1">
         <v>45132</v>
@@ -5739,7 +5775,7 @@
         <v>0.571412037037037</v>
       </c>
       <c r="E223" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -5750,7 +5786,7 @@
         <v>50</v>
       </c>
       <c r="B224" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C224" s="1">
         <v>45159</v>
@@ -5759,7 +5795,7 @@
         <v>0.9094560185185184</v>
       </c>
       <c r="E224" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -5770,7 +5806,7 @@
         <v>50</v>
       </c>
       <c r="B225" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C225" s="1">
         <v>45187</v>
@@ -5779,7 +5815,7 @@
         <v>0.07721064814814815</v>
       </c>
       <c r="E225" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="F225">
         <v>3</v>
@@ -5790,7 +5826,7 @@
         <v>50</v>
       </c>
       <c r="B226" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C226" s="1">
         <v>45214</v>
@@ -5799,7 +5835,7 @@
         <v>0.3071412037037037</v>
       </c>
       <c r="E226" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F226">
         <v>3</v>
@@ -5810,7 +5846,7 @@
         <v>50</v>
       </c>
       <c r="B227" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C227" s="1">
         <v>45241</v>
@@ -5819,7 +5855,7 @@
         <v>0.7180671296296297</v>
       </c>
       <c r="E227" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F227">
         <v>3</v>
@@ -5830,7 +5866,7 @@
         <v>50</v>
       </c>
       <c r="B228" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C228" s="1">
         <v>45268</v>
@@ -5839,7 +5875,7 @@
         <v>0.9857291666666667</v>
       </c>
       <c r="E228" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -5850,7 +5886,7 @@
         <v>51</v>
       </c>
       <c r="B229" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C229" s="1">
         <v>44936</v>
@@ -5859,7 +5895,7 @@
         <v>0.8692361111111112</v>
       </c>
       <c r="E229" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -5870,7 +5906,7 @@
         <v>51</v>
       </c>
       <c r="B230" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C230" s="1">
         <v>44964</v>
@@ -5879,7 +5915,7 @@
         <v>0.3224305555555556</v>
       </c>
       <c r="E230" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -5890,7 +5926,7 @@
         <v>51</v>
       </c>
       <c r="B231" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C231" s="1">
         <v>44991</v>
@@ -5899,7 +5935,7 @@
         <v>0.4677777777777778</v>
       </c>
       <c r="E231" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -5910,7 +5946,7 @@
         <v>51</v>
       </c>
       <c r="B232" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C232" s="1">
         <v>45018</v>
@@ -5919,7 +5955,7 @@
         <v>0.9099652777777777</v>
       </c>
       <c r="E232" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -5930,7 +5966,7 @@
         <v>51</v>
       </c>
       <c r="B233" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C233" s="1">
         <v>45046</v>
@@ -5939,7 +5975,7 @@
         <v>0.1865625</v>
       </c>
       <c r="E233" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -5950,7 +5986,7 @@
         <v>51</v>
       </c>
       <c r="B234" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C234" s="1">
         <v>45073</v>
@@ -5959,7 +5995,7 @@
         <v>0.3767708333333333</v>
       </c>
       <c r="E234" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -5970,7 +6006,7 @@
         <v>51</v>
       </c>
       <c r="B235" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C235" s="1">
         <v>45100</v>
@@ -5979,7 +6015,7 @@
         <v>0.9</v>
       </c>
       <c r="E235" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F235">
         <v>2</v>
@@ -5990,7 +6026,7 @@
         <v>51</v>
       </c>
       <c r="B236" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C236" s="1">
         <v>45128</v>
@@ -5999,7 +6035,7 @@
         <v>0.05729166666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F236">
         <v>2</v>
@@ -6010,7 +6046,7 @@
         <v>51</v>
       </c>
       <c r="B237" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C237" s="1">
         <v>45155</v>
@@ -6019,7 +6055,7 @@
         <v>0.2102546296296296</v>
       </c>
       <c r="E237" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F237">
         <v>3</v>
@@ -6030,7 +6066,7 @@
         <v>51</v>
       </c>
       <c r="B238" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C238" s="1">
         <v>45182</v>
@@ -6039,7 +6075,7 @@
         <v>0.6773726851851851</v>
       </c>
       <c r="E238" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F238">
         <v>3</v>
@@ -6050,7 +6086,7 @@
         <v>51</v>
       </c>
       <c r="B239" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C239" s="1">
         <v>45209</v>
@@ -6059,7 +6095,7 @@
         <v>0.8396180555555555</v>
       </c>
       <c r="E239" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="F239">
         <v>2</v>
@@ -6070,7 +6106,7 @@
         <v>51</v>
       </c>
       <c r="B240" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C240" s="1">
         <v>45237</v>
@@ -6079,7 +6115,7 @@
         <v>0.07104166666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -6090,7 +6126,7 @@
         <v>51</v>
       </c>
       <c r="B241" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C241" s="1">
         <v>45264</v>
@@ -6099,7 +6135,7 @@
         <v>0.5674652777777778</v>
       </c>
       <c r="E241" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -6110,7 +6146,7 @@
         <v>52</v>
       </c>
       <c r="B242" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C242" s="1">
         <v>44944</v>
@@ -6119,7 +6155,7 @@
         <v>0.7993865740740741</v>
       </c>
       <c r="E242" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -6130,7 +6166,7 @@
         <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C243" s="1">
         <v>44972</v>
@@ -6139,7 +6175,7 @@
         <v>0.09746527777777779</v>
       </c>
       <c r="E243" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -6150,7 +6186,7 @@
         <v>52</v>
       </c>
       <c r="B244" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C244" s="1">
         <v>44999</v>
@@ -6159,7 +6195,7 @@
         <v>0.4425231481481482</v>
       </c>
       <c r="E244" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -6170,7 +6206,7 @@
         <v>52</v>
       </c>
       <c r="B245" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C245" s="1">
         <v>45026</v>
@@ -6179,7 +6215,7 @@
         <v>0.627638888888889</v>
       </c>
       <c r="E245" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -6190,7 +6226,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C246" s="1">
         <v>45053</v>
@@ -6199,7 +6235,7 @@
         <v>0.8542939814814815</v>
       </c>
       <c r="E246" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -6210,7 +6246,7 @@
         <v>52</v>
       </c>
       <c r="B247" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C247" s="1">
         <v>45081</v>
@@ -6219,7 +6255,7 @@
         <v>0.3114236111111111</v>
       </c>
       <c r="E247" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -6230,7 +6266,7 @@
         <v>52</v>
       </c>
       <c r="B248" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C248" s="1">
         <v>45108</v>
@@ -6239,7 +6275,7 @@
         <v>0.6337152777777778</v>
       </c>
       <c r="E248" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -6250,7 +6286,7 @@
         <v>52</v>
       </c>
       <c r="B249" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C249" s="1">
         <v>45136</v>
@@ -6259,7 +6295,7 @@
         <v>0.1413888888888889</v>
       </c>
       <c r="E249" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -6270,7 +6306,7 @@
         <v>52</v>
       </c>
       <c r="B250" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C250" s="1">
         <v>45163</v>
@@ -6279,7 +6315,7 @@
         <v>0.3965972222222223</v>
       </c>
       <c r="E250" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -6290,7 +6326,7 @@
         <v>52</v>
       </c>
       <c r="B251" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C251" s="1">
         <v>45190</v>
@@ -6299,7 +6335,7 @@
         <v>0.6817245370370371</v>
       </c>
       <c r="E251" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -6310,7 +6346,7 @@
         <v>52</v>
       </c>
       <c r="B252" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C252" s="1">
         <v>45217</v>
@@ -6319,7 +6355,7 @@
         <v>0.971412037037037</v>
       </c>
       <c r="E252" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -6330,7 +6366,7 @@
         <v>52</v>
       </c>
       <c r="B253" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C253" s="1">
         <v>45245</v>
@@ -6339,7 +6375,7 @@
         <v>0.1564351851851852</v>
       </c>
       <c r="E253" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="F253">
         <v>3</v>
@@ -6350,7 +6386,7 @@
         <v>52</v>
       </c>
       <c r="B254" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C254" s="1">
         <v>45272</v>
@@ -6359,7 +6395,7 @@
         <v>0.5750115740740741</v>
       </c>
       <c r="E254" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F254">
         <v>3</v>
@@ -6370,7 +6406,7 @@
         <v>53</v>
       </c>
       <c r="B255" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C255" s="1">
         <v>44930</v>
@@ -6379,7 +6415,7 @@
         <v>0.3428356481481481</v>
       </c>
       <c r="E255" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -6390,7 +6426,7 @@
         <v>53</v>
       </c>
       <c r="B256" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C256" s="1">
         <v>44957</v>
@@ -6399,7 +6435,7 @@
         <v>0.43625</v>
       </c>
       <c r="E256" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -6410,7 +6446,7 @@
         <v>53</v>
       </c>
       <c r="B257" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C257" s="1">
         <v>44984</v>
@@ -6419,7 +6455,7 @@
         <v>0.5586458333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -6430,7 +6466,7 @@
         <v>53</v>
       </c>
       <c r="B258" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C258" s="1">
         <v>45012</v>
@@ -6439,7 +6475,7 @@
         <v>0.1758564814814815</v>
       </c>
       <c r="E258" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -6450,7 +6486,7 @@
         <v>53</v>
       </c>
       <c r="B259" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C259" s="1">
         <v>45039</v>
@@ -6459,7 +6495,7 @@
         <v>0.3430324074074074</v>
       </c>
       <c r="E259" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -6470,7 +6506,7 @@
         <v>53</v>
       </c>
       <c r="B260" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C260" s="1">
         <v>45066</v>
@@ -6479,7 +6515,7 @@
         <v>0.9682291666666667</v>
       </c>
       <c r="E260" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F260">
         <v>3</v>
@@ -6490,7 +6526,7 @@
         <v>53</v>
       </c>
       <c r="B261" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C261" s="1">
         <v>45094</v>
@@ -6499,7 +6535,7 @@
         <v>0.09155092592592591</v>
       </c>
       <c r="E261" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F261">
         <v>3</v>
@@ -6510,7 +6546,7 @@
         <v>53</v>
       </c>
       <c r="B262" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C262" s="1">
         <v>45121</v>
@@ -6519,7 +6555,7 @@
         <v>0.194224537037037</v>
       </c>
       <c r="E262" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -6530,7 +6566,7 @@
         <v>53</v>
       </c>
       <c r="B263" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C263" s="1">
         <v>45148</v>
@@ -6539,7 +6575,7 @@
         <v>0.7493518518518519</v>
       </c>
       <c r="E263" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -6550,7 +6586,7 @@
         <v>53</v>
       </c>
       <c r="B264" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C264" s="1">
         <v>45175</v>
@@ -6559,7 +6595,7 @@
         <v>0.8551041666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -6570,7 +6606,7 @@
         <v>53</v>
       </c>
       <c r="B265" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C265" s="1">
         <v>45203</v>
@@ -6579,7 +6615,7 @@
         <v>0.03700231481481481</v>
       </c>
       <c r="E265" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -6590,7 +6626,7 @@
         <v>53</v>
       </c>
       <c r="B266" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C266" s="1">
         <v>45203</v>
@@ -6599,7 +6635,7 @@
         <v>0.4575347222222222</v>
       </c>
       <c r="E266" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -6610,7 +6646,7 @@
         <v>53</v>
       </c>
       <c r="B267" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C267" s="1">
         <v>45230</v>
@@ -6619,7 +6655,7 @@
         <v>0.6592708333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -6630,7 +6666,7 @@
         <v>53</v>
       </c>
       <c r="B268" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C268" s="1">
         <v>45257</v>
@@ -6639,7 +6675,7 @@
         <v>0.8572569444444444</v>
       </c>
       <c r="E268" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -6650,7 +6686,7 @@
         <v>53</v>
       </c>
       <c r="B269" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C269" s="1">
         <v>45258</v>
@@ -6659,7 +6695,7 @@
         <v>0.2627662037037037</v>
       </c>
       <c r="E269" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F269">
         <v>1</v>
@@ -6670,7 +6706,7 @@
         <v>53</v>
       </c>
       <c r="B270" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C270" s="1">
         <v>45285</v>
@@ -6679,7 +6715,7 @@
         <v>0.4488310185185185</v>
       </c>
       <c r="E270" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -6690,7 +6726,7 @@
         <v>54</v>
       </c>
       <c r="B271" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C271" s="1">
         <v>44933</v>
@@ -6699,7 +6735,7 @@
         <v>0.8708333333333332</v>
       </c>
       <c r="E271" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -6710,7 +6746,7 @@
         <v>54</v>
       </c>
       <c r="B272" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C272" s="1">
         <v>44961</v>
@@ -6719,7 +6755,7 @@
         <v>0.1848958333333333</v>
       </c>
       <c r="E272" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -6730,7 +6766,7 @@
         <v>54</v>
       </c>
       <c r="B273" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C273" s="1">
         <v>44988</v>
@@ -6739,7 +6775,7 @@
         <v>0.4204398148148148</v>
       </c>
       <c r="E273" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -6750,7 +6786,7 @@
         <v>54</v>
       </c>
       <c r="B274" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C274" s="1">
         <v>45015</v>
@@ -6759,7 +6795,7 @@
         <v>0.6970138888888888</v>
       </c>
       <c r="E274" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -6770,7 +6806,7 @@
         <v>54</v>
       </c>
       <c r="B275" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C275" s="1">
         <v>45043</v>
@@ -6779,7 +6815,7 @@
         <v>0.09822916666666666</v>
       </c>
       <c r="E275" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -6790,7 +6826,7 @@
         <v>54</v>
       </c>
       <c r="B276" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C276" s="1">
         <v>45070</v>
@@ -6799,7 +6835,7 @@
         <v>0.3627777777777777</v>
       </c>
       <c r="E276" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F276">
         <v>2</v>
@@ -6810,7 +6846,7 @@
         <v>54</v>
       </c>
       <c r="B277" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C277" s="1">
         <v>45097</v>
@@ -6819,7 +6855,7 @@
         <v>0.7299537037037037</v>
       </c>
       <c r="E277" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F277">
         <v>3</v>
@@ -6830,7 +6866,7 @@
         <v>54</v>
       </c>
       <c r="B278" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C278" s="1">
         <v>45124</v>
@@ -6839,7 +6875,7 @@
         <v>0.9974305555555555</v>
       </c>
       <c r="E278" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F278">
         <v>3</v>
@@ -6850,7 +6886,7 @@
         <v>54</v>
       </c>
       <c r="B279" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C279" s="1">
         <v>45152</v>
@@ -6859,7 +6895,7 @@
         <v>0.1923148148148148</v>
       </c>
       <c r="E279" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F279">
         <v>3</v>
@@ -6870,7 +6906,7 @@
         <v>54</v>
       </c>
       <c r="B280" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C280" s="1">
         <v>45179</v>
@@ -6879,7 +6915,7 @@
         <v>0.4965509259259259</v>
       </c>
       <c r="E280" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -6890,7 +6926,7 @@
         <v>54</v>
       </c>
       <c r="B281" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C281" s="1">
         <v>45206</v>
@@ -6899,7 +6935,7 @@
         <v>0.7769560185185185</v>
       </c>
       <c r="E281" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -6910,7 +6946,7 @@
         <v>54</v>
       </c>
       <c r="B282" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C282" s="1">
         <v>45234</v>
@@ -6919,7 +6955,7 @@
         <v>0.07119212962962963</v>
       </c>
       <c r="E282" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -6930,7 +6966,7 @@
         <v>54</v>
       </c>
       <c r="B283" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C283" s="1">
         <v>45261</v>
@@ -6939,7 +6975,7 @@
         <v>0.5091898148148148</v>
       </c>
       <c r="E283" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -6950,7 +6986,7 @@
         <v>54</v>
       </c>
       <c r="B284" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C284" s="1">
         <v>45288</v>
@@ -6959,7 +6995,7 @@
         <v>0.7865972222222223</v>
       </c>
       <c r="E284" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -6970,7 +7006,7 @@
         <v>55</v>
       </c>
       <c r="B285" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C285" s="1">
         <v>44943</v>
@@ -6987,7 +7023,7 @@
         <v>56</v>
       </c>
       <c r="B286" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C286" s="1">
         <v>45111</v>
@@ -7004,7 +7040,7 @@
         <v>57</v>
       </c>
       <c r="B287" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C287" s="1">
         <v>45085</v>
@@ -7021,7 +7057,7 @@
         <v>58</v>
       </c>
       <c r="B288" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C288" s="1">
         <v>45290</v>
@@ -7038,13 +7074,13 @@
         <v>59</v>
       </c>
       <c r="B289" t="s">
-        <v>145</v>
-      </c>
-      <c r="C289" s="1">
-        <v>45291</v>
+        <v>148</v>
+      </c>
+      <c r="C289" t="s">
+        <v>179</v>
       </c>
       <c r="E289" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -7055,13 +7091,13 @@
         <v>60</v>
       </c>
       <c r="B290" t="s">
-        <v>146</v>
-      </c>
-      <c r="C290" s="1">
-        <v>45291</v>
+        <v>149</v>
+      </c>
+      <c r="C290" t="s">
+        <v>180</v>
       </c>
       <c r="E290" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -7072,13 +7108,13 @@
         <v>61</v>
       </c>
       <c r="B291" t="s">
-        <v>147</v>
-      </c>
-      <c r="C291" s="1">
-        <v>45291</v>
+        <v>150</v>
+      </c>
+      <c r="C291" t="s">
+        <v>181</v>
       </c>
       <c r="E291" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -7089,64 +7125,64 @@
         <v>62</v>
       </c>
       <c r="B292" t="s">
-        <v>148</v>
-      </c>
-      <c r="C292" s="1">
-        <v>44946</v>
-      </c>
-      <c r="D292">
-        <v>0.6591435185185185</v>
+        <v>151</v>
+      </c>
+      <c r="C292" t="s">
+        <v>182</v>
+      </c>
+      <c r="E292" t="s">
+        <v>390</v>
       </c>
       <c r="F292">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B293" t="s">
-        <v>148</v>
-      </c>
-      <c r="C293" s="1">
-        <v>44976</v>
-      </c>
-      <c r="D293">
-        <v>0.2024884259259259</v>
+        <v>152</v>
+      </c>
+      <c r="C293" t="s">
+        <v>183</v>
+      </c>
+      <c r="E293" t="s">
+        <v>390</v>
       </c>
       <c r="F293">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B294" t="s">
-        <v>148</v>
-      </c>
-      <c r="C294" s="1">
-        <v>45007</v>
-      </c>
-      <c r="D294">
-        <v>0.3403356481481481</v>
+        <v>153</v>
+      </c>
+      <c r="C294" t="s">
+        <v>184</v>
+      </c>
+      <c r="E294" t="s">
+        <v>390</v>
       </c>
       <c r="F294">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B295" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C295" s="1">
-        <v>45037</v>
+        <v>44946</v>
       </c>
       <c r="D295">
-        <v>0.6287962962962963</v>
+        <v>0.6591435185185185</v>
       </c>
       <c r="F295">
         <v>3</v>
@@ -7154,16 +7190,16 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B296" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C296" s="1">
-        <v>45064</v>
+        <v>44976</v>
       </c>
       <c r="D296">
-        <v>0.3994212962962964</v>
+        <v>0.2024884259259259</v>
       </c>
       <c r="F296">
         <v>3</v>
@@ -7171,16 +7207,16 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B297" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C297" s="1">
-        <v>45094</v>
+        <v>45007</v>
       </c>
       <c r="D297">
-        <v>0.1931944444444444</v>
+        <v>0.3403356481481481</v>
       </c>
       <c r="F297">
         <v>3</v>
@@ -7188,16 +7224,16 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B298" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C298" s="1">
-        <v>45126</v>
+        <v>45037</v>
       </c>
       <c r="D298">
-        <v>0.7052777777777779</v>
+        <v>0.6287962962962963</v>
       </c>
       <c r="F298">
         <v>3</v>
@@ -7205,16 +7241,16 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B299" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C299" s="1">
-        <v>45156</v>
+        <v>45064</v>
       </c>
       <c r="D299">
-        <v>0.809675925925926</v>
+        <v>0.3994212962962964</v>
       </c>
       <c r="F299">
         <v>3</v>
@@ -7222,16 +7258,16 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B300" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C300" s="1">
-        <v>45183</v>
+        <v>45094</v>
       </c>
       <c r="D300">
-        <v>0.06949074074074073</v>
+        <v>0.1931944444444444</v>
       </c>
       <c r="F300">
         <v>3</v>
@@ -7239,16 +7275,16 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B301" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C301" s="1">
-        <v>45213</v>
+        <v>45126</v>
       </c>
       <c r="D301">
-        <v>0.7311574074074074</v>
+        <v>0.7052777777777779</v>
       </c>
       <c r="F301">
         <v>3</v>
@@ -7256,16 +7292,16 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B302" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C302" s="1">
-        <v>45244</v>
+        <v>45156</v>
       </c>
       <c r="D302">
-        <v>0.9435416666666666</v>
+        <v>0.809675925925926</v>
       </c>
       <c r="F302">
         <v>3</v>
@@ -7273,16 +7309,16 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B303" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C303" s="1">
-        <v>45274</v>
+        <v>45183</v>
       </c>
       <c r="D303">
-        <v>0.5547685185185186</v>
+        <v>0.06949074074074073</v>
       </c>
       <c r="F303">
         <v>3</v>
@@ -7290,16 +7326,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B304" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C304" s="1">
-        <v>44949</v>
+        <v>45213</v>
       </c>
       <c r="D304">
-        <v>0.6792245370370371</v>
+        <v>0.7311574074074074</v>
       </c>
       <c r="F304">
         <v>3</v>
@@ -7307,16 +7343,16 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B305" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C305" s="1">
-        <v>44979</v>
+        <v>45244</v>
       </c>
       <c r="D305">
-        <v>0.6635069444444445</v>
+        <v>0.9435416666666666</v>
       </c>
       <c r="F305">
         <v>3</v>
@@ -7324,67 +7360,67 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B306" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C306" s="1">
-        <v>45009</v>
+        <v>45274</v>
       </c>
       <c r="D306">
-        <v>0.7685648148148148</v>
+        <v>0.5547685185185186</v>
       </c>
       <c r="F306">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B307" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C307" s="1">
-        <v>45039</v>
+        <v>44949</v>
       </c>
       <c r="D307">
-        <v>0.876851851851852</v>
+        <v>0.6792245370370371</v>
       </c>
       <c r="F307">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B308" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C308" s="1">
-        <v>45069</v>
+        <v>44979</v>
       </c>
       <c r="D308">
-        <v>0.8390740740740741</v>
+        <v>0.6635069444444445</v>
       </c>
       <c r="F308">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B309" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C309" s="1">
-        <v>45099</v>
+        <v>45009</v>
       </c>
       <c r="D309">
-        <v>0.3664699074074074</v>
+        <v>0.7685648148148148</v>
       </c>
       <c r="F309">
         <v>2</v>
@@ -7392,50 +7428,50 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B310" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C310" s="1">
-        <v>45127</v>
+        <v>45039</v>
       </c>
       <c r="D310">
-        <v>0.6924652777777779</v>
+        <v>0.876851851851852</v>
       </c>
       <c r="F310">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B311" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C311" s="1">
-        <v>45154</v>
+        <v>45069</v>
       </c>
       <c r="D311">
-        <v>0.04180555555555556</v>
+        <v>0.8390740740740741</v>
       </c>
       <c r="F311">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B312" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C312" s="1">
-        <v>45180</v>
+        <v>45099</v>
       </c>
       <c r="D312">
-        <v>0.8745023148148149</v>
+        <v>0.3664699074074074</v>
       </c>
       <c r="F312">
         <v>2</v>
@@ -7443,50 +7479,50 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B313" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C313" s="1">
-        <v>45209</v>
+        <v>45127</v>
       </c>
       <c r="D313">
-        <v>0.7391550925925926</v>
+        <v>0.6924652777777779</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B314" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C314" s="1">
-        <v>45239</v>
+        <v>45154</v>
       </c>
       <c r="D314">
-        <v>0.7291087962962964</v>
+        <v>0.04180555555555556</v>
       </c>
       <c r="F314">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B315" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C315" s="1">
-        <v>45270</v>
+        <v>45180</v>
       </c>
       <c r="D315">
-        <v>0.03703703703703703</v>
+        <v>0.8745023148148149</v>
       </c>
       <c r="F315">
         <v>2</v>
@@ -7494,67 +7530,67 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B316" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C316" s="1">
-        <v>44930</v>
+        <v>45209</v>
       </c>
       <c r="D316">
-        <v>0.1508564814814815</v>
+        <v>0.7391550925925926</v>
       </c>
       <c r="F316">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B317" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C317" s="1">
-        <v>44957</v>
+        <v>45239</v>
       </c>
       <c r="D317">
-        <v>0.5173032407407407</v>
+        <v>0.7291087962962964</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B318" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C318" s="1">
-        <v>44985</v>
+        <v>45270</v>
       </c>
       <c r="D318">
-        <v>0.5220717592592593</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="F318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B319" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C319" s="1">
-        <v>45013</v>
+        <v>44930</v>
       </c>
       <c r="D319">
-        <v>0.886087962962963</v>
+        <v>0.1508564814814815</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -7562,16 +7598,16 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B320" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C320" s="1">
-        <v>45042</v>
+        <v>44957</v>
       </c>
       <c r="D320">
-        <v>0.4294560185185186</v>
+        <v>0.5173032407407407</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -7579,118 +7615,118 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B321" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C321" s="1">
-        <v>45071</v>
+        <v>44985</v>
       </c>
       <c r="D321">
-        <v>0.06396990740740741</v>
+        <v>0.5220717592592593</v>
       </c>
       <c r="F321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B322" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C322" s="1">
-        <v>45099</v>
+        <v>45013</v>
       </c>
       <c r="D322">
-        <v>0.7562268518518519</v>
+        <v>0.886087962962963</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B323" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C323" s="1">
-        <v>45128</v>
+        <v>45042</v>
       </c>
       <c r="D323">
-        <v>0.5001041666666667</v>
+        <v>0.4294560185185186</v>
       </c>
       <c r="F323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B324" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C324" s="1">
-        <v>45157</v>
+        <v>45071</v>
       </c>
       <c r="D324">
-        <v>0.2963773148148148</v>
+        <v>0.06396990740740741</v>
       </c>
       <c r="F324">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B325" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C325" s="1">
-        <v>45186</v>
+        <v>45099</v>
       </c>
       <c r="D325">
-        <v>0.1390509259259259</v>
+        <v>0.7562268518518519</v>
       </c>
       <c r="F325">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B326" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C326" s="1">
-        <v>45215</v>
+        <v>45128</v>
       </c>
       <c r="D326">
-        <v>0.01190972222222222</v>
+        <v>0.5001041666666667</v>
       </c>
       <c r="F326">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B327" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C327" s="1">
-        <v>45243</v>
+        <v>45157</v>
       </c>
       <c r="D327">
-        <v>0.8975578703703704</v>
+        <v>0.2963773148148148</v>
       </c>
       <c r="F327">
         <v>3</v>
@@ -7698,16 +7734,16 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B328" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C328" s="1">
-        <v>45272</v>
+        <v>45186</v>
       </c>
       <c r="D328">
-        <v>0.7885300925925925</v>
+        <v>0.1390509259259259</v>
       </c>
       <c r="F328">
         <v>3</v>
@@ -7715,50 +7751,50 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B329" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C329" s="1">
-        <v>44952</v>
+        <v>45215</v>
       </c>
       <c r="D329">
-        <v>0.4187962962962963</v>
+        <v>0.01190972222222222</v>
       </c>
       <c r="F329">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B330" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C330" s="1">
-        <v>44980</v>
+        <v>45243</v>
       </c>
       <c r="D330">
-        <v>0.2502430555555555</v>
+        <v>0.8975578703703704</v>
       </c>
       <c r="F330">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B331" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C331" s="1">
-        <v>45008</v>
+        <v>45272</v>
       </c>
       <c r="D331">
-        <v>0.1637731481481481</v>
+        <v>0.7885300925925925</v>
       </c>
       <c r="F331">
         <v>3</v>
@@ -7766,118 +7802,118 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B332" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C332" s="1">
-        <v>45036</v>
+        <v>44952</v>
       </c>
       <c r="D332">
-        <v>0.06347222222222222</v>
+        <v>0.4187962962962963</v>
       </c>
       <c r="F332">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B333" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C333" s="1">
-        <v>45063</v>
+        <v>44980</v>
       </c>
       <c r="D333">
-        <v>0.8871990740740742</v>
+        <v>0.2502430555555555</v>
       </c>
       <c r="F333">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B334" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C334" s="1">
-        <v>45091</v>
+        <v>45008</v>
       </c>
       <c r="D334">
-        <v>0.6079513888888889</v>
+        <v>0.1637731481481481</v>
       </c>
       <c r="F334">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B335" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C335" s="1">
-        <v>45119</v>
+        <v>45036</v>
       </c>
       <c r="D335">
-        <v>0.2229861111111111</v>
+        <v>0.06347222222222222</v>
       </c>
       <c r="F335">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B336" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C336" s="1">
-        <v>45146</v>
+        <v>45063</v>
       </c>
       <c r="D336">
-        <v>0.738912037037037</v>
+        <v>0.8871990740740742</v>
       </c>
       <c r="F336">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B337" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C337" s="1">
-        <v>45174</v>
+        <v>45091</v>
       </c>
       <c r="D337">
-        <v>0.1578240740740741</v>
+        <v>0.6079513888888889</v>
       </c>
       <c r="F337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B338" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C338" s="1">
-        <v>45201</v>
+        <v>45119</v>
       </c>
       <c r="D338">
-        <v>0.4718981481481481</v>
+        <v>0.2229861111111111</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -7885,16 +7921,16 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B339" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C339" s="1">
-        <v>45228</v>
+        <v>45146</v>
       </c>
       <c r="D339">
-        <v>0.6766782407407407</v>
+        <v>0.738912037037037</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -7902,16 +7938,16 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B340" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C340" s="1">
-        <v>45255</v>
+        <v>45174</v>
       </c>
       <c r="D340">
-        <v>0.801712962962963</v>
+        <v>0.1578240740740741</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -7919,16 +7955,16 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B341" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C341" s="1">
-        <v>45282</v>
+        <v>45201</v>
       </c>
       <c r="D341">
-        <v>0.9336458333333333</v>
+        <v>0.4718981481481481</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -7936,135 +7972,135 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B342" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C342" s="1">
-        <v>44949</v>
+        <v>45228</v>
       </c>
       <c r="D342">
-        <v>0.6397800925925926</v>
+        <v>0.6766782407407407</v>
       </c>
       <c r="F342">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B343" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C343" s="1">
-        <v>44977</v>
+        <v>45255</v>
       </c>
       <c r="D343">
-        <v>0.3316898148148148</v>
+        <v>0.801712962962963</v>
       </c>
       <c r="F343">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B344" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C344" s="1">
-        <v>45004</v>
+        <v>45282</v>
       </c>
       <c r="D344">
-        <v>0.9733564814814816</v>
+        <v>0.9336458333333333</v>
       </c>
       <c r="F344">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B345" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C345" s="1">
-        <v>45032</v>
+        <v>44949</v>
       </c>
       <c r="D345">
-        <v>0.4922685185185185</v>
+        <v>0.6397800925925926</v>
       </c>
       <c r="F345">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B346" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C346" s="1">
-        <v>45059</v>
+        <v>44977</v>
       </c>
       <c r="D346">
-        <v>0.8798032407407409</v>
+        <v>0.3316898148148148</v>
       </c>
       <c r="F346">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B347" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C347" s="1">
-        <v>45087</v>
+        <v>45004</v>
       </c>
       <c r="D347">
-        <v>0.1825462962962963</v>
+        <v>0.9733564814814816</v>
       </c>
       <c r="F347">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B348" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C348" s="1">
-        <v>45114</v>
+        <v>45032</v>
       </c>
       <c r="D348">
-        <v>0.4650462962962963</v>
+        <v>0.4922685185185185</v>
       </c>
       <c r="F348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B349" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C349" s="1">
-        <v>45141</v>
+        <v>45059</v>
       </c>
       <c r="D349">
-        <v>0.7678356481481482</v>
+        <v>0.8798032407407409</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -8072,16 +8108,16 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B350" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C350" s="1">
-        <v>45169</v>
+        <v>45087</v>
       </c>
       <c r="D350">
-        <v>0.08868055555555555</v>
+        <v>0.1825462962962963</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -8089,16 +8125,16 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B351" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C351" s="1">
-        <v>45196</v>
+        <v>45114</v>
       </c>
       <c r="D351">
-        <v>0.3954629629629629</v>
+        <v>0.4650462962962963</v>
       </c>
       <c r="F351">
         <v>1</v>
@@ -8106,16 +8142,16 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B352" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C352" s="1">
-        <v>45223</v>
+        <v>45141</v>
       </c>
       <c r="D352">
-        <v>0.6637152777777777</v>
+        <v>0.7678356481481482</v>
       </c>
       <c r="F352">
         <v>1</v>
@@ -8123,16 +8159,16 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B353" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C353" s="1">
-        <v>45250</v>
+        <v>45169</v>
       </c>
       <c r="D353">
-        <v>0.9207291666666667</v>
+        <v>0.08868055555555555</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -8140,16 +8176,16 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B354" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C354" s="1">
-        <v>45278</v>
+        <v>45196</v>
       </c>
       <c r="D354">
-        <v>0.2508912037037037</v>
+        <v>0.3954629629629629</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -8157,16 +8193,16 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B355" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C355" s="1">
-        <v>44928</v>
+        <v>45223</v>
       </c>
       <c r="D355">
-        <v>0.2612268518518518</v>
+        <v>0.6637152777777777</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -8174,16 +8210,16 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B356" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C356" s="1">
-        <v>44955</v>
+        <v>45250</v>
       </c>
       <c r="D356">
-        <v>0.5059375</v>
+        <v>0.9207291666666667</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -8191,16 +8227,16 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B357" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C357" s="1">
-        <v>44982</v>
+        <v>45278</v>
       </c>
       <c r="D357">
-        <v>0.8787847222222221</v>
+        <v>0.2508912037037037</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -8208,67 +8244,67 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B358" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C358" s="1">
-        <v>45010</v>
+        <v>44928</v>
       </c>
       <c r="D358">
-        <v>0.3605671296296296</v>
+        <v>0.2612268518518518</v>
       </c>
       <c r="F358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B359" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C359" s="1">
-        <v>45037</v>
+        <v>44955</v>
       </c>
       <c r="D359">
-        <v>0.8753009259259259</v>
+        <v>0.5059375</v>
       </c>
       <c r="F359">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B360" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C360" s="1">
-        <v>45065</v>
+        <v>44982</v>
       </c>
       <c r="D360">
-        <v>0.3489467592592593</v>
+        <v>0.8787847222222221</v>
       </c>
       <c r="F360">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B361" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C361" s="1">
-        <v>45092</v>
+        <v>45010</v>
       </c>
       <c r="D361">
-        <v>0.7456597222222222</v>
+        <v>0.3605671296296296</v>
       </c>
       <c r="F361">
         <v>2</v>
@@ -8276,84 +8312,84 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B362" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C362" s="1">
-        <v>45120</v>
+        <v>45037</v>
       </c>
       <c r="D362">
-        <v>0.07474537037037036</v>
+        <v>0.8753009259259259</v>
       </c>
       <c r="F362">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B363" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C363" s="1">
-        <v>45147</v>
+        <v>45065</v>
       </c>
       <c r="D363">
-        <v>0.3773611111111111</v>
+        <v>0.3489467592592593</v>
       </c>
       <c r="F363">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B364" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C364" s="1">
-        <v>45174</v>
+        <v>45092</v>
       </c>
       <c r="D364">
-        <v>0.698113425925926</v>
+        <v>0.7456597222222222</v>
       </c>
       <c r="F364">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B365" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C365" s="1">
-        <v>45202</v>
+        <v>45120</v>
       </c>
       <c r="D365">
-        <v>0.05240740740740741</v>
+        <v>0.07474537037037036</v>
       </c>
       <c r="F365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B366" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C366" s="1">
-        <v>45229</v>
+        <v>45147</v>
       </c>
       <c r="D366">
-        <v>0.4115162037037037</v>
+        <v>0.3773611111111111</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -8361,16 +8397,16 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B367" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C367" s="1">
-        <v>45256</v>
+        <v>45174</v>
       </c>
       <c r="D367">
-        <v>0.7216666666666667</v>
+        <v>0.698113425925926</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -8378,16 +8414,16 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B368" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C368" s="1">
-        <v>45283</v>
+        <v>45202</v>
       </c>
       <c r="D368">
-        <v>0.9539004629629629</v>
+        <v>0.05240740740740741</v>
       </c>
       <c r="F368">
         <v>1</v>
@@ -8395,67 +8431,67 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B369" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C369" s="1">
-        <v>44951</v>
+        <v>45229</v>
       </c>
       <c r="D369">
-        <v>0.5799884259259259</v>
+        <v>0.4115162037037037</v>
       </c>
       <c r="F369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B370" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C370" s="1">
-        <v>44979</v>
+        <v>45256</v>
       </c>
       <c r="D370">
-        <v>0.09434027777777777</v>
+        <v>0.7216666666666667</v>
       </c>
       <c r="F370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B371" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C371" s="1">
-        <v>45006</v>
+        <v>45283</v>
       </c>
       <c r="D371">
-        <v>0.6160763888888888</v>
+        <v>0.9539004629629629</v>
       </c>
       <c r="F371">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B372" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C372" s="1">
-        <v>45034</v>
+        <v>44951</v>
       </c>
       <c r="D372">
-        <v>0.05831018518518519</v>
+        <v>0.5799884259259259</v>
       </c>
       <c r="F372">
         <v>2</v>
@@ -8463,84 +8499,84 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B373" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C373" s="1">
-        <v>45061</v>
+        <v>44979</v>
       </c>
       <c r="D373">
-        <v>0.3926041666666666</v>
+        <v>0.09434027777777777</v>
       </c>
       <c r="F373">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B374" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C374" s="1">
-        <v>45088</v>
+        <v>45006</v>
       </c>
       <c r="D374">
-        <v>0.6572106481481482</v>
+        <v>0.6160763888888888</v>
       </c>
       <c r="F374">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B375" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C375" s="1">
-        <v>45115</v>
+        <v>45034</v>
       </c>
       <c r="D375">
-        <v>0.9250115740740741</v>
+        <v>0.05831018518518519</v>
       </c>
       <c r="F375">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B376" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C376" s="1">
-        <v>45143</v>
+        <v>45061</v>
       </c>
       <c r="D376">
-        <v>0.251412037037037</v>
+        <v>0.3926041666666666</v>
       </c>
       <c r="F376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B377" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C377" s="1">
-        <v>45170</v>
+        <v>45088</v>
       </c>
       <c r="D377">
-        <v>0.639375</v>
+        <v>0.6572106481481482</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -8548,16 +8584,16 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B378" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C378" s="1">
-        <v>45198</v>
+        <v>45115</v>
       </c>
       <c r="D378">
-        <v>0.04119212962962963</v>
+        <v>0.9250115740740741</v>
       </c>
       <c r="F378">
         <v>1</v>
@@ -8565,16 +8601,16 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B379" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C379" s="1">
-        <v>45225</v>
+        <v>45143</v>
       </c>
       <c r="D379">
-        <v>0.3909027777777778</v>
+        <v>0.251412037037037</v>
       </c>
       <c r="F379">
         <v>1</v>
@@ -8582,16 +8618,16 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B380" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C380" s="1">
-        <v>45252</v>
+        <v>45170</v>
       </c>
       <c r="D380">
-        <v>0.6566087962962963</v>
+        <v>0.639375</v>
       </c>
       <c r="F380">
         <v>1</v>
@@ -8599,16 +8635,16 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B381" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C381" s="1">
-        <v>45279</v>
+        <v>45198</v>
       </c>
       <c r="D381">
-        <v>0.8862152777777778</v>
+        <v>0.04119212962962963</v>
       </c>
       <c r="F381">
         <v>1</v>
@@ -8616,36 +8652,36 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B382" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C382" s="1">
-        <v>45052</v>
+        <v>45225</v>
       </c>
       <c r="D382">
-        <v>0.05756944444444444</v>
-      </c>
-      <c r="F382" t="s">
-        <v>380</v>
+        <v>0.3909027777777778</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B383" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C383" s="1">
-        <v>45228</v>
+        <v>45252</v>
       </c>
       <c r="D383">
-        <v>0.1764583333333334</v>
-      </c>
-      <c r="F383" t="s">
-        <v>380</v>
+        <v>0.6566087962962963</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8653,16 +8689,16 @@
         <v>71</v>
       </c>
       <c r="B384" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C384" s="1">
-        <v>45133</v>
+        <v>45279</v>
       </c>
       <c r="D384">
-        <v>0.8609722222222221</v>
-      </c>
-      <c r="F384" t="s">
-        <v>381</v>
+        <v>0.8862152777777778</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8670,67 +8706,67 @@
         <v>72</v>
       </c>
       <c r="B385" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C385" s="1">
-        <v>45229</v>
+        <v>45052</v>
       </c>
       <c r="D385">
-        <v>0.05428240740740741</v>
+        <v>0.05756944444444444</v>
       </c>
       <c r="F385" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B386" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C386" s="1">
-        <v>45288</v>
+        <v>45228</v>
       </c>
       <c r="D386">
-        <v>0.4493171296296296</v>
+        <v>0.1764583333333334</v>
       </c>
       <c r="F386" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B387" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C387" s="1">
-        <v>45013</v>
+        <v>45133</v>
       </c>
       <c r="D387">
-        <v>0.9405671296296295</v>
+        <v>0.8609722222222221</v>
       </c>
       <c r="F387" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B388" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C388" s="1">
-        <v>44987</v>
+        <v>45229</v>
       </c>
       <c r="D388">
-        <v>0.7324189814814814</v>
+        <v>0.05428240740740741</v>
       </c>
       <c r="F388" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8738,16 +8774,16 @@
         <v>75</v>
       </c>
       <c r="B389" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C389" s="1">
-        <v>45081</v>
+        <v>45288</v>
       </c>
       <c r="D389">
-        <v>0.5286921296296296</v>
-      </c>
-      <c r="F389">
-        <v>3</v>
+        <v>0.4493171296296296</v>
+      </c>
+      <c r="F389" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8755,16 +8791,16 @@
         <v>76</v>
       </c>
       <c r="B390" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C390" s="1">
-        <v>45001</v>
+        <v>45013</v>
       </c>
       <c r="D390">
-        <v>0.9631828703703705</v>
-      </c>
-      <c r="F390">
-        <v>3</v>
+        <v>0.9405671296296295</v>
+      </c>
+      <c r="F390" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8772,16 +8808,16 @@
         <v>77</v>
       </c>
       <c r="B391" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C391" s="1">
         <v>44987</v>
       </c>
       <c r="D391">
-        <v>0.7783101851851852</v>
+        <v>0.7324189814814814</v>
       </c>
       <c r="F391" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8789,16 +8825,16 @@
         <v>78</v>
       </c>
       <c r="B392" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C392" s="1">
-        <v>44949</v>
+        <v>45081</v>
       </c>
       <c r="D392">
-        <v>0.1502546296296296</v>
-      </c>
-      <c r="F392" t="s">
-        <v>381</v>
+        <v>0.5286921296296296</v>
+      </c>
+      <c r="F392">
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8806,13 +8842,13 @@
         <v>79</v>
       </c>
       <c r="B393" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C393" s="1">
-        <v>45016</v>
+        <v>45001</v>
       </c>
       <c r="D393">
-        <v>0.5908101851851851</v>
+        <v>0.9631828703703705</v>
       </c>
       <c r="F393">
         <v>3</v>
@@ -8823,16 +8859,16 @@
         <v>80</v>
       </c>
       <c r="B394" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C394" s="1">
-        <v>44972</v>
+        <v>44987</v>
       </c>
       <c r="D394">
-        <v>0.8466319444444445</v>
-      </c>
-      <c r="F394">
-        <v>3</v>
+        <v>0.7783101851851852</v>
+      </c>
+      <c r="F394" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8840,64 +8876,64 @@
         <v>81</v>
       </c>
       <c r="B395" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C395" s="1">
-        <v>44941</v>
+        <v>44949</v>
       </c>
       <c r="D395">
-        <v>0.2755787037037037</v>
-      </c>
-      <c r="F395">
-        <v>1</v>
+        <v>0.1502546296296296</v>
+      </c>
+      <c r="F395" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B396" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C396" s="1">
-        <v>44968</v>
+        <v>45016</v>
       </c>
       <c r="D396">
-        <v>0.5428819444444445</v>
+        <v>0.5908101851851851</v>
       </c>
       <c r="F396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B397" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C397" s="1">
-        <v>44995</v>
+        <v>44972</v>
       </c>
       <c r="D397">
-        <v>0.7812152777777778</v>
+        <v>0.8466319444444445</v>
       </c>
       <c r="F397">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B398" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C398" s="1">
-        <v>45023</v>
+        <v>44941</v>
       </c>
       <c r="D398">
-        <v>0.0575462962962963</v>
+        <v>0.2755787037037037</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -8905,16 +8941,16 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B399" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C399" s="1">
-        <v>45050</v>
+        <v>44968</v>
       </c>
       <c r="D399">
-        <v>0.3979861111111112</v>
+        <v>0.5428819444444445</v>
       </c>
       <c r="F399">
         <v>1</v>
@@ -8922,16 +8958,16 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B400" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C400" s="1">
-        <v>45077</v>
+        <v>44995</v>
       </c>
       <c r="D400">
-        <v>0.780625</v>
+        <v>0.7812152777777778</v>
       </c>
       <c r="F400">
         <v>1</v>
@@ -8939,16 +8975,16 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B401" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C401" s="1">
-        <v>45105</v>
+        <v>45023</v>
       </c>
       <c r="D401">
-        <v>0.157974537037037</v>
+        <v>0.0575462962962963</v>
       </c>
       <c r="F401">
         <v>1</v>
@@ -8956,16 +8992,16 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B402" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C402" s="1">
-        <v>45132</v>
+        <v>45050</v>
       </c>
       <c r="D402">
-        <v>0.4869560185185185</v>
+        <v>0.3979861111111112</v>
       </c>
       <c r="F402">
         <v>1</v>
@@ -8973,152 +9009,152 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B403" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C403" s="1">
-        <v>45159</v>
+        <v>45077</v>
       </c>
       <c r="D403">
-        <v>0.7557523148148149</v>
+        <v>0.780625</v>
       </c>
       <c r="F403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B404" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C404" s="1">
-        <v>45186</v>
+        <v>45105</v>
       </c>
       <c r="D404">
-        <v>0.9940972222222223</v>
+        <v>0.157974537037037</v>
       </c>
       <c r="F404">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B405" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C405" s="1">
-        <v>45214</v>
+        <v>45132</v>
       </c>
       <c r="D405">
-        <v>0.2547916666666666</v>
+        <v>0.4869560185185185</v>
       </c>
       <c r="F405">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B406" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C406" s="1">
-        <v>45241</v>
+        <v>45159</v>
       </c>
       <c r="D406">
-        <v>0.5750925925925926</v>
+        <v>0.7557523148148149</v>
       </c>
       <c r="F406">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B407" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C407" s="1">
-        <v>45268</v>
+        <v>45186</v>
       </c>
       <c r="D407">
-        <v>0.9476273148148149</v>
+        <v>0.9940972222222223</v>
       </c>
       <c r="F407">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B408" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C408" s="1">
-        <v>44936</v>
+        <v>45214</v>
       </c>
       <c r="D408">
-        <v>0.8450810185185186</v>
+        <v>0.2547916666666666</v>
       </c>
       <c r="F408">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B409" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C409" s="1">
-        <v>44964</v>
+        <v>45241</v>
       </c>
       <c r="D409">
-        <v>0.09880787037037037</v>
+        <v>0.5750925925925926</v>
       </c>
       <c r="F409">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B410" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C410" s="1">
-        <v>44991</v>
+        <v>45268</v>
       </c>
       <c r="D410">
-        <v>0.3657407407407408</v>
+        <v>0.9476273148148149</v>
       </c>
       <c r="F410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B411" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C411" s="1">
-        <v>45018</v>
+        <v>44936</v>
       </c>
       <c r="D411">
-        <v>0.6675</v>
+        <v>0.8450810185185186</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -9126,16 +9162,16 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B412" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C412" s="1">
-        <v>45046</v>
+        <v>44964</v>
       </c>
       <c r="D412">
-        <v>0.0002083333333333333</v>
+        <v>0.09880787037037037</v>
       </c>
       <c r="F412">
         <v>1</v>
@@ -9143,16 +9179,16 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B413" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C413" s="1">
-        <v>45073</v>
+        <v>44991</v>
       </c>
       <c r="D413">
-        <v>0.3395833333333333</v>
+        <v>0.3657407407407408</v>
       </c>
       <c r="F413">
         <v>1</v>
@@ -9160,84 +9196,84 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B414" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C414" s="1">
-        <v>45100</v>
+        <v>45018</v>
       </c>
       <c r="D414">
-        <v>0.6572569444444445</v>
+        <v>0.6675</v>
       </c>
       <c r="F414">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B415" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C415" s="1">
-        <v>45127</v>
+        <v>45046</v>
       </c>
       <c r="D415">
-        <v>0.9387962962962962</v>
+        <v>0.0002083333333333333</v>
       </c>
       <c r="F415">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B416" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C416" s="1">
-        <v>45155</v>
+        <v>45073</v>
       </c>
       <c r="D416">
-        <v>0.1924537037037037</v>
+        <v>0.3395833333333333</v>
       </c>
       <c r="F416">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B417" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C417" s="1">
-        <v>45182</v>
+        <v>45100</v>
       </c>
       <c r="D417">
-        <v>0.4441666666666667</v>
+        <v>0.6572569444444445</v>
       </c>
       <c r="F417">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B418" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C418" s="1">
-        <v>45209</v>
+        <v>45127</v>
       </c>
       <c r="D418">
-        <v>0.722511574074074</v>
+        <v>0.9387962962962962</v>
       </c>
       <c r="F418">
         <v>2</v>
@@ -9245,50 +9281,50 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B419" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C419" s="1">
-        <v>45237</v>
+        <v>45155</v>
       </c>
       <c r="D419">
-        <v>0.04097222222222222</v>
+        <v>0.1924537037037037</v>
       </c>
       <c r="F419">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B420" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C420" s="1">
-        <v>45264</v>
+        <v>45182</v>
       </c>
       <c r="D420">
-        <v>0.3877199074074074</v>
+        <v>0.4441666666666667</v>
       </c>
       <c r="F420">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B421" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C421" s="1">
-        <v>44944</v>
+        <v>45209</v>
       </c>
       <c r="D421">
-        <v>0.7528125</v>
+        <v>0.722511574074074</v>
       </c>
       <c r="F421">
         <v>2</v>
@@ -9296,16 +9332,16 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B422" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C422" s="1">
-        <v>44972</v>
+        <v>45237</v>
       </c>
       <c r="D422">
-        <v>0.1132175925925926</v>
+        <v>0.04097222222222222</v>
       </c>
       <c r="F422">
         <v>1</v>
@@ -9313,16 +9349,16 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B423" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C423" s="1">
-        <v>44999</v>
+        <v>45264</v>
       </c>
       <c r="D423">
-        <v>0.3722916666666667</v>
+        <v>0.3877199074074074</v>
       </c>
       <c r="F423">
         <v>1</v>
@@ -9330,33 +9366,33 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B424" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C424" s="1">
-        <v>45026</v>
+        <v>44944</v>
       </c>
       <c r="D424">
-        <v>0.6008680555555556</v>
+        <v>0.7528125</v>
       </c>
       <c r="F424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B425" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C425" s="1">
-        <v>45053</v>
+        <v>44972</v>
       </c>
       <c r="D425">
-        <v>0.8817476851851852</v>
+        <v>0.1132175925925926</v>
       </c>
       <c r="F425">
         <v>1</v>
@@ -9364,16 +9400,16 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B426" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C426" s="1">
-        <v>45081</v>
+        <v>44999</v>
       </c>
       <c r="D426">
-        <v>0.2453472222222222</v>
+        <v>0.3722916666666667</v>
       </c>
       <c r="F426">
         <v>1</v>
@@ -9381,16 +9417,16 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B427" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C427" s="1">
-        <v>45108</v>
+        <v>45026</v>
       </c>
       <c r="D427">
-        <v>0.6629513888888889</v>
+        <v>0.6008680555555556</v>
       </c>
       <c r="F427">
         <v>1</v>
@@ -9398,16 +9434,16 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B428" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C428" s="1">
-        <v>45136</v>
+        <v>45053</v>
       </c>
       <c r="D428">
-        <v>0.07385416666666667</v>
+        <v>0.8817476851851852</v>
       </c>
       <c r="F428">
         <v>1</v>
@@ -9415,16 +9451,16 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B429" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C429" s="1">
-        <v>45163</v>
+        <v>45081</v>
       </c>
       <c r="D429">
-        <v>0.4205208333333334</v>
+        <v>0.2453472222222222</v>
       </c>
       <c r="F429">
         <v>1</v>
@@ -9432,16 +9468,16 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B430" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C430" s="1">
-        <v>45190</v>
+        <v>45108</v>
       </c>
       <c r="D430">
-        <v>0.6852893518518518</v>
+        <v>0.6629513888888889</v>
       </c>
       <c r="F430">
         <v>1</v>
@@ -9449,118 +9485,118 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B431" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C431" s="1">
-        <v>45217</v>
+        <v>45136</v>
       </c>
       <c r="D431">
-        <v>0.9118402777777778</v>
+        <v>0.07385416666666667</v>
       </c>
       <c r="F431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B432" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C432" s="1">
-        <v>45245</v>
+        <v>45163</v>
       </c>
       <c r="D432">
-        <v>0.1791435185185185</v>
+        <v>0.4205208333333334</v>
       </c>
       <c r="F432">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B433" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C433" s="1">
-        <v>45272</v>
+        <v>45190</v>
       </c>
       <c r="D433">
-        <v>0.5357986111111112</v>
+        <v>0.6852893518518518</v>
       </c>
       <c r="F433">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B434" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C434" s="1">
-        <v>44930</v>
+        <v>45217</v>
       </c>
       <c r="D434">
-        <v>0.3701388888888889</v>
+        <v>0.9118402777777778</v>
       </c>
       <c r="F434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B435" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C435" s="1">
-        <v>44957</v>
+        <v>45245</v>
       </c>
       <c r="D435">
-        <v>0.6148148148148148</v>
+        <v>0.1791435185185185</v>
       </c>
       <c r="F435">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B436" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C436" s="1">
-        <v>44984</v>
+        <v>45272</v>
       </c>
       <c r="D436">
-        <v>0.9020833333333332</v>
+        <v>0.5357986111111112</v>
       </c>
       <c r="F436">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B437" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C437" s="1">
-        <v>45012</v>
+        <v>44930</v>
       </c>
       <c r="D437">
-        <v>0.2533564814814815</v>
+        <v>0.3701388888888889</v>
       </c>
       <c r="F437">
         <v>1</v>
@@ -9568,67 +9604,67 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B438" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C438" s="1">
-        <v>45039</v>
+        <v>44957</v>
       </c>
       <c r="D438">
-        <v>0.6364930555555556</v>
+        <v>0.6148148148148148</v>
       </c>
       <c r="F438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B439" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C439" s="1">
-        <v>45066</v>
+        <v>44984</v>
       </c>
       <c r="D439">
-        <v>0.9965972222222222</v>
+        <v>0.9020833333333332</v>
       </c>
       <c r="F439">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B440" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C440" s="1">
-        <v>45094</v>
+        <v>45012</v>
       </c>
       <c r="D440">
-        <v>0.2978587962962963</v>
+        <v>0.2533564814814815</v>
       </c>
       <c r="F440">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B441" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C441" s="1">
-        <v>45121</v>
+        <v>45039</v>
       </c>
       <c r="D441">
-        <v>0.5448842592592592</v>
+        <v>0.6364930555555556</v>
       </c>
       <c r="F441">
         <v>2</v>
@@ -9636,67 +9672,67 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B442" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C442" s="1">
-        <v>45148</v>
+        <v>45066</v>
       </c>
       <c r="D442">
-        <v>0.7795486111111111</v>
+        <v>0.9965972222222222</v>
       </c>
       <c r="F442">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B443" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C443" s="1">
-        <v>45176</v>
+        <v>45094</v>
       </c>
       <c r="D443">
-        <v>0.05652777777777778</v>
+        <v>0.2978587962962963</v>
       </c>
       <c r="F443">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B444" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C444" s="1">
-        <v>45203</v>
+        <v>45121</v>
       </c>
       <c r="D444">
-        <v>0.4066203703703704</v>
+        <v>0.5448842592592592</v>
       </c>
       <c r="F444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B445" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C445" s="1">
-        <v>45230</v>
+        <v>45148</v>
       </c>
       <c r="D445">
-        <v>0.8112962962962963</v>
+        <v>0.7795486111111111</v>
       </c>
       <c r="F445">
         <v>1</v>
@@ -9704,16 +9740,16 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B446" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C446" s="1">
-        <v>45258</v>
+        <v>45176</v>
       </c>
       <c r="D446">
-        <v>0.2103935185185185</v>
+        <v>0.05652777777777778</v>
       </c>
       <c r="F446">
         <v>1</v>
@@ -9721,16 +9757,16 @@
     </row>
     <row r="447" spans="1:6">
       <c r="A447" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B447" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C447" s="1">
-        <v>45285</v>
+        <v>45203</v>
       </c>
       <c r="D447">
-        <v>0.5424421296296297</v>
+        <v>0.4066203703703704</v>
       </c>
       <c r="F447">
         <v>1</v>
@@ -9738,16 +9774,16 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B448" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C448" s="1">
-        <v>44933</v>
+        <v>45230</v>
       </c>
       <c r="D448">
-        <v>0.9297916666666667</v>
+        <v>0.8112962962962963</v>
       </c>
       <c r="F448">
         <v>1</v>
@@ -9755,16 +9791,16 @@
     </row>
     <row r="449" spans="1:6">
       <c r="A449" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B449" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C449" s="1">
-        <v>44961</v>
+        <v>45258</v>
       </c>
       <c r="D449">
-        <v>0.1846064814814815</v>
+        <v>0.2103935185185185</v>
       </c>
       <c r="F449">
         <v>1</v>
@@ -9772,16 +9808,16 @@
     </row>
     <row r="450" spans="1:6">
       <c r="A450" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B450" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C450" s="1">
-        <v>44988</v>
+        <v>45285</v>
       </c>
       <c r="D450">
-        <v>0.4504976851851852</v>
+        <v>0.5424421296296297</v>
       </c>
       <c r="F450">
         <v>1</v>
@@ -9789,16 +9825,16 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B451" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C451" s="1">
-        <v>45015</v>
+        <v>44933</v>
       </c>
       <c r="D451">
-        <v>0.7514930555555557</v>
+        <v>0.9297916666666667</v>
       </c>
       <c r="F451">
         <v>1</v>
@@ -9806,16 +9842,16 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B452" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C452" s="1">
-        <v>45043</v>
+        <v>44961</v>
       </c>
       <c r="D452">
-        <v>0.08594907407407408</v>
+        <v>0.1846064814814815</v>
       </c>
       <c r="F452">
         <v>1</v>
@@ -9823,154 +9859,205 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B453" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C453" s="1">
-        <v>45070</v>
+        <v>44988</v>
       </c>
       <c r="D453">
-        <v>0.4266319444444444</v>
+        <v>0.4504976851851852</v>
       </c>
       <c r="F453">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B454" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C454" s="1">
-        <v>45097</v>
+        <v>45015</v>
       </c>
       <c r="D454">
-        <v>0.7414120370370371</v>
+        <v>0.7514930555555557</v>
       </c>
       <c r="F454">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B455" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C455" s="1">
-        <v>45125</v>
+        <v>45043</v>
       </c>
       <c r="D455">
-        <v>0.01541666666666667</v>
+        <v>0.08594907407407408</v>
       </c>
       <c r="F455">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B456" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C456" s="1">
-        <v>45152</v>
+        <v>45070</v>
       </c>
       <c r="D456">
-        <v>0.2601041666666666</v>
+        <v>0.4266319444444444</v>
       </c>
       <c r="F456">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B457" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C457" s="1">
-        <v>45179</v>
+        <v>45097</v>
       </c>
       <c r="D457">
-        <v>0.5075925925925926</v>
+        <v>0.7414120370370371</v>
       </c>
       <c r="F457">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B458" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C458" s="1">
-        <v>45206</v>
+        <v>45125</v>
       </c>
       <c r="D458">
-        <v>0.7931481481481483</v>
+        <v>0.01541666666666667</v>
       </c>
       <c r="F458">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B459" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C459" s="1">
-        <v>45234</v>
+        <v>45152</v>
       </c>
       <c r="D459">
-        <v>0.1314467592592592</v>
+        <v>0.2601041666666666</v>
       </c>
       <c r="F459">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B460" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C460" s="1">
-        <v>45261</v>
+        <v>45179</v>
       </c>
       <c r="D460">
-        <v>0.5009837962962963</v>
+        <v>0.5075925925925926</v>
       </c>
       <c r="F460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B461" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C461" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D461">
+        <v>0.7931481481481483</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>88</v>
+      </c>
+      <c r="B462" t="s">
+        <v>177</v>
+      </c>
+      <c r="C462" s="1">
+        <v>45234</v>
+      </c>
+      <c r="D462">
+        <v>0.1314467592592592</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="s">
+        <v>88</v>
+      </c>
+      <c r="B463" t="s">
+        <v>177</v>
+      </c>
+      <c r="C463" s="1">
+        <v>45261</v>
+      </c>
+      <c r="D463">
+        <v>0.5009837962962963</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>88</v>
+      </c>
+      <c r="B464" t="s">
+        <v>177</v>
+      </c>
+      <c r="C464" s="1">
         <v>45288</v>
       </c>
-      <c r="D461">
+      <c r="D464">
         <v>0.8542476851851851</v>
       </c>
-      <c r="F461">
+      <c r="F464">
         <v>1</v>
       </c>
     </row>
